--- a/PROSKRIP/Analisa_LK_UNVR_2014_2018.xlsx
+++ b/PROSKRIP/Analisa_LK_UNVR_2014_2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ANALISIS" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="85">
   <si>
     <t>Kas dan setara kas</t>
   </si>
@@ -300,6 +300,12 @@
   <si>
     <t xml:space="preserve">Harga penutupan </t>
   </si>
+  <si>
+    <t>Ekuitas</t>
+  </si>
+  <si>
+    <t>Liabilitas &amp; Ekuitas</t>
+  </si>
 </sst>
 </file>
 
@@ -308,8 +314,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -414,104 +420,89 @@
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,13 +515,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -816,370 +822,464 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.28515625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.28515625" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="34" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41"/>
-      <c r="C2" s="40" t="s">
+      <c r="C1" s="42" t="str">
+        <f>IF(C8-C15=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="D1" s="42" t="str">
+        <f>IF(D8-D15=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="E1" s="42" t="str">
+        <f>IF(E8-E15=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="F1" s="42" t="str">
+        <f>IF(F8-F15=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="G1" s="42" t="str">
+        <f>IF(G8-G15=0,"","X")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="36"/>
+      <c r="C2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="35" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+    <row r="3" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="42">
         <f>BALANCE_SHEET!E19</f>
         <v>6337170</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="42">
         <f>BALANCE_SHEET!F19</f>
         <v>6623114</v>
       </c>
-      <c r="E3" s="47">
+      <c r="E3" s="42">
         <f>BALANCE_SHEET!G19</f>
         <v>6588109</v>
       </c>
-      <c r="F3" s="47">
+      <c r="F3" s="42">
         <f>BALANCE_SHEET!H19</f>
         <v>7941635</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="42">
         <f>BALANCE_SHEET!I19</f>
         <v>8325029</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="46" t="s">
+    <row r="4" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="42">
         <f>BALANCE_SHEET!E22</f>
         <v>7348025</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="42">
         <f>BALANCE_SHEET!F22</f>
         <v>8320917</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="42">
         <f>BALANCE_SHEET!G22</f>
         <v>9529476</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="42">
         <f>BALANCE_SHEET!H22</f>
         <v>10422133</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="42">
         <f>BALANCE_SHEET!I22</f>
         <v>10627387</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46" t="s">
+    <row r="5" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="42">
         <f>BALANCE_SHEET!E23</f>
         <v>61925</v>
       </c>
-      <c r="D5" s="47">
+      <c r="D5" s="42">
         <f>BALANCE_SHEET!F23</f>
         <v>61925</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="42">
         <f>BALANCE_SHEET!G23</f>
         <v>61925</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="42">
         <f>BALANCE_SHEET!H23</f>
         <v>61925</v>
       </c>
-      <c r="G5" s="47">
+      <c r="G5" s="42">
         <f>BALANCE_SHEET!I23</f>
         <v>61925</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+    <row r="6" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="42">
         <f>BALANCE_SHEET!E24</f>
         <v>452240</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="42">
         <f>BALANCE_SHEET!F24</f>
         <v>431021</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="42">
         <f>BALANCE_SHEET!G24</f>
         <v>409802</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="42">
         <f>BALANCE_SHEET!H24</f>
         <v>390838</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="42">
         <f>BALANCE_SHEET!I24</f>
         <v>434205</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="46" t="s">
+    <row r="7" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="42">
         <f>BALANCE_SHEET!E25</f>
         <v>81310</v>
       </c>
-      <c r="D7" s="47">
+      <c r="D7" s="42">
         <f>BALANCE_SHEET!F25</f>
         <v>292968</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="42">
         <f>BALANCE_SHEET!G25</f>
         <v>156383</v>
       </c>
-      <c r="F7" s="47">
+      <c r="F7" s="42">
         <f>BALANCE_SHEET!H25</f>
         <v>89882</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="42">
         <f>BALANCE_SHEET!I25</f>
         <v>74424</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="46" t="s">
+    <row r="8" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="47">
+      <c r="C8" s="42">
         <f>SUM(C3:C7)</f>
         <v>14280670</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="42">
         <f t="shared" ref="D8:G8" si="0">SUM(D3:D7)</f>
         <v>15729945</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="42">
         <f t="shared" si="0"/>
         <v>16745695</v>
       </c>
-      <c r="F8" s="47">
+      <c r="F8" s="42">
         <f t="shared" si="0"/>
         <v>18906413</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="42">
         <f t="shared" si="0"/>
         <v>19522970</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="46" t="s">
+    <row r="9" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="41"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="46" t="s">
+      <c r="C10" s="42">
+        <f>BALANCE_SHEET!E43</f>
+        <v>8864832</v>
+      </c>
+      <c r="D10" s="42">
+        <f>BALANCE_SHEET!F43</f>
+        <v>10127542</v>
+      </c>
+      <c r="E10" s="42">
+        <f>BALANCE_SHEET!G43</f>
+        <v>10878074</v>
+      </c>
+      <c r="F10" s="42">
+        <f>BALANCE_SHEET!H43</f>
+        <v>12532304</v>
+      </c>
+      <c r="G10" s="42">
+        <f>BALANCE_SHEET!I43</f>
+        <v>11134786</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
+      <c r="C11" s="42">
+        <f>BALANCE_SHEET!E48</f>
+        <v>817056</v>
+      </c>
+      <c r="D11" s="42">
+        <f>BALANCE_SHEET!F48</f>
+        <v>775043</v>
+      </c>
+      <c r="E11" s="42">
+        <f>BALANCE_SHEET!G48</f>
+        <v>1163363</v>
+      </c>
+      <c r="F11" s="42">
+        <f>BALANCE_SHEET!H48</f>
+        <v>1200721</v>
+      </c>
+      <c r="G11" s="42">
+        <f>BALANCE_SHEET!I48</f>
+        <v>810051</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-    </row>
-    <row r="15" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-    </row>
-    <row r="16" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-    </row>
-    <row r="19" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
+      <c r="C12" s="42">
+        <f>C10+C11</f>
+        <v>9681888</v>
+      </c>
+      <c r="D12" s="42">
+        <f>D10+D11</f>
+        <v>10902585</v>
+      </c>
+      <c r="E12" s="42">
+        <f>E10+E11</f>
+        <v>12041437</v>
+      </c>
+      <c r="F12" s="42">
+        <f>F10+F11</f>
+        <v>13733025</v>
+      </c>
+      <c r="G12" s="42">
+        <f>G10+G11</f>
+        <v>11944837</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="42">
+        <f>BALANCE_SHEET!E57</f>
+        <v>4598782</v>
+      </c>
+      <c r="D14" s="42">
+        <f>BALANCE_SHEET!F57</f>
+        <v>4827360</v>
+      </c>
+      <c r="E14" s="42">
+        <f>BALANCE_SHEET!G57</f>
+        <v>4704258</v>
+      </c>
+      <c r="F14" s="42">
+        <f>BALANCE_SHEET!H57</f>
+        <v>5173388</v>
+      </c>
+      <c r="G14" s="42">
+        <f>BALANCE_SHEET!I57</f>
+        <v>7578133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="42">
+        <f>C12+C14</f>
+        <v>14280670</v>
+      </c>
+      <c r="D15" s="42">
+        <f t="shared" ref="D15:G15" si="1">D12+D14</f>
+        <v>15729945</v>
+      </c>
+      <c r="E15" s="42">
+        <f t="shared" si="1"/>
+        <v>16745695</v>
+      </c>
+      <c r="F15" s="42">
+        <f t="shared" si="1"/>
+        <v>18906413</v>
+      </c>
+      <c r="G15" s="42">
+        <f t="shared" si="1"/>
+        <v>19522970</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="41"/>
+    </row>
+    <row r="17" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47">
+      <c r="C19" s="42"/>
+      <c r="D19" s="42">
         <v>37000</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="42">
         <v>38800</v>
       </c>
       <c r="F19">
         <v>55900</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="42">
         <v>45400</v>
       </c>
     </row>
-    <row r="20" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-    </row>
-    <row r="22" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-    </row>
-    <row r="23" spans="2:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
+    <row r="20" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="41"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" spans="2:7" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" spans="2:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="39">
         <f>INCOME_STATEMENT!D6</f>
         <v>34511534</v>
       </c>
-      <c r="D23" s="44">
+      <c r="D23" s="39">
         <f>INCOME_STATEMENT!E6</f>
         <v>36484030</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="39">
         <f>INCOME_STATEMENT!F6</f>
         <v>40053732</v>
       </c>
-      <c r="F23" s="44">
+      <c r="F23" s="39">
         <f>INCOME_STATEMENT!G6</f>
         <v>41204510</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="39">
         <f>INCOME_STATEMENT!H6</f>
         <v>41802073</v>
       </c>
     </row>
-    <row r="24" spans="2:7" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="46" t="s">
+    <row r="24" spans="2:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="39">
         <f>INCOME_STATEMENT!D17</f>
         <v>5738523</v>
       </c>
-      <c r="D24" s="44">
+      <c r="D24" s="39">
         <f>INCOME_STATEMENT!E17</f>
         <v>5851805</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="39">
         <f>INCOME_STATEMENT!F17</f>
         <v>6390672</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="39">
         <f>INCOME_STATEMENT!G17</f>
         <v>7004562</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="39">
         <f>INCOME_STATEMENT!H17</f>
         <v>9109445</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C25" s="2">
@@ -1204,84 +1304,84 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="42"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="32">
         <f>INCOME_STATEMENT!D17/BALANCE_SHEET!E27</f>
         <v>0.40183849917405834</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="32">
         <f>INCOME_STATEMENT!E17/BALANCE_SHEET!F27</f>
         <v>0.37201687609206519</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="32">
         <f>INCOME_STATEMENT!F17/BALANCE_SHEET!G27</f>
         <v>0.38163074151296794</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="32">
         <f>INCOME_STATEMENT!G17/BALANCE_SHEET!H27</f>
         <v>0.37048603561130289</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="32">
         <f>INCOME_STATEMENT!H17/BALANCE_SHEET!I27</f>
         <v>0.46660139312819721</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="32">
         <f>BALANCE_SHEET!E49/BALANCE_SHEET!E57</f>
         <v>2.1053157118558783</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="32">
         <f>BALANCE_SHEET!F49/BALANCE_SHEET!F57</f>
         <v>2.2584984339266181</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="32">
         <f>BALANCE_SHEET!G49/BALANCE_SHEET!G57</f>
         <v>2.5596889031171335</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="32">
         <f>BALANCE_SHEET!H49/BALANCE_SHEET!H57</f>
         <v>2.6545515240689466</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="32">
         <f>BALANCE_SHEET!I49/BALANCE_SHEET!I57</f>
         <v>1.576224249429246</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="32">
         <f>INCOME_STATEMENT!D17/INCOME_STATEMENT!D6</f>
         <v>0.16627840999475713</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="32">
         <f>INCOME_STATEMENT!E17/INCOME_STATEMENT!E6</f>
         <v>0.16039360235149461</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="32">
         <f>INCOME_STATEMENT!F17/INCOME_STATEMENT!F6</f>
         <v>0.15955247316280041</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="32">
         <f>INCOME_STATEMENT!G17/INCOME_STATEMENT!G6</f>
         <v>0.16999503209721459</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="32">
         <f>INCOME_STATEMENT!H17/INCOME_STATEMENT!H6</f>
         <v>0.21791849892229029</v>
       </c>
@@ -1296,99 +1396,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I59"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="8"/>
     <col min="2" max="2" width="3.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="10" customWidth="1"/>
     <col min="5" max="9" width="12.140625" style="8" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="20" t="str">
+    <row r="4" spans="2:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="16" t="str">
         <f>IF(E27-E58=0,"BALANCED","unbalanced")</f>
         <v>BALANCED</v>
       </c>
-      <c r="F4" s="20" t="str">
+      <c r="F4" s="16" t="str">
         <f>IF(F27-F58=0,"BALANCED","unbalanced")</f>
         <v>BALANCED</v>
       </c>
-      <c r="G4" s="20" t="str">
+      <c r="G4" s="16" t="str">
         <f>IF(G27-G58=0,"BALANCED","unbalanced")</f>
         <v>BALANCED</v>
       </c>
-      <c r="H4" s="20" t="str">
+      <c r="H4" s="16" t="str">
         <f>IF(H27-H58=0,"BALANCED","unbalanced")</f>
         <v>BALANCED</v>
       </c>
-      <c r="I4" s="20" t="str">
+      <c r="I4" s="16" t="str">
         <f>IF(I27-I58=0,"BALANCED","unbalanced")</f>
         <v>BALANCED</v>
       </c>
     </row>
     <row r="5" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
     </row>
     <row r="7" spans="2:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="8">
         <v>859127</v>
       </c>
@@ -1406,13 +1506,13 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="8">
@@ -1432,7 +1532,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="8">
@@ -1452,13 +1552,13 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="46"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="8">
@@ -1478,7 +1578,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="8">
@@ -1498,10 +1598,10 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="8">
         <v>2325989</v>
       </c>
@@ -1519,10 +1619,10 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="8">
         <f>14179+85615</f>
         <v>99794</v>
@@ -1535,10 +1635,10 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="8">
         <v>0</v>
       </c>
@@ -1556,10 +1656,10 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="8">
         <v>0</v>
       </c>
@@ -1580,8 +1680,8 @@
       <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="6">
         <f>SUM(E8:E18)</f>
         <v>6337170</v>
@@ -1607,14 +1707,14 @@
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="8">
         <v>7348025</v>
       </c>
@@ -1632,10 +1732,10 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="8">
         <v>61925</v>
       </c>
@@ -1653,10 +1753,10 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="10"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="8">
         <v>452240</v>
       </c>
@@ -1674,10 +1774,10 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="10"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="8">
         <v>81310</v>
       </c>
@@ -1698,8 +1798,8 @@
       <c r="B26" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="6">
         <f>SUM(E22:E25)</f>
         <v>7943500</v>
@@ -1721,29 +1821,29 @@
         <v>11197941</v>
       </c>
     </row>
-    <row r="27" spans="2:9" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="2:9" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="13">
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="11">
         <f>E19+E26</f>
         <v>14280670</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="11">
         <f t="shared" ref="F27:I27" si="1">F19+F26</f>
         <v>15729945</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="11">
         <f t="shared" si="1"/>
         <v>16745695</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="11">
         <f t="shared" si="1"/>
         <v>18906413</v>
       </c>
-      <c r="I27" s="13">
+      <c r="I27" s="11">
         <f t="shared" si="1"/>
         <v>19522970</v>
       </c>
@@ -1760,10 +1860,10 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="8">
         <v>1250000</v>
       </c>
@@ -1781,13 +1881,13 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="46"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="8">
@@ -1807,7 +1907,7 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="8">
@@ -1827,13 +1927,13 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="46"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E36" s="8">
@@ -1853,7 +1953,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="8">
@@ -1873,10 +1973,10 @@
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="8">
         <v>1141375</v>
       </c>
@@ -1894,13 +1994,13 @@
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="46"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E40" s="8">
@@ -1920,7 +2020,7 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="8">
@@ -1940,10 +2040,10 @@
       </c>
     </row>
     <row r="42" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="8">
         <v>39034</v>
       </c>
@@ -1964,8 +2064,8 @@
       <c r="B43" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="6">
         <f>SUM(E31:E42)</f>
         <v>8864832</v>
@@ -1993,10 +2093,10 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="10"/>
+      <c r="D46" s="46"/>
       <c r="E46" s="8">
         <v>246093</v>
       </c>
@@ -2014,10 +2114,10 @@
       </c>
     </row>
     <row r="47" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="D47" s="10"/>
+      <c r="D47" s="46"/>
       <c r="E47" s="8">
         <v>570963</v>
       </c>
@@ -2038,8 +2138,8 @@
       <c r="B48" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="6">
         <f>SUM(E46:E47)</f>
         <v>817056</v>
@@ -2062,28 +2162,28 @@
       </c>
     </row>
     <row r="49" spans="2:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="13">
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="11">
         <f>E43+E48</f>
         <v>9681888</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="11">
         <f>F43+F48</f>
         <v>10902585</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="11">
         <f t="shared" ref="G49:I49" si="3">G43+G48</f>
         <v>12041437</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="11">
         <f t="shared" si="3"/>
         <v>13733025</v>
       </c>
-      <c r="I49" s="13">
+      <c r="I49" s="11">
         <f t="shared" si="3"/>
         <v>11944837</v>
       </c>
@@ -2093,17 +2193,17 @@
       <c r="B51" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="D52" s="10"/>
+      <c r="D52" s="46"/>
     </row>
     <row r="53" spans="2:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="43" t="s">
         <v>40</v>
       </c>
       <c r="E53" s="5">
@@ -2123,10 +2223,10 @@
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="10"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="8">
         <v>96000</v>
       </c>
@@ -2144,10 +2244,10 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="10"/>
+      <c r="D55" s="46"/>
       <c r="E55" s="8">
         <v>15260</v>
       </c>
@@ -2165,10 +2265,10 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="10"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="8">
         <v>4411222</v>
       </c>
@@ -2186,55 +2286,55 @@
       </c>
     </row>
     <row r="57" spans="2:9" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="13">
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="11">
         <f>SUM(E52:E56)</f>
         <v>4598782</v>
       </c>
-      <c r="F57" s="13">
-        <f t="shared" ref="F57:I57" si="4">SUM(F52:F56)</f>
+      <c r="F57" s="11">
+        <f t="shared" ref="F57:G57" si="4">SUM(F52:F56)</f>
         <v>4827360</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="11">
         <f t="shared" si="4"/>
         <v>4704258</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="11">
         <f>SUM(H53:H56)</f>
         <v>5173388</v>
       </c>
-      <c r="I57" s="13">
+      <c r="I57" s="11">
         <f>SUM(I53:I56)</f>
         <v>7578133</v>
       </c>
     </row>
     <row r="58" spans="2:9" s="6" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="13">
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="11">
         <f>E49+E57</f>
         <v>14280670</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="11">
         <f>F49+F57</f>
         <v>15729945</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="11">
         <f>G49+G57</f>
         <v>16745695</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="11">
         <f>H49+H57</f>
         <v>18906413</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I58" s="11">
         <f>I49+I57</f>
         <v>19522970</v>
       </c>
@@ -2242,6 +2342,18 @@
     <row r="59" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B49:D49"/>
@@ -2258,18 +2370,6 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2287,63 +2387,63 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="3.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="10" customWidth="1"/>
     <col min="4" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="1">
         <v>34511534</v>
       </c>
@@ -2361,10 +2461,10 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="1">
         <v>-17412413</v>
       </c>
@@ -2382,8 +2482,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="3">
@@ -2408,10 +2508,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="9"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="1">
         <v>-6613992</v>
       </c>
@@ -2429,10 +2529,10 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="1">
         <v>-2705822</v>
       </c>
@@ -2450,10 +2550,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="1">
         <v>-16979</v>
       </c>
@@ -2471,8 +2571,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D12" s="3">
@@ -2497,10 +2597,10 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="1">
         <v>10458</v>
       </c>
@@ -2518,10 +2618,10 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="1">
         <v>-96064</v>
       </c>
@@ -2539,8 +2639,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="3">
@@ -2565,10 +2665,10 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="1">
         <v>-1938199</v>
       </c>
@@ -2586,8 +2686,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="3">
@@ -2612,19 +2712,19 @@
       </c>
     </row>
     <row r="18" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="44"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="48"/>
     </row>
     <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="1">
@@ -2644,7 +2744,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D21" s="1">
@@ -2664,10 +2764,10 @@
       </c>
     </row>
     <row r="22" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="15"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="3">
         <f>D20+D21</f>
         <v>0</v>
@@ -2690,10 +2790,10 @@
       </c>
     </row>
     <row r="23" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="15"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="3">
         <f>D17+D22</f>
         <v>5738523</v>
@@ -2715,35 +2815,35 @@
         <v>9386195</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
+    <row r="24" spans="2:8" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="25">
+      <c r="C24" s="49"/>
+      <c r="D24" s="21">
         <v>0</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="21">
         <v>0</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="21">
         <v>0</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="21">
         <v>10149844</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="21">
         <v>13055881</v>
       </c>
     </row>
     <row r="25" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="15"/>
+      <c r="C25" s="44"/>
     </row>
     <row r="26" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>66</v>
       </c>
       <c r="D26" s="1">
@@ -2764,12 +2864,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
@@ -2778,6 +2872,12 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PROSKRIP/Analisa_LK_UNVR_2014_2018.xlsx
+++ b/PROSKRIP/Analisa_LK_UNVR_2014_2018.xlsx
@@ -12,9 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="ANALISIS" sheetId="3" r:id="rId1"/>
-    <sheet name="BALANCE_SHEET" sheetId="1" r:id="rId2"/>
-    <sheet name="INCOME_STATEMENT" sheetId="2" r:id="rId3"/>
+    <sheet name="BALANCE_SHEET" sheetId="1" r:id="rId1"/>
+    <sheet name="INCOME_STATEMENT" sheetId="2" r:id="rId2"/>
+    <sheet name="ANALISA_RASIO" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="54">
   <si>
     <t>Aset Lancar</t>
   </si>
@@ -165,17 +166,42 @@
   <si>
     <t>PT. UNILEVER INDONESIA Tbk</t>
   </si>
+  <si>
+    <t>UNVR</t>
+  </si>
+  <si>
+    <t>MRAT</t>
+  </si>
+  <si>
+    <t>MBTO</t>
+  </si>
+  <si>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>NPM</t>
+  </si>
+  <si>
+    <t>DER</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>RATA2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,13 +292,33 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -308,10 +354,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -357,9 +402,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -387,9 +429,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -400,20 +439,69 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -695,1048 +783,1029 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="7" width="9.140625" style="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="3.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="18.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="3.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="18.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+    <row r="1" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15" t="str">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14" t="str">
         <f>IF(E8-E15=0,"","UNBALANCED")</f>
         <v/>
       </c>
-      <c r="F5" s="15" t="str">
+      <c r="F5" s="14" t="str">
         <f t="shared" ref="F5:I5" si="0">IF(F8-F15=0,"","UNBALANCED")</f>
         <v/>
       </c>
-      <c r="G5" s="15" t="str">
+      <c r="G5" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H5" s="15" t="str">
+      <c r="H5" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I5" s="15" t="str">
+      <c r="I5" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="4">
+    <row r="6" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="3">
         <v>6337170000000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>6623114000000</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>6588109000000</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>6588109000000</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>7941635000000</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="18" t="s">
+    <row r="7" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="4">
+      <c r="D7" s="36"/>
+      <c r="E7" s="3">
         <v>7943500000000</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>9106831000000</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>10157586000000</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="3">
         <v>10157586000000</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>10964778000000</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4">
         <f>E6+E7</f>
         <v>14280670000000</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <f t="shared" ref="F8" si="1">F6+F7</f>
         <v>15729945000000</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <f t="shared" ref="G8" si="2">G6+G7</f>
         <v>16745695000000</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <f t="shared" ref="H8" si="3">H6+H7</f>
         <v>16745695000000</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <f t="shared" ref="I8" si="4">I6+I7</f>
         <v>18906413000000</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="18" t="s">
+    <row r="9" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="4">
+      <c r="D10" s="36"/>
+      <c r="E10" s="3">
         <v>8864832000000</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>10127542000000</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>10878074000000</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>10878074000000</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>12532304000000</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="18" t="s">
+    <row r="11" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="4">
+      <c r="D11" s="36"/>
+      <c r="E11" s="3">
         <v>817056000000</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>775043000000</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>1163363000000</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>1163363000000</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>1200721000000</v>
       </c>
     </row>
-    <row r="12" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4">
         <f>E10+E11</f>
         <v>9681888000000</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <f t="shared" ref="F12" si="5">F10+F11</f>
         <v>10902585000000</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <f t="shared" ref="G12" si="6">G10+G11</f>
         <v>12041437000000</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <f t="shared" ref="H12" si="7">H10+H11</f>
         <v>12041437000000</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f t="shared" ref="I12" si="8">I10+I11</f>
         <v>13733025000000</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+    <row r="13" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4">
         <v>4598782000000</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>4827360000000</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>4704258000000</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>4704258000000</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>5173388000000</v>
       </c>
     </row>
-    <row r="15" spans="2:9" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="7" t="s">
+    <row r="15" spans="2:9" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="7">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="6">
         <f>E12+E14</f>
         <v>14280670000000</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <f t="shared" ref="F15" si="9">F12+F14</f>
         <v>15729945000000</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <f t="shared" ref="G15" si="10">G12+G14</f>
         <v>16745695000000</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f t="shared" ref="H15" si="11">H12+H14</f>
         <v>16745695000000</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" ref="I15" si="12">I12+I14</f>
         <v>18906413000000</v>
       </c>
     </row>
-    <row r="16" spans="2:9" s="5" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="19" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11" t="s">
+    <row r="16" spans="2:9" s="4" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="19" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15" t="str">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14" t="str">
         <f>IF(E23-E30=0,"","UNBALANCED")</f>
         <v/>
       </c>
-      <c r="F20" s="15" t="str">
+      <c r="F20" s="14" t="str">
         <f t="shared" ref="F20:I20" si="13">IF(F23-F30=0,"","UNBALANCED")</f>
         <v/>
       </c>
-      <c r="G20" s="15" t="str">
+      <c r="G20" s="14" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="H20" s="15" t="str">
+      <c r="H20" s="14" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="I20" s="15" t="str">
+      <c r="I20" s="14" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="4">
+      <c r="C21" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="3">
         <v>376694285634</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>380988168593</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>372731501477</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>384262906538</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>382330851179</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="4">
+      <c r="D22" s="36"/>
+      <c r="E22" s="3">
         <v>122092091111</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>116101869515</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>110305672387</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>113091512551</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>129556932688</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+    <row r="23" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4">
         <f>E21+E22</f>
         <v>498786376745</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <f t="shared" ref="F23:I23" si="14">F21+F22</f>
         <v>497090038108</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="4">
         <f t="shared" si="14"/>
         <v>483037173864</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <f t="shared" si="14"/>
         <v>497354419089</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <f t="shared" si="14"/>
         <v>511887783867</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="4">
+      <c r="D25" s="36"/>
+      <c r="E25" s="3">
         <v>104267201912</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>102898339772</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>93871952310</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>106813922324</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>122929175890</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="4">
+      <c r="D26" s="36"/>
+      <c r="E26" s="3">
         <v>10574595944</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>17165678527</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>20076021579</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>23809082761</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>20984611197</v>
       </c>
     </row>
-    <row r="27" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+    <row r="27" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="5">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4">
         <f>E25+E26</f>
         <v>114841797856</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <f t="shared" ref="F27" si="15">F25+F26</f>
         <v>120064018299</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <f t="shared" ref="G27" si="16">G25+G26</f>
         <v>113947973889</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="4">
         <f t="shared" ref="H27" si="17">H25+H26</f>
         <v>130623005085</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <f t="shared" ref="I27" si="18">I25+I26</f>
         <v>143913787087</v>
       </c>
     </row>
-    <row r="29" spans="2:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
+    <row r="29" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="5">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4">
         <v>383944578889</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>377026019809</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>369089199975</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="4">
         <v>366731414004</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <v>367973996780</v>
       </c>
     </row>
-    <row r="30" spans="2:9" s="5" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="2:9" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="7">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="6">
         <f>E27+E29</f>
         <v>498786376745</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <f t="shared" ref="F30:I30" si="19">F27+F29</f>
         <v>497090038108</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <f t="shared" si="19"/>
         <v>483037173864</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <f t="shared" si="19"/>
         <v>497354419089</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <f t="shared" si="19"/>
         <v>511887783867</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11" t="s">
+    <row r="34" spans="2:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+    <row r="35" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="15" t="str">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="14" t="str">
         <f>IF(E38-E45=0,"","UNBALANCED")</f>
         <v/>
       </c>
-      <c r="F35" s="15" t="str">
+      <c r="F35" s="14" t="str">
         <f>IF(F38-F45=0,"","UNBALANCED")</f>
         <v/>
       </c>
-      <c r="G35" s="15" t="str">
+      <c r="G35" s="14" t="str">
         <f>IF(G38-G45=0,"","UNBALANCED")</f>
         <v/>
       </c>
-      <c r="H35" s="15" t="str">
+      <c r="H35" s="14" t="str">
         <f>IF(H38-H45=0,"","UNBALANCED")</f>
         <v/>
       </c>
-      <c r="I35" s="15" t="str">
+      <c r="I35" s="14" t="str">
         <f>IF(I38-I45=0,"","UNBALANCED")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="4">
+      <c r="C36" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="36"/>
+      <c r="E36" s="3">
         <v>441621631299</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="3">
         <v>467304062732</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>472762014033</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <v>520384083342</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>392357840917</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="4">
+      <c r="D37" s="36"/>
+      <c r="E37" s="3">
         <v>177761450767</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="3">
         <v>181595314508</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>237197154055</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>260285678445</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>255659039408</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="5">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4">
         <f>E36+E37</f>
         <v>619383082066</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="4">
         <f t="shared" ref="F38" si="20">F36+F37</f>
         <v>648899377240</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="4">
         <f t="shared" ref="G38" si="21">G36+G37</f>
         <v>709959168088</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="4">
         <f t="shared" ref="H38" si="22">H36+H37</f>
         <v>780669761787</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="4">
         <f t="shared" ref="I38" si="23">I36+I37</f>
         <v>648016880325</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="4">
+      <c r="D40" s="36"/>
+      <c r="E40" s="3">
         <v>111683722179</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="3">
         <v>149060988246</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <v>155284557576</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="3">
         <v>252247858307</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="3">
         <v>240203560883</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="4">
+      <c r="D41" s="36"/>
+      <c r="E41" s="3">
         <v>53950225983</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="3">
         <v>65624793028</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <v>113747712801</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="3">
         <v>115679280937</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="3">
         <v>107313562569</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="5">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="4">
         <f>E40+E41</f>
         <v>165633948162</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="4">
         <f t="shared" ref="F42" si="24">F40+F41</f>
         <v>214685781274</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="4">
         <f t="shared" ref="G42" si="25">G40+G41</f>
         <v>269032270377</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="4">
         <f t="shared" ref="H42" si="26">H40+H41</f>
         <v>367927139244</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="4">
         <f t="shared" ref="I42" si="27">I40+I41</f>
         <v>347517123452</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="5">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="4">
         <v>453749133904</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="4">
         <v>434213595966</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="4">
         <v>440926897711</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="4">
         <v>412742622543</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="4">
         <v>300499756873</v>
       </c>
     </row>
     <row r="45" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="7">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="6">
         <f>E42+E44</f>
         <v>619383082066</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="6">
         <f t="shared" ref="F45" si="28">F42+F44</f>
         <v>648899377240</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="6">
         <f t="shared" ref="G45" si="29">G42+G44</f>
         <v>709959168088</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="6">
         <f t="shared" ref="H45" si="30">H42+H44</f>
         <v>780669761787</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <f t="shared" ref="I45" si="31">I42+I44</f>
         <v>648016880325</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="13.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11" t="s">
+    <row r="49" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="F49" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I49" s="11" t="s">
+      <c r="I49" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="13" t="s">
+    <row r="50" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="15" t="str">
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="14" t="str">
         <f>IF(E53-E60=0,"","UNBALANCED")</f>
         <v/>
       </c>
-      <c r="F50" s="15" t="str">
+      <c r="F50" s="14" t="str">
         <f>IF(F53-F60=0,"","UNBALANCED")</f>
         <v/>
       </c>
-      <c r="G50" s="15" t="str">
+      <c r="G50" s="14" t="str">
         <f>IF(G53-G60=0,"","UNBALANCED")</f>
         <v/>
       </c>
-      <c r="H50" s="15" t="str">
+      <c r="H50" s="14" t="str">
         <f>IF(H53-H60=0,"","UNBALANCED")</f>
         <v/>
       </c>
-      <c r="I50" s="15" t="str">
+      <c r="I50" s="14" t="str">
         <f>IF(I53-I60=0,"","UNBALANCED")</f>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
+      <c r="C51" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="36"/>
+      <c r="E51" s="3">
+        <v>874017297803</v>
+      </c>
+      <c r="F51" s="3">
         <v>1112672539416</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="3">
         <v>1174482404487</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="3">
         <v>1276478591542</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I51" s="3">
         <v>1333428311186</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="4">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4">
+      <c r="D52" s="36"/>
+      <c r="E52" s="3">
+        <v>979218045833</v>
+      </c>
+      <c r="F52" s="3">
         <v>969424309287</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <v>1010618633614</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="3">
         <v>1085328597888</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I52" s="3">
         <v>1111715200615</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="5">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="4">
         <f>E51+E52</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="5">
+        <v>1853235343636</v>
+      </c>
+      <c r="F53" s="4">
         <f t="shared" ref="F53" si="32">F51+F52</f>
         <v>2082096848703</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="4">
         <f t="shared" ref="G53" si="33">G51+G52</f>
         <v>2185101038101</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="4">
         <f t="shared" ref="H53" si="34">H51+H52</f>
         <v>2361807189430</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="4">
         <f t="shared" ref="I53" si="35">I51+I52</f>
         <v>2445143511801</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
+      <c r="D55" s="36"/>
+      <c r="E55" s="3">
+        <v>486053837459</v>
+      </c>
+      <c r="F55" s="3">
         <v>222930621643</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="3">
         <v>223305151868</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="3">
         <v>259806845843</v>
       </c>
-      <c r="I55" s="4">
+      <c r="I55" s="3">
         <v>231533842787</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4">
+      <c r="D56" s="36"/>
+      <c r="E56" s="3">
+        <v>83677063909</v>
+      </c>
+      <c r="F56" s="3">
         <v>144294749027</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="3">
         <v>178637378908</v>
       </c>
-      <c r="H56" s="4">
+      <c r="H56" s="3">
         <v>243674007163</v>
       </c>
-      <c r="I56" s="4">
+      <c r="I56" s="3">
         <v>241146503875</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="5">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="4">
         <f>E55+E56</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="5">
+        <v>569730901368</v>
+      </c>
+      <c r="F57" s="4">
         <f t="shared" ref="F57" si="36">F55+F56</f>
         <v>367225370670</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="4">
         <f t="shared" ref="G57" si="37">G55+G56</f>
         <v>401942530776</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="4">
         <f t="shared" ref="H57" si="38">H55+H56</f>
         <v>503480853006</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="4">
         <f t="shared" ref="I57" si="39">I55+I56</f>
         <v>472680346662</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="5">
-        <v>0</v>
-      </c>
-      <c r="F59" s="5">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="4">
+        <v>1283504442268</v>
+      </c>
+      <c r="F59" s="4">
         <v>1714871478033</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="4">
         <v>1783158507325</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="4">
         <v>1858326336424</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59" s="4">
         <v>1972463165139</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="7">
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="6">
         <f>E57+E59</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="7">
+        <v>1853235343636</v>
+      </c>
+      <c r="F60" s="6">
         <f t="shared" ref="F60" si="40">F57+F59</f>
         <v>2082096848703</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="6">
         <f t="shared" ref="G60" si="41">G57+G59</f>
         <v>2185101038101</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="6">
         <f t="shared" ref="H60" si="42">H57+H59</f>
         <v>2361807189430</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="6">
         <f t="shared" ref="I60" si="43">I57+I59</f>
         <v>2445143511801</v>
       </c>
@@ -1766,1969 +1835,1920 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:H25"/>
+    <sheetView topLeftCell="B79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="25"/>
-    <col min="2" max="2" width="3.7109375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="17" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="18.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="3.7109375" style="32" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="33" customWidth="1"/>
+    <col min="4" max="8" width="19.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="2:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="19" t="s">
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="22" t="s">
+      <c r="C2" s="18"/>
+    </row>
+    <row r="3" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="23"/>
-    </row>
-    <row r="4" spans="2:8" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28" t="s">
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="2:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="25">
-        <v>34511534</v>
-      </c>
-      <c r="E5" s="25">
-        <v>36484030</v>
-      </c>
-      <c r="F5" s="25">
-        <v>40053732</v>
-      </c>
-      <c r="G5" s="25">
-        <v>41204510</v>
-      </c>
-      <c r="H5" s="25">
-        <v>41802073</v>
+      <c r="C5" s="39"/>
+      <c r="D5" s="23">
+        <v>34511534000000</v>
+      </c>
+      <c r="E5" s="23">
+        <v>36484030000000</v>
+      </c>
+      <c r="F5" s="23">
+        <v>40053732000000</v>
+      </c>
+      <c r="G5" s="23">
+        <v>41204510000000</v>
+      </c>
+      <c r="H5" s="23">
+        <v>41802073000000</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="25">
-        <v>-17412413</v>
-      </c>
-      <c r="E6" s="25">
-        <v>-17835061</v>
-      </c>
-      <c r="F6" s="25">
-        <v>-19594636</v>
-      </c>
-      <c r="G6" s="25">
-        <v>-19984776</v>
-      </c>
-      <c r="H6" s="25">
-        <v>-20709800</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="31"/>
-      <c r="C7" s="23" t="s">
+      <c r="C6" s="39"/>
+      <c r="D6" s="23">
+        <v>-17412413000000</v>
+      </c>
+      <c r="E6" s="23">
+        <v>-17835061000000</v>
+      </c>
+      <c r="F6" s="23">
+        <v>-19594636000000</v>
+      </c>
+      <c r="G6" s="23">
+        <v>-19984776000000</v>
+      </c>
+      <c r="H6" s="23">
+        <v>-20709800000000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="28"/>
+      <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="22">
         <f>D5+D6</f>
-        <v>17099121</v>
-      </c>
-      <c r="E7" s="24">
+        <v>17099121000000</v>
+      </c>
+      <c r="E7" s="22">
         <f>E5+E6</f>
-        <v>18648969</v>
-      </c>
-      <c r="F7" s="24">
+        <v>18648969000000</v>
+      </c>
+      <c r="F7" s="22">
         <f>F5+F6</f>
-        <v>20459096</v>
-      </c>
-      <c r="G7" s="24">
+        <v>20459096000000</v>
+      </c>
+      <c r="G7" s="22">
         <f>G5+G6</f>
-        <v>21219734</v>
-      </c>
-      <c r="H7" s="24">
+        <v>21219734000000</v>
+      </c>
+      <c r="H7" s="22">
         <f>H5+H6</f>
-        <v>21092273</v>
+        <v>21092273000000</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="25">
-        <v>-6613992</v>
-      </c>
-      <c r="E8" s="25">
-        <v>-7239165</v>
-      </c>
-      <c r="F8" s="25">
-        <v>-7791556</v>
-      </c>
-      <c r="G8" s="25">
-        <v>-7839387</v>
-      </c>
-      <c r="H8" s="25">
-        <v>-7719088</v>
+      <c r="C8" s="39"/>
+      <c r="D8" s="23">
+        <v>-6613992000000</v>
+      </c>
+      <c r="E8" s="23">
+        <v>-7239165000000</v>
+      </c>
+      <c r="F8" s="23">
+        <v>-7791556000000</v>
+      </c>
+      <c r="G8" s="23">
+        <v>-7839387000000</v>
+      </c>
+      <c r="H8" s="23">
+        <v>-7719088000000</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="25">
-        <v>-2705822</v>
-      </c>
-      <c r="E9" s="25">
-        <v>-3465924</v>
-      </c>
-      <c r="F9" s="25">
-        <v>-3960830</v>
-      </c>
-      <c r="G9" s="25">
-        <v>-3875371</v>
-      </c>
-      <c r="H9" s="25">
-        <v>-3917171</v>
+      <c r="C9" s="39"/>
+      <c r="D9" s="23">
+        <v>-2705822000000</v>
+      </c>
+      <c r="E9" s="23">
+        <v>-3465924000000</v>
+      </c>
+      <c r="F9" s="23">
+        <v>-3960830000000</v>
+      </c>
+      <c r="G9" s="23">
+        <v>-3875371000000</v>
+      </c>
+      <c r="H9" s="23">
+        <v>-3917171000000</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="25">
-        <v>-16979</v>
-      </c>
-      <c r="E10" s="25">
-        <v>-4479</v>
-      </c>
-      <c r="F10" s="25">
-        <v>951</v>
-      </c>
-      <c r="G10" s="25">
-        <v>-9212</v>
-      </c>
-      <c r="H10" s="25">
-        <v>2822616</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="31"/>
-      <c r="C11" s="23" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="23">
+        <v>-16979000000</v>
+      </c>
+      <c r="E10" s="23">
+        <v>-4479000000</v>
+      </c>
+      <c r="F10" s="23">
+        <v>951000000</v>
+      </c>
+      <c r="G10" s="23">
+        <v>-9212000000</v>
+      </c>
+      <c r="H10" s="23">
+        <v>2822616000000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="28"/>
+      <c r="C11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="22">
         <f>D7+SUM(D8:D10)</f>
-        <v>7762328</v>
-      </c>
-      <c r="E11" s="24">
+        <v>7762328000000</v>
+      </c>
+      <c r="E11" s="22">
         <f>E7+SUM(E8:E10)</f>
-        <v>7939401</v>
-      </c>
-      <c r="F11" s="24">
+        <v>7939401000000</v>
+      </c>
+      <c r="F11" s="22">
         <f>F7+SUM(F8:F10)</f>
-        <v>8707661</v>
-      </c>
-      <c r="G11" s="24">
+        <v>8707661000000</v>
+      </c>
+      <c r="G11" s="22">
         <f>G7+SUM(G8:G10)</f>
-        <v>9495764</v>
-      </c>
-      <c r="H11" s="24">
+        <v>9495764000000</v>
+      </c>
+      <c r="H11" s="22">
         <f>H7+SUM(H8:H10)</f>
-        <v>12278630</v>
+        <v>12278630000000</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="25">
-        <v>10458</v>
-      </c>
-      <c r="E12" s="25">
-        <v>10616</v>
-      </c>
-      <c r="F12" s="25">
-        <v>7468</v>
-      </c>
-      <c r="G12" s="25">
-        <v>3579</v>
-      </c>
-      <c r="H12" s="25">
-        <v>15776</v>
+      <c r="C12" s="39"/>
+      <c r="D12" s="23">
+        <v>10458000000</v>
+      </c>
+      <c r="E12" s="23">
+        <v>10616000000</v>
+      </c>
+      <c r="F12" s="23">
+        <v>7468000000</v>
+      </c>
+      <c r="G12" s="23">
+        <v>3579000000</v>
+      </c>
+      <c r="H12" s="23">
+        <v>15776000000</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="25">
-        <v>-96064</v>
-      </c>
-      <c r="E13" s="25">
-        <v>-120527</v>
-      </c>
-      <c r="F13" s="25">
-        <v>-143244</v>
-      </c>
-      <c r="G13" s="25">
-        <v>-127682</v>
-      </c>
-      <c r="H13" s="25">
-        <v>-108642</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="31"/>
-      <c r="C14" s="23" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="23">
+        <v>-96064000000</v>
+      </c>
+      <c r="E13" s="23">
+        <v>-120527000000</v>
+      </c>
+      <c r="F13" s="23">
+        <v>-143244000000</v>
+      </c>
+      <c r="G13" s="23">
+        <v>-127682000000</v>
+      </c>
+      <c r="H13" s="23">
+        <v>-108642000000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="28"/>
+      <c r="C14" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="22">
         <f>D11+SUM(D12:D13)</f>
-        <v>7676722</v>
-      </c>
-      <c r="E14" s="24">
+        <v>7676722000000</v>
+      </c>
+      <c r="E14" s="22">
         <f>E11+SUM(E12:E13)</f>
-        <v>7829490</v>
-      </c>
-      <c r="F14" s="24">
+        <v>7829490000000</v>
+      </c>
+      <c r="F14" s="22">
         <f>F11+SUM(F12:F13)</f>
-        <v>8571885</v>
-      </c>
-      <c r="G14" s="24">
+        <v>8571885000000</v>
+      </c>
+      <c r="G14" s="22">
         <f>G11+SUM(G12:G13)</f>
-        <v>9371661</v>
-      </c>
-      <c r="H14" s="24">
+        <v>9371661000000</v>
+      </c>
+      <c r="H14" s="22">
         <f>H11+SUM(H12:H13)</f>
-        <v>12185764</v>
+        <v>12185764000000</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="25">
-        <v>-1938199</v>
-      </c>
-      <c r="E15" s="25">
-        <v>-1977685</v>
-      </c>
-      <c r="F15" s="25">
-        <v>-2181213</v>
-      </c>
-      <c r="G15" s="25">
-        <v>-2367099</v>
-      </c>
-      <c r="H15" s="25">
-        <v>-3076319</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33" t="s">
+      <c r="C15" s="39"/>
+      <c r="D15" s="23">
+        <v>-1938199000000</v>
+      </c>
+      <c r="E15" s="23">
+        <v>-1977685000000</v>
+      </c>
+      <c r="F15" s="23">
+        <v>-2181213000000</v>
+      </c>
+      <c r="G15" s="23">
+        <v>-2367099000000</v>
+      </c>
+      <c r="H15" s="23">
+        <v>-3076319000000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="31">
         <f>D14+D15</f>
-        <v>5738523</v>
-      </c>
-      <c r="E16" s="34">
+        <v>5738523000000</v>
+      </c>
+      <c r="E16" s="31">
         <f>E14+E15</f>
-        <v>5851805</v>
-      </c>
-      <c r="F16" s="34">
+        <v>5851805000000</v>
+      </c>
+      <c r="F16" s="31">
         <f>F14+F15</f>
-        <v>6390672</v>
-      </c>
-      <c r="G16" s="34">
+        <v>6390672000000</v>
+      </c>
+      <c r="G16" s="31">
         <f>G14+G15</f>
-        <v>7004562</v>
-      </c>
-      <c r="H16" s="34">
+        <v>7004562000000</v>
+      </c>
+      <c r="H16" s="31">
         <f>H14+H15</f>
-        <v>9109445</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="35" t="s">
+        <v>9109445000000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="38"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="30"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="25">
-        <v>0</v>
-      </c>
-      <c r="E19" s="25">
-        <v>16775</v>
-      </c>
-      <c r="F19" s="25">
-        <v>-577554</v>
-      </c>
-      <c r="G19" s="25">
-        <v>136981</v>
-      </c>
-      <c r="H19" s="25">
-        <v>369000</v>
+      <c r="D19" s="23">
+        <v>0</v>
+      </c>
+      <c r="E19" s="23">
+        <v>16775000000</v>
+      </c>
+      <c r="F19" s="23">
+        <v>-577554000000</v>
+      </c>
+      <c r="G19" s="23">
+        <v>136981000000</v>
+      </c>
+      <c r="H19" s="23">
+        <v>369000000000</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="25">
-        <v>0</v>
-      </c>
-      <c r="E20" s="25">
-        <v>-4194</v>
-      </c>
-      <c r="F20" s="25">
-        <v>144389</v>
-      </c>
-      <c r="G20" s="25">
-        <v>-34223</v>
-      </c>
-      <c r="H20" s="25">
-        <v>-92250</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="35" t="s">
+      <c r="D20" s="23">
+        <v>0</v>
+      </c>
+      <c r="E20" s="23">
+        <v>-4194000000</v>
+      </c>
+      <c r="F20" s="23">
+        <v>144389000000</v>
+      </c>
+      <c r="G20" s="23">
+        <v>-34223000000</v>
+      </c>
+      <c r="H20" s="23">
+        <v>-92250000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="24">
+      <c r="C21" s="38"/>
+      <c r="D21" s="22">
         <f>D19+D20</f>
         <v>0</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="22">
         <f>E19+E20</f>
-        <v>12581</v>
-      </c>
-      <c r="F21" s="24">
+        <v>12581000000</v>
+      </c>
+      <c r="F21" s="22">
         <f t="shared" ref="F21:H21" si="0">F19+F20</f>
-        <v>-433165</v>
-      </c>
-      <c r="G21" s="24">
+        <v>-433165000000</v>
+      </c>
+      <c r="G21" s="22">
         <f t="shared" si="0"/>
-        <v>102758</v>
-      </c>
-      <c r="H21" s="24">
-        <f t="shared" si="0"/>
-        <v>276750</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="35" t="s">
+        <v>102758000000</v>
+      </c>
+      <c r="H21" s="22">
+        <f>H19+H20</f>
+        <v>276750000000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="24">
+      <c r="C22" s="38"/>
+      <c r="D22" s="22">
         <f>D16+D21</f>
-        <v>5738523</v>
-      </c>
-      <c r="E22" s="24">
+        <v>5738523000000</v>
+      </c>
+      <c r="E22" s="22">
         <f>E16+E21</f>
-        <v>5864386</v>
-      </c>
-      <c r="F22" s="24">
+        <v>5864386000000</v>
+      </c>
+      <c r="F22" s="22">
         <f t="shared" ref="F22:H22" si="1">F16+F21</f>
-        <v>5957507</v>
-      </c>
-      <c r="G22" s="24">
+        <v>5957507000000</v>
+      </c>
+      <c r="G22" s="22">
         <f t="shared" si="1"/>
-        <v>7107320</v>
-      </c>
-      <c r="H22" s="24">
+        <v>7107320000000</v>
+      </c>
+      <c r="H22" s="22">
         <f t="shared" si="1"/>
-        <v>9386195</v>
+        <v>9386195000000</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="25">
-        <v>0</v>
-      </c>
-      <c r="E23" s="25">
-        <v>0</v>
-      </c>
-      <c r="F23" s="25">
-        <v>0</v>
-      </c>
-      <c r="G23" s="25">
+      <c r="C23" s="37"/>
+      <c r="D23" s="23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="23">
         <v>10149844</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="23">
         <v>13055881</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="35" t="s">
+    <row r="24" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="22">
         <v>752</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="22">
         <v>766</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="22">
         <v>838</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="22">
         <v>918</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="22">
         <v>1194</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="19" t="s">
+    <row r="28" spans="2:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="19" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="2:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="28" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="28" t="s">
+      <c r="E31" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="G31" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="H31" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="25">
+      <c r="C32" s="39"/>
+      <c r="D32" s="23">
         <v>434747101600</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="23">
         <v>428092732505</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="23">
         <v>344361345265</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="23">
         <v>344678666245</v>
       </c>
-      <c r="H32" s="25">
+      <c r="H32" s="23">
         <v>300572751733</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="25">
+      <c r="C33" s="39"/>
+      <c r="D33" s="23">
         <v>-187750245429</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="23">
         <v>-181547126367</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="23">
         <v>-142263034669</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="23">
         <v>-145109272647</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="23">
         <v>-126237236215</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="31"/>
-      <c r="C34" s="23" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="22">
         <f>D32+D33</f>
         <v>246996856171</v>
       </c>
-      <c r="E34" s="24">
+      <c r="E34" s="22">
         <f>E32+E33</f>
         <v>246545606138</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="22">
         <f>F32+F33</f>
         <v>202098310596</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="22">
         <f>G32+G33</f>
         <v>199569393598</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="22">
         <f>H32+H33</f>
         <v>174335515518</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="25">
+      <c r="C35" s="39"/>
+      <c r="D35" s="23">
         <v>-187666642049</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="23">
         <v>-190379660433</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="23">
         <v>-154870187331</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="23">
         <v>-149895559375</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="23">
         <v>-121854966846</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="25">
+      <c r="C36" s="39"/>
+      <c r="D36" s="23">
         <v>-41469242951</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="23">
         <v>-46045824750</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="23">
         <v>-45750235747</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="23">
         <v>-43984434952</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="23">
         <v>-43793006242</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="30"/>
-      <c r="D37" s="25">
+      <c r="C37" s="39"/>
+      <c r="D37" s="23">
         <f>-648323373-5475379430</f>
         <v>-6123702803</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="23">
         <f>-266342637-4615022538</f>
         <v>-4881365175</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="23">
         <f>-1309954850-167759452</f>
         <v>-1477714302</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="23">
         <f>1834023590-3878361119</f>
         <v>-2044337529</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="23">
         <f>2293299533-3391029312</f>
         <v>-1097729779</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="31"/>
-      <c r="C38" s="23" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="22">
         <f>D34+D35+D36+D37</f>
         <v>11737268368</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="22">
         <f>E34+E35+E36+E37</f>
         <v>5238755780</v>
       </c>
-      <c r="F38" s="24">
+      <c r="F38" s="22">
         <f>F34+F35+F36+F37</f>
         <v>173216</v>
       </c>
-      <c r="G38" s="24">
+      <c r="G38" s="22">
         <f>G34+G35+G36+G37</f>
         <v>3645061742</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="22">
         <f>H34+H35+H36+H37</f>
         <v>7589812651</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="25">
+      <c r="C39" s="39"/>
+      <c r="D39" s="23">
         <v>991753907</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="23">
         <v>682631942</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="23">
         <v>664733259</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="23">
         <v>-5568603458</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="23">
         <v>-6507057142</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="25">
+      <c r="C40" s="39"/>
+      <c r="D40" s="23">
         <v>-2688038171</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="23">
         <v>-3665411293</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="23">
         <v>-4747208360</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="23">
         <v>567970732</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="23">
         <v>794345026</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="31"/>
-      <c r="C41" s="23" t="s">
+      <c r="B41" s="28"/>
+      <c r="C41" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="22">
         <f>D38+D39+D40</f>
         <v>10040984104</v>
       </c>
-      <c r="E41" s="24">
+      <c r="E41" s="22">
         <f>E38+E39+E40</f>
         <v>2255976429</v>
       </c>
-      <c r="F41" s="24">
+      <c r="F41" s="22">
         <f>F38+(F39+F40)</f>
         <v>-4082301885</v>
       </c>
-      <c r="G41" s="24">
+      <c r="G41" s="22">
         <f>G38+G39+G40</f>
         <v>-1355570984</v>
       </c>
-      <c r="H41" s="24">
+      <c r="H41" s="22">
         <f>H38+H39+H40</f>
         <v>1877100535</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="30"/>
-      <c r="D42" s="25">
+      <c r="C42" s="39"/>
+      <c r="D42" s="23">
         <v>-2669010262</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="23">
         <v>-1209986118</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="23">
         <v>-1467163793</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="23">
         <v>72238875</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="23">
         <v>-4133577032</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="32"/>
-      <c r="C43" s="33" t="s">
+    <row r="43" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="29"/>
+      <c r="C43" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="31">
         <f>D41+D42</f>
         <v>7371973842</v>
       </c>
-      <c r="E43" s="34">
+      <c r="E43" s="31">
         <f>E41+E42</f>
         <v>1045990311</v>
       </c>
-      <c r="F43" s="34">
+      <c r="F43" s="31">
         <f>F41+F42</f>
         <v>-5549465678</v>
       </c>
-      <c r="G43" s="34">
+      <c r="G43" s="31">
         <f>G41+G42</f>
         <v>-1283332109</v>
       </c>
-      <c r="H43" s="34">
+      <c r="H43" s="31">
         <f>H41+H42</f>
         <v>-2256476497</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="30"/>
+      <c r="C45" s="39"/>
     </row>
     <row r="46" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="25">
-        <v>0</v>
-      </c>
-      <c r="E46" s="25">
-        <v>0</v>
-      </c>
-      <c r="F46" s="25">
-        <v>0</v>
-      </c>
-      <c r="G46" s="25">
-        <v>0</v>
-      </c>
-      <c r="H46" s="25">
+      <c r="D46" s="23">
+        <v>0</v>
+      </c>
+      <c r="E46" s="23">
+        <v>0</v>
+      </c>
+      <c r="F46" s="23">
+        <v>0</v>
+      </c>
+      <c r="G46" s="23">
+        <v>0</v>
+      </c>
+      <c r="H46" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="25">
-        <v>0</v>
-      </c>
-      <c r="E47" s="25">
-        <v>0</v>
-      </c>
-      <c r="F47" s="25">
-        <v>0</v>
-      </c>
-      <c r="G47" s="25">
-        <v>0</v>
-      </c>
-      <c r="H47" s="25">
+      <c r="D47" s="23">
+        <v>0</v>
+      </c>
+      <c r="E47" s="23">
+        <v>0</v>
+      </c>
+      <c r="F47" s="23">
+        <v>0</v>
+      </c>
+      <c r="G47" s="23">
+        <v>0</v>
+      </c>
+      <c r="H47" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="24">
+      <c r="C48" s="38"/>
+      <c r="D48" s="22">
         <f>D46+D47</f>
         <v>0</v>
       </c>
-      <c r="E48" s="24">
+      <c r="E48" s="22">
         <f>E46+E47</f>
         <v>0</v>
       </c>
-      <c r="F48" s="24">
+      <c r="F48" s="22">
         <f t="shared" ref="F48:H48" si="2">F46+F47</f>
         <v>0</v>
       </c>
-      <c r="G48" s="24">
+      <c r="G48" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H48" s="24">
+      <c r="H48" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="24">
+      <c r="C49" s="38"/>
+      <c r="D49" s="22">
         <f>D43+D48</f>
         <v>7371973842</v>
       </c>
-      <c r="E49" s="24">
+      <c r="E49" s="22">
         <f>E43+E48</f>
         <v>1045990311</v>
       </c>
-      <c r="F49" s="24">
+      <c r="F49" s="22">
         <f t="shared" ref="F49:H49" si="3">F43+F48</f>
         <v>-5549465678</v>
       </c>
-      <c r="G49" s="24">
+      <c r="G49" s="22">
         <f t="shared" si="3"/>
         <v>-1283332109</v>
       </c>
-      <c r="H49" s="24">
+      <c r="H49" s="22">
         <f t="shared" si="3"/>
         <v>-2256476497</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="25">
-        <v>0</v>
-      </c>
-      <c r="E50" s="25">
-        <v>0</v>
-      </c>
-      <c r="F50" s="25">
-        <v>0</v>
-      </c>
-      <c r="G50" s="25">
-        <v>0</v>
-      </c>
-      <c r="H50" s="25">
+      <c r="C50" s="37"/>
+      <c r="D50" s="23">
+        <v>0</v>
+      </c>
+      <c r="E50" s="23">
+        <v>0</v>
+      </c>
+      <c r="F50" s="23">
+        <v>0</v>
+      </c>
+      <c r="G50" s="23">
+        <v>0</v>
+      </c>
+      <c r="H50" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="24">
+      <c r="C51" s="38"/>
+      <c r="D51" s="22">
         <v>17</v>
       </c>
-      <c r="E51" s="24">
+      <c r="E51" s="22">
         <v>2</v>
       </c>
-      <c r="F51" s="24">
+      <c r="F51" s="22">
         <v>-13</v>
       </c>
-      <c r="G51" s="24">
+      <c r="G51" s="22">
         <v>-3</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="22">
         <v>-527</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="20"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="20"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="26"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="28" t="s">
+      <c r="B57" s="24"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="28" t="s">
+      <c r="F57" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="28" t="s">
+      <c r="G57" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H57" s="28" t="s">
+      <c r="H57" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="25">
+      <c r="C58" s="39"/>
+      <c r="D58" s="23">
         <v>434747101600</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="23">
         <v>428092732505</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F58" s="23">
         <v>344361345265</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="23">
         <v>344678666245</v>
       </c>
-      <c r="H58" s="25">
+      <c r="H58" s="23">
         <v>300572751733</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="30"/>
-      <c r="D59" s="25">
+      <c r="C59" s="39"/>
+      <c r="D59" s="23">
         <v>-187750245429</v>
       </c>
-      <c r="E59" s="25">
+      <c r="E59" s="23">
         <v>-181547126367</v>
       </c>
-      <c r="F59" s="25">
+      <c r="F59" s="23">
         <v>-142263034669</v>
       </c>
-      <c r="G59" s="25">
+      <c r="G59" s="23">
         <v>-145109272647</v>
       </c>
-      <c r="H59" s="25">
+      <c r="H59" s="23">
         <v>-126237236215</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="31"/>
-      <c r="C60" s="23" t="s">
+      <c r="B60" s="28"/>
+      <c r="C60" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="24">
+      <c r="D60" s="22">
         <f>D58+D59</f>
         <v>246996856171</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E60" s="22">
         <f>E58+E59</f>
         <v>246545606138</v>
       </c>
-      <c r="F60" s="24">
+      <c r="F60" s="22">
         <f>F58+F59</f>
         <v>202098310596</v>
       </c>
-      <c r="G60" s="24">
+      <c r="G60" s="22">
         <f>G58+G59</f>
         <v>199569393598</v>
       </c>
-      <c r="H60" s="24">
+      <c r="H60" s="22">
         <f>H58+H59</f>
         <v>174335515518</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="25">
+      <c r="C61" s="39"/>
+      <c r="D61" s="23">
         <v>-187666642049</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E61" s="23">
         <v>-190379660433</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F61" s="23">
         <v>-154870187331</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="23">
         <v>-149895559375</v>
       </c>
-      <c r="H61" s="25">
+      <c r="H61" s="23">
         <v>-121854966846</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="30"/>
-      <c r="D62" s="25">
+      <c r="C62" s="39"/>
+      <c r="D62" s="23">
         <v>-41469242951</v>
       </c>
-      <c r="E62" s="25">
+      <c r="E62" s="23">
         <v>-46045824750</v>
       </c>
-      <c r="F62" s="25">
+      <c r="F62" s="23">
         <v>-45750235747</v>
       </c>
-      <c r="G62" s="25">
+      <c r="G62" s="23">
         <v>-43984434952</v>
       </c>
-      <c r="H62" s="25">
+      <c r="H62" s="23">
         <v>-43793006242</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="25">
+      <c r="C63" s="39"/>
+      <c r="D63" s="23">
         <f>-648323373-5475379430</f>
         <v>-6123702803</v>
       </c>
-      <c r="E63" s="25">
+      <c r="E63" s="23">
         <f>-266342637-4615022538</f>
         <v>-4881365175</v>
       </c>
-      <c r="F63" s="25">
+      <c r="F63" s="23">
         <f>-1309954850-167759452</f>
         <v>-1477714302</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="23">
         <f>1834023590-3878361119</f>
         <v>-2044337529</v>
       </c>
-      <c r="H63" s="25">
+      <c r="H63" s="23">
         <f>2293299533-3391029312</f>
         <v>-1097729779</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="31"/>
-      <c r="C64" s="23" t="s">
+      <c r="B64" s="28"/>
+      <c r="C64" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="24">
+      <c r="D64" s="22">
         <f>D60+D61+D62+D63</f>
         <v>11737268368</v>
       </c>
-      <c r="E64" s="24">
+      <c r="E64" s="22">
         <f>E60+E61+E62+E63</f>
         <v>5238755780</v>
       </c>
-      <c r="F64" s="24">
+      <c r="F64" s="22">
         <f>F60+F61+F62+F63</f>
         <v>173216</v>
       </c>
-      <c r="G64" s="24">
+      <c r="G64" s="22">
         <f>G60+G61+G62+G63</f>
         <v>3645061742</v>
       </c>
-      <c r="H64" s="24">
+      <c r="H64" s="22">
         <f>H60+H61+H62+H63</f>
         <v>7589812651</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="30"/>
-      <c r="D65" s="25">
+      <c r="C65" s="39"/>
+      <c r="D65" s="23">
         <v>991753907</v>
       </c>
-      <c r="E65" s="25">
+      <c r="E65" s="23">
         <v>682631942</v>
       </c>
-      <c r="F65" s="25">
+      <c r="F65" s="23">
         <v>664733259</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G65" s="23">
         <v>-5568603458</v>
       </c>
-      <c r="H65" s="25">
+      <c r="H65" s="23">
         <v>-6507057142</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="30"/>
-      <c r="D66" s="25">
+      <c r="C66" s="39"/>
+      <c r="D66" s="23">
         <v>-2688038171</v>
       </c>
-      <c r="E66" s="25">
+      <c r="E66" s="23">
         <v>-3665411293</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F66" s="23">
         <v>-4747208360</v>
       </c>
-      <c r="G66" s="25">
+      <c r="G66" s="23">
         <v>567970732</v>
       </c>
-      <c r="H66" s="25">
+      <c r="H66" s="23">
         <v>794345026</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="31"/>
-      <c r="C67" s="23" t="s">
+      <c r="B67" s="28"/>
+      <c r="C67" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="24">
+      <c r="D67" s="22">
         <f>D64+D65+D66</f>
         <v>10040984104</v>
       </c>
-      <c r="E67" s="24">
+      <c r="E67" s="22">
         <f>E64+E65+E66</f>
         <v>2255976429</v>
       </c>
-      <c r="F67" s="24">
+      <c r="F67" s="22">
         <f>F64+(F65+F66)</f>
         <v>-4082301885</v>
       </c>
-      <c r="G67" s="24">
+      <c r="G67" s="22">
         <f>G64+G65+G66</f>
         <v>-1355570984</v>
       </c>
-      <c r="H67" s="24">
+      <c r="H67" s="22">
         <f>H64+H65+H66</f>
         <v>1877100535</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="30"/>
-      <c r="D68" s="25">
+      <c r="C68" s="39"/>
+      <c r="D68" s="23">
         <v>-2669010262</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E68" s="23">
         <v>-1209986118</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F68" s="23">
         <v>-1467163793</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G68" s="23">
         <v>72238875</v>
       </c>
-      <c r="H68" s="25">
+      <c r="H68" s="23">
         <v>-4133577032</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="32"/>
-      <c r="C69" s="33" t="s">
+      <c r="B69" s="29"/>
+      <c r="C69" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="34">
+      <c r="D69" s="31">
         <f>D67+D68</f>
         <v>7371973842</v>
       </c>
-      <c r="E69" s="34">
+      <c r="E69" s="31">
         <f>E67+E68</f>
         <v>1045990311</v>
       </c>
-      <c r="F69" s="34">
+      <c r="F69" s="31">
         <f>F67+F68</f>
         <v>-5549465678</v>
       </c>
-      <c r="G69" s="34">
+      <c r="G69" s="31">
         <f>G67+G68</f>
         <v>-1283332109</v>
       </c>
-      <c r="H69" s="34">
+      <c r="H69" s="31">
         <f>H67+H68</f>
         <v>-2256476497</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="30"/>
+      <c r="C71" s="39"/>
     </row>
     <row r="72" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C72" s="37" t="s">
+      <c r="C72" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="25">
-        <v>0</v>
-      </c>
-      <c r="E72" s="25">
-        <v>0</v>
-      </c>
-      <c r="F72" s="25">
-        <v>0</v>
-      </c>
-      <c r="G72" s="25">
-        <v>0</v>
-      </c>
-      <c r="H72" s="25">
+      <c r="D72" s="23">
+        <v>0</v>
+      </c>
+      <c r="E72" s="23">
+        <v>0</v>
+      </c>
+      <c r="F72" s="23">
+        <v>0</v>
+      </c>
+      <c r="G72" s="23">
+        <v>0</v>
+      </c>
+      <c r="H72" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C73" s="37" t="s">
+      <c r="C73" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D73" s="25">
-        <v>0</v>
-      </c>
-      <c r="E73" s="25">
-        <v>0</v>
-      </c>
-      <c r="F73" s="25">
-        <v>0</v>
-      </c>
-      <c r="G73" s="25">
-        <v>0</v>
-      </c>
-      <c r="H73" s="25">
+      <c r="D73" s="23">
+        <v>0</v>
+      </c>
+      <c r="E73" s="23">
+        <v>0</v>
+      </c>
+      <c r="F73" s="23">
+        <v>0</v>
+      </c>
+      <c r="G73" s="23">
+        <v>0</v>
+      </c>
+      <c r="H73" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="24">
+      <c r="C74" s="38"/>
+      <c r="D74" s="22">
         <f>D72+D73</f>
         <v>0</v>
       </c>
-      <c r="E74" s="24">
+      <c r="E74" s="22">
         <f>E72+E73</f>
         <v>0</v>
       </c>
-      <c r="F74" s="24">
+      <c r="F74" s="22">
         <f t="shared" ref="F74:H74" si="4">F72+F73</f>
         <v>0</v>
       </c>
-      <c r="G74" s="24">
+      <c r="G74" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H74" s="24">
+      <c r="H74" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="35"/>
-      <c r="D75" s="24">
+      <c r="C75" s="38"/>
+      <c r="D75" s="22">
         <f>D69+D74</f>
         <v>7371973842</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E75" s="22">
         <f>E69+E74</f>
         <v>1045990311</v>
       </c>
-      <c r="F75" s="24">
+      <c r="F75" s="22">
         <f t="shared" ref="F75:H75" si="5">F69+F74</f>
         <v>-5549465678</v>
       </c>
-      <c r="G75" s="24">
+      <c r="G75" s="22">
         <f t="shared" si="5"/>
         <v>-1283332109</v>
       </c>
-      <c r="H75" s="24">
+      <c r="H75" s="22">
         <f t="shared" si="5"/>
         <v>-2256476497</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="38" t="s">
+      <c r="B76" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C76" s="38"/>
-      <c r="D76" s="25">
-        <v>0</v>
-      </c>
-      <c r="E76" s="25">
-        <v>0</v>
-      </c>
-      <c r="F76" s="25">
-        <v>0</v>
-      </c>
-      <c r="G76" s="25">
-        <v>0</v>
-      </c>
-      <c r="H76" s="25">
+      <c r="C76" s="37"/>
+      <c r="D76" s="23">
+        <v>0</v>
+      </c>
+      <c r="E76" s="23">
+        <v>0</v>
+      </c>
+      <c r="F76" s="23">
+        <v>0</v>
+      </c>
+      <c r="G76" s="23">
+        <v>0</v>
+      </c>
+      <c r="H76" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="35"/>
-      <c r="D77" s="24">
+      <c r="C77" s="38"/>
+      <c r="D77" s="22">
         <v>17</v>
       </c>
-      <c r="E77" s="24">
+      <c r="E77" s="22">
         <v>2</v>
       </c>
-      <c r="F77" s="24">
+      <c r="F77" s="22">
         <v>-13</v>
       </c>
-      <c r="G77" s="24">
+      <c r="G77" s="22">
         <v>-3</v>
       </c>
-      <c r="H77" s="24">
+      <c r="H77" s="22">
         <v>-527</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C82" s="23"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="26"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="28" t="s">
+      <c r="B83" s="24"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F83" s="28" t="s">
+      <c r="F83" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="28" t="s">
+      <c r="G83" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H83" s="28" t="s">
+      <c r="H83" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="30"/>
-      <c r="D84" s="25">
-        <v>0</v>
-      </c>
-      <c r="E84" s="25">
+      <c r="C84" s="39"/>
+      <c r="D84" s="23">
+        <v>2308203551971</v>
+      </c>
+      <c r="E84" s="23">
         <v>2314889854074</v>
       </c>
-      <c r="F84" s="25">
+      <c r="F84" s="23">
         <v>2526776164168</v>
       </c>
-      <c r="G84" s="25">
+      <c r="G84" s="23">
         <v>2706394847919</v>
       </c>
-      <c r="H84" s="25">
+      <c r="H84" s="23">
         <v>2648754344347</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="30"/>
-      <c r="D85" s="25">
-        <v>0</v>
-      </c>
-      <c r="E85" s="25">
+      <c r="C85" s="39"/>
+      <c r="D85" s="23">
+        <v>-1411934917918</v>
+      </c>
+      <c r="E85" s="23">
         <v>-1436977751396</v>
       </c>
-      <c r="F85" s="25">
+      <c r="F85" s="23">
         <v>-1543337042469</v>
       </c>
-      <c r="G85" s="25">
+      <c r="G85" s="23">
         <v>-1699417758295</v>
       </c>
-      <c r="H85" s="25">
+      <c r="H85" s="23">
         <v>-1685791739001</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="31"/>
-      <c r="C86" s="23" t="s">
+      <c r="B86" s="28"/>
+      <c r="C86" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="24">
+      <c r="D86" s="22">
         <f>D84+D85</f>
-        <v>0</v>
-      </c>
-      <c r="E86" s="24">
+        <v>896268634053</v>
+      </c>
+      <c r="E86" s="22">
         <f>E84+E85</f>
         <v>877912102678</v>
       </c>
-      <c r="F86" s="24">
+      <c r="F86" s="22">
         <f>F84+F85</f>
         <v>983439121699</v>
       </c>
-      <c r="G86" s="24">
+      <c r="G86" s="22">
         <f>G84+G85</f>
         <v>1006977089624</v>
       </c>
-      <c r="H86" s="24">
+      <c r="H86" s="22">
         <f>H84+H85</f>
         <v>962962605346</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="30"/>
-      <c r="D87" s="25">
-        <v>0</v>
-      </c>
-      <c r="E87" s="25">
+      <c r="C87" s="39"/>
+      <c r="D87" s="23">
+        <v>-488014707377</v>
+      </c>
+      <c r="E87" s="23">
         <v>-486983280575</v>
       </c>
-      <c r="F87" s="25">
+      <c r="F87" s="23">
         <v>-557095829636</v>
       </c>
-      <c r="G87" s="25">
+      <c r="G87" s="23">
         <v>-568987731498</v>
       </c>
-      <c r="H87" s="25">
+      <c r="H87" s="23">
         <v>-548089824378</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="30"/>
-      <c r="D88" s="25">
-        <v>0</v>
-      </c>
-      <c r="E88" s="25">
+      <c r="C88" s="39"/>
+      <c r="D88" s="23">
+        <v>-153757471107</v>
+      </c>
+      <c r="E88" s="23">
         <v>-172248605835</v>
       </c>
-      <c r="F88" s="25">
+      <c r="F88" s="23">
         <v>-190489640668</v>
       </c>
-      <c r="G88" s="25">
+      <c r="G88" s="23">
         <v>-212668813623</v>
       </c>
-      <c r="H88" s="25">
+      <c r="H88" s="23">
         <v>-229749812470</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" s="30" t="s">
+      <c r="B89" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C89" s="30"/>
-      <c r="D89" s="25">
-        <v>0</v>
-      </c>
-      <c r="E89" s="25">
-        <v>0</v>
-      </c>
-      <c r="F89" s="25">
-        <v>0</v>
-      </c>
-      <c r="G89" s="25">
-        <v>0</v>
-      </c>
-      <c r="H89" s="25">
+      <c r="C89" s="39"/>
+      <c r="D89" s="23">
+        <v>0</v>
+      </c>
+      <c r="E89" s="23">
+        <v>0</v>
+      </c>
+      <c r="F89" s="23">
+        <v>0</v>
+      </c>
+      <c r="G89" s="23">
+        <v>0</v>
+      </c>
+      <c r="H89" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="31"/>
-      <c r="C90" s="23" t="s">
+      <c r="B90" s="28"/>
+      <c r="C90" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="24">
+      <c r="D90" s="22">
         <f>D86+D87+D88+D89</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="24">
+        <v>254496455569</v>
+      </c>
+      <c r="E90" s="22">
         <f>E86+E87+E88+E89</f>
         <v>218680216268</v>
       </c>
-      <c r="F90" s="24">
+      <c r="F90" s="22">
         <f>F86+F87+F88+F89</f>
         <v>235853651395</v>
       </c>
-      <c r="G90" s="24">
+      <c r="G90" s="22">
         <f>G86+G87+G88+G89</f>
         <v>225320544503</v>
       </c>
-      <c r="H90" s="24">
+      <c r="H90" s="22">
         <f>H86+H87+H88+H89</f>
         <v>185122968498</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="30" t="s">
+      <c r="B91" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="30"/>
-      <c r="D91" s="25">
-        <v>0</v>
-      </c>
-      <c r="E91" s="25">
+      <c r="C91" s="39"/>
+      <c r="D91" s="23">
+        <v>0</v>
+      </c>
+      <c r="E91" s="23">
         <v>364441731226</v>
       </c>
-      <c r="F91" s="25">
+      <c r="F91" s="23">
         <v>-14377793752</v>
       </c>
-      <c r="G91" s="25">
+      <c r="G91" s="23">
         <v>17762501284</v>
       </c>
-      <c r="H91" s="25">
+      <c r="H91" s="23">
         <v>49502986166</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="30"/>
-      <c r="D92" s="25">
-        <v>0</v>
-      </c>
-      <c r="E92" s="25">
-        <v>0</v>
-      </c>
-      <c r="F92" s="25">
-        <v>0</v>
-      </c>
-      <c r="G92" s="25">
-        <v>0</v>
-      </c>
-      <c r="H92" s="25">
+      <c r="C92" s="39"/>
+      <c r="D92" s="23">
+        <v>-15067625957</v>
+      </c>
+      <c r="E92" s="23">
+        <v>0</v>
+      </c>
+      <c r="F92" s="23">
+        <v>0</v>
+      </c>
+      <c r="G92" s="23">
+        <v>0</v>
+      </c>
+      <c r="H92" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="31"/>
-      <c r="C93" s="23" t="s">
+      <c r="B93" s="28"/>
+      <c r="C93" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D93" s="24">
+      <c r="D93" s="22">
         <f>D90+D91+D92</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="24">
+        <v>239428829612</v>
+      </c>
+      <c r="E93" s="22">
         <f>E90+E91+E92</f>
         <v>583121947494</v>
       </c>
-      <c r="F93" s="24">
+      <c r="F93" s="22">
         <f>F90+(F91+F92)</f>
         <v>221475857643</v>
       </c>
-      <c r="G93" s="24">
+      <c r="G93" s="22">
         <f>G90+G91</f>
         <v>243083045787</v>
       </c>
-      <c r="H93" s="24">
+      <c r="H93" s="22">
         <f>H90+H91+H92</f>
         <v>234625954664</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="30" t="s">
+      <c r="B94" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="30"/>
-      <c r="D94" s="25">
-        <v>0</v>
-      </c>
-      <c r="E94" s="25">
+      <c r="C94" s="39"/>
+      <c r="D94" s="23">
+        <v>-65114435511</v>
+      </c>
+      <c r="E94" s="23">
         <v>-38647669480</v>
       </c>
-      <c r="F94" s="25">
+      <c r="F94" s="23">
         <v>-59416261296</v>
       </c>
-      <c r="G94" s="25">
+      <c r="G94" s="23">
         <v>-63956663719</v>
       </c>
-      <c r="H94" s="25">
+      <c r="H94" s="23">
         <v>-61576511908</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="32"/>
-      <c r="C95" s="33" t="s">
+      <c r="B95" s="29"/>
+      <c r="C95" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D95" s="34">
+      <c r="D95" s="31">
         <f>D93+D94</f>
-        <v>0</v>
-      </c>
-      <c r="E95" s="34">
+        <v>174314394101</v>
+      </c>
+      <c r="E95" s="31">
         <f>E93+E94</f>
         <v>544474278014</v>
       </c>
-      <c r="F95" s="34">
+      <c r="F95" s="31">
         <f>F93+F94</f>
         <v>162059596347</v>
       </c>
-      <c r="G95" s="34">
+      <c r="G95" s="31">
         <f>G93+G94</f>
         <v>179126382068</v>
       </c>
-      <c r="H95" s="34">
+      <c r="H95" s="31">
         <f>H93+H94</f>
         <v>173049442756</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="35" t="s">
+      <c r="B96" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C96" s="35"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="30" t="s">
+      <c r="B97" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="30"/>
+      <c r="C97" s="39"/>
     </row>
     <row r="98" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C98" s="37" t="s">
+      <c r="C98" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D98" s="25">
-        <v>0</v>
-      </c>
-      <c r="E98" s="25">
-        <v>0</v>
-      </c>
-      <c r="F98" s="25">
-        <v>0</v>
-      </c>
-      <c r="G98" s="25">
-        <v>0</v>
-      </c>
-      <c r="H98" s="25">
+      <c r="D98" s="23">
+        <v>0</v>
+      </c>
+      <c r="E98" s="23">
+        <v>0</v>
+      </c>
+      <c r="F98" s="23">
+        <v>0</v>
+      </c>
+      <c r="G98" s="23">
+        <v>0</v>
+      </c>
+      <c r="H98" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C99" s="37" t="s">
+      <c r="C99" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D99" s="25">
-        <v>0</v>
-      </c>
-      <c r="E99" s="25">
-        <v>0</v>
-      </c>
-      <c r="F99" s="25">
-        <v>0</v>
-      </c>
-      <c r="G99" s="25">
-        <v>0</v>
-      </c>
-      <c r="H99" s="25">
+      <c r="D99" s="23">
+        <v>0</v>
+      </c>
+      <c r="E99" s="23">
+        <v>0</v>
+      </c>
+      <c r="F99" s="23">
+        <v>0</v>
+      </c>
+      <c r="G99" s="23">
+        <v>0</v>
+      </c>
+      <c r="H99" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C100" s="35"/>
-      <c r="D100" s="24">
+      <c r="C100" s="38"/>
+      <c r="D100" s="22">
         <f>D98+D99</f>
         <v>0</v>
       </c>
-      <c r="E100" s="24">
+      <c r="E100" s="22">
         <f>E98+E99</f>
         <v>0</v>
       </c>
-      <c r="F100" s="24">
+      <c r="F100" s="22">
         <f t="shared" ref="F100:H100" si="6">F98+F99</f>
         <v>0</v>
       </c>
-      <c r="G100" s="24">
+      <c r="G100" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H100" s="24">
+      <c r="H100" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C101" s="35"/>
-      <c r="D101" s="24">
+      <c r="C101" s="38"/>
+      <c r="D101" s="22">
         <f>D95+D100</f>
-        <v>0</v>
-      </c>
-      <c r="E101" s="24">
+        <v>174314394101</v>
+      </c>
+      <c r="E101" s="22">
         <f>E95+E100</f>
         <v>544474278014</v>
       </c>
-      <c r="F101" s="24">
+      <c r="F101" s="22">
         <f t="shared" ref="F101:H101" si="7">F95+F100</f>
         <v>162059596347</v>
       </c>
-      <c r="G101" s="24">
+      <c r="G101" s="22">
         <f t="shared" si="7"/>
         <v>179126382068</v>
       </c>
-      <c r="H101" s="24">
+      <c r="H101" s="22">
         <f t="shared" si="7"/>
         <v>173049442756</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="38" t="s">
+      <c r="B102" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C102" s="38"/>
-      <c r="D102" s="25">
-        <v>0</v>
-      </c>
-      <c r="E102" s="25">
-        <v>0</v>
-      </c>
-      <c r="F102" s="25">
-        <v>0</v>
-      </c>
-      <c r="G102" s="25">
-        <v>0</v>
-      </c>
-      <c r="H102" s="25">
+      <c r="C102" s="37"/>
+      <c r="D102" s="23">
+        <v>0</v>
+      </c>
+      <c r="E102" s="23">
+        <v>0</v>
+      </c>
+      <c r="F102" s="23">
+        <v>0</v>
+      </c>
+      <c r="G102" s="23">
+        <v>0</v>
+      </c>
+      <c r="H102" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="35"/>
-      <c r="D103" s="24">
+      <c r="C103" s="38"/>
+      <c r="D103" s="22">
         <v>17</v>
       </c>
-      <c r="E103" s="24">
+      <c r="E103" s="22">
         <v>2</v>
       </c>
-      <c r="F103" s="24">
+      <c r="F103" s="22">
         <v>-13</v>
       </c>
-      <c r="G103" s="24">
+      <c r="G103" s="22">
         <v>-3</v>
       </c>
-      <c r="H103" s="24">
+      <c r="H103" s="22">
         <v>-527</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B8:C8"/>
@@ -3737,8 +3757,1894 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.140625" style="49"/>
+    <col min="3" max="12" width="21.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="53" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="21.7109375" style="53" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="47"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="40"/>
+    </row>
+    <row r="3" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="46"/>
+    </row>
+    <row r="4" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="R4" s="46"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="42">
+        <f>INCOME_STATEMENT!D16/BALANCE_SHEET!E8</f>
+        <v>0.40183849917405834</v>
+      </c>
+      <c r="D5" s="42">
+        <f>INCOME_STATEMENT!E16/BALANCE_SHEET!F8</f>
+        <v>0.37201687609206519</v>
+      </c>
+      <c r="E5" s="42">
+        <f>INCOME_STATEMENT!F16/BALANCE_SHEET!G8</f>
+        <v>0.38163074151296794</v>
+      </c>
+      <c r="F5" s="42">
+        <f>INCOME_STATEMENT!G16/BALANCE_SHEET!H8</f>
+        <v>0.41829031282368395</v>
+      </c>
+      <c r="G5" s="42">
+        <f>INCOME_STATEMENT!H16/BALANCE_SHEET!I8</f>
+        <v>0.4818177303119317</v>
+      </c>
+      <c r="H5" s="42">
+        <f>INCOME_STATEMENT!D16/INCOME_STATEMENT!D5</f>
+        <v>0.16627840999475713</v>
+      </c>
+      <c r="I5" s="42">
+        <f>INCOME_STATEMENT!E16/INCOME_STATEMENT!E5</f>
+        <v>0.16039360235149461</v>
+      </c>
+      <c r="J5" s="42">
+        <f>INCOME_STATEMENT!F16/INCOME_STATEMENT!F5</f>
+        <v>0.15955247316280041</v>
+      </c>
+      <c r="K5" s="42">
+        <f>INCOME_STATEMENT!G16/INCOME_STATEMENT!G5</f>
+        <v>0.16999503209721459</v>
+      </c>
+      <c r="L5" s="42">
+        <f>INCOME_STATEMENT!H16/INCOME_STATEMENT!H5</f>
+        <v>0.21791849892229029</v>
+      </c>
+      <c r="M5" s="42">
+        <f>BALANCE_SHEET!E12/BALANCE_SHEET!E14</f>
+        <v>2.1053157118558783</v>
+      </c>
+      <c r="N5" s="42">
+        <f>BALANCE_SHEET!F12/BALANCE_SHEET!F14</f>
+        <v>2.2584984339266181</v>
+      </c>
+      <c r="O5" s="42">
+        <f>BALANCE_SHEET!G12/BALANCE_SHEET!G14</f>
+        <v>2.5596889031171335</v>
+      </c>
+      <c r="P5" s="42">
+        <f>BALANCE_SHEET!H12/BALANCE_SHEET!H14</f>
+        <v>2.5596889031171335</v>
+      </c>
+      <c r="Q5" s="42">
+        <f>BALANCE_SHEET!I12/BALANCE_SHEET!I14</f>
+        <v>2.6545515240689466</v>
+      </c>
+      <c r="R5" s="40"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="42">
+        <f>INCOME_STATEMENT!D43/BALANCE_SHEET!E23</f>
+        <v>1.4779821955259325E-2</v>
+      </c>
+      <c r="D6" s="42">
+        <f>INCOME_STATEMENT!E43/BALANCE_SHEET!F23</f>
+        <v>2.1042270631316563E-3</v>
+      </c>
+      <c r="E6" s="42">
+        <f>INCOME_STATEMENT!F43/BALANCE_SHEET!G23</f>
+        <v>-1.1488692751341871E-2</v>
+      </c>
+      <c r="F6" s="42">
+        <f>INCOME_STATEMENT!G43/BALANCE_SHEET!H23</f>
+        <v>-2.5803170932926843E-3</v>
+      </c>
+      <c r="G6" s="42">
+        <f>INCOME_STATEMENT!H43/BALANCE_SHEET!I23</f>
+        <v>-4.4081468011478928E-3</v>
+      </c>
+      <c r="H6" s="42">
+        <f>INCOME_STATEMENT!D43/INCOME_STATEMENT!D32</f>
+        <v>1.6956924646234377E-2</v>
+      </c>
+      <c r="I6" s="42">
+        <f>INCOME_STATEMENT!E43/INCOME_STATEMENT!E32</f>
+        <v>2.4433732029958792E-3</v>
+      </c>
+      <c r="J6" s="42">
+        <f>INCOME_STATEMENT!F43/INCOME_STATEMENT!F32</f>
+        <v>-1.6115239861574652E-2</v>
+      </c>
+      <c r="K6" s="42">
+        <f>INCOME_STATEMENT!G43/INCOME_STATEMENT!G32</f>
+        <v>-3.7232710773221996E-3</v>
+      </c>
+      <c r="L6" s="42">
+        <f>INCOME_STATEMENT!H43/INCOME_STATEMENT!H32</f>
+        <v>-7.5072556776684708E-3</v>
+      </c>
+      <c r="M6" s="42">
+        <f>BALANCE_SHEET!E27/BALANCE_SHEET!E29</f>
+        <v>0.29911035126036056</v>
+      </c>
+      <c r="N6" s="42">
+        <f>BALANCE_SHEET!F27/BALANCE_SHEET!F29</f>
+        <v>0.31845021826298353</v>
+      </c>
+      <c r="O6" s="42">
+        <f>BALANCE_SHEET!G27/BALANCE_SHEET!G29</f>
+        <v>0.30872746722667094</v>
+      </c>
+      <c r="P6" s="42">
+        <f>BALANCE_SHEET!H27/BALANCE_SHEET!H29</f>
+        <v>0.35618166346550084</v>
+      </c>
+      <c r="Q6" s="42">
+        <f>BALANCE_SHEET!I27/BALANCE_SHEET!I29</f>
+        <v>0.39109770893143164</v>
+      </c>
+      <c r="R6" s="40"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="42">
+        <f>INCOME_STATEMENT!D69/BALANCE_SHEET!E38</f>
+        <v>1.1902123347331692E-2</v>
+      </c>
+      <c r="D7" s="42">
+        <f>INCOME_STATEMENT!E69/BALANCE_SHEET!F38</f>
+        <v>1.6119453149253573E-3</v>
+      </c>
+      <c r="E7" s="42">
+        <f>INCOME_STATEMENT!F69/BALANCE_SHEET!G38</f>
+        <v>-7.8165983727561915E-3</v>
+      </c>
+      <c r="F7" s="42">
+        <f>INCOME_STATEMENT!G69/BALANCE_SHEET!H38</f>
+        <v>-1.6438860217441696E-3</v>
+      </c>
+      <c r="G7" s="42">
+        <f>INCOME_STATEMENT!H69/BALANCE_SHEET!I38</f>
+        <v>-3.4821261073759513E-3</v>
+      </c>
+      <c r="H7" s="42">
+        <f>INCOME_STATEMENT!D69/INCOME_STATEMENT!D58</f>
+        <v>1.6956924646234377E-2</v>
+      </c>
+      <c r="I7" s="42">
+        <f>INCOME_STATEMENT!E69/INCOME_STATEMENT!E58</f>
+        <v>2.4433732029958792E-3</v>
+      </c>
+      <c r="J7" s="42">
+        <f>INCOME_STATEMENT!F69/INCOME_STATEMENT!F58</f>
+        <v>-1.6115239861574652E-2</v>
+      </c>
+      <c r="K7" s="42">
+        <f>INCOME_STATEMENT!G69/INCOME_STATEMENT!G58</f>
+        <v>-3.7232710773221996E-3</v>
+      </c>
+      <c r="L7" s="42">
+        <f>INCOME_STATEMENT!H69/INCOME_STATEMENT!H58</f>
+        <v>-7.5072556776684708E-3</v>
+      </c>
+      <c r="M7" s="42">
+        <f>BALANCE_SHEET!E42/BALANCE_SHEET!E44</f>
+        <v>0.36503419133146664</v>
+      </c>
+      <c r="N7" s="42">
+        <f>BALANCE_SHEET!F42/BALANCE_SHEET!F44</f>
+        <v>0.49442436457197075</v>
+      </c>
+      <c r="O7" s="42">
+        <f>BALANCE_SHEET!G42/BALANCE_SHEET!G44</f>
+        <v>0.61015164140277467</v>
+      </c>
+      <c r="P7" s="42">
+        <f>BALANCE_SHEET!H42/BALANCE_SHEET!H44</f>
+        <v>0.89142026810102204</v>
+      </c>
+      <c r="Q7" s="42">
+        <f>BALANCE_SHEET!I42/BALANCE_SHEET!I44</f>
+        <v>1.1564639088838629</v>
+      </c>
+      <c r="R7" s="40"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="42">
+        <f>INCOME_STATEMENT!D95/BALANCE_SHEET!E53</f>
+        <v>9.4059502318253677E-2</v>
+      </c>
+      <c r="D8" s="42">
+        <f>INCOME_STATEMENT!E95/BALANCE_SHEET!F53</f>
+        <v>0.26150285869419054</v>
+      </c>
+      <c r="E8" s="42">
+        <f>INCOME_STATEMENT!F95/BALANCE_SHEET!G53</f>
+        <v>7.4165722097610964E-2</v>
+      </c>
+      <c r="F8" s="42">
+        <f>INCOME_STATEMENT!G95/BALANCE_SHEET!H53</f>
+        <v>7.5842932001248781E-2</v>
+      </c>
+      <c r="G8" s="42">
+        <f>INCOME_STATEMENT!H95/BALANCE_SHEET!I53</f>
+        <v>7.077271412529007E-2</v>
+      </c>
+      <c r="H8" s="42">
+        <f>INCOME_STATEMENT!D95/INCOME_STATEMENT!D84</f>
+        <v>7.5519506913569664E-2</v>
+      </c>
+      <c r="I8" s="42">
+        <f>INCOME_STATEMENT!E95/INCOME_STATEMENT!E84</f>
+        <v>0.23520526346243809</v>
+      </c>
+      <c r="J8" s="42">
+        <f>INCOME_STATEMENT!F95/INCOME_STATEMENT!F84</f>
+        <v>6.4136902447139363E-2</v>
+      </c>
+      <c r="K8" s="42">
+        <f>INCOME_STATEMENT!G95/INCOME_STATEMENT!G84</f>
+        <v>6.6186344614768161E-2</v>
+      </c>
+      <c r="L8" s="42">
+        <f>INCOME_STATEMENT!H95/INCOME_STATEMENT!H84</f>
+        <v>6.5332386570813555E-2</v>
+      </c>
+      <c r="M8" s="42">
+        <f>BALANCE_SHEET!E57/BALANCE_SHEET!E59</f>
+        <v>0.44388697273323369</v>
+      </c>
+      <c r="N8" s="42">
+        <f>BALANCE_SHEET!F57/BALANCE_SHEET!F59</f>
+        <v>0.21414162832261727</v>
+      </c>
+      <c r="O8" s="42">
+        <f>BALANCE_SHEET!G57/BALANCE_SHEET!G59</f>
+        <v>0.22541043273767788</v>
+      </c>
+      <c r="P8" s="42">
+        <f>BALANCE_SHEET!H57/BALANCE_SHEET!H59</f>
+        <v>0.27093242082273578</v>
+      </c>
+      <c r="Q8" s="42">
+        <f>BALANCE_SHEET!I57/BALANCE_SHEET!I59</f>
+        <v>0.23963963181471634</v>
+      </c>
+      <c r="R8" s="40"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="42">
+        <f>SUM(C5:C8)/COUNT(C5:C8)</f>
+        <v>0.13064498669872576</v>
+      </c>
+      <c r="D9" s="42">
+        <f t="shared" ref="D9:G9" si="0">SUM(D5:D8)/COUNT(D5:D8)</f>
+        <v>0.15930897679107819</v>
+      </c>
+      <c r="E9" s="42">
+        <f t="shared" si="0"/>
+        <v>0.10912279312162022</v>
+      </c>
+      <c r="F9" s="42">
+        <f t="shared" si="0"/>
+        <v>0.12247726042747398</v>
+      </c>
+      <c r="G9" s="42">
+        <f t="shared" si="0"/>
+        <v>0.13617504288217447</v>
+      </c>
+      <c r="H9" s="42">
+        <f>SUM(H5:H8)/COUNT(H5:H8)</f>
+        <v>6.8927941550198893E-2</v>
+      </c>
+      <c r="I9" s="42">
+        <f t="shared" ref="I9:L9" si="1">SUM(I5:I8)/COUNT(I5:I8)</f>
+        <v>0.1001214030549811</v>
+      </c>
+      <c r="J9" s="42">
+        <f t="shared" si="1"/>
+        <v>4.7864723971697623E-2</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" si="1"/>
+        <v>5.7183708639334585E-2</v>
+      </c>
+      <c r="L9" s="42">
+        <f>SUM(L5:L8)/COUNT(L5:L8)</f>
+        <v>6.7059093534441727E-2</v>
+      </c>
+      <c r="M9" s="42">
+        <f>SUM(M5:M8)/COUNT(M5:M8)</f>
+        <v>0.80333680679523478</v>
+      </c>
+      <c r="N9" s="42">
+        <f t="shared" ref="N9:Q9" si="2">SUM(N5:N8)/COUNT(N5:N8)</f>
+        <v>0.82137866127104742</v>
+      </c>
+      <c r="O9" s="42">
+        <f t="shared" si="2"/>
+        <v>0.92599461112106418</v>
+      </c>
+      <c r="P9" s="42">
+        <f t="shared" si="2"/>
+        <v>1.0195558138765979</v>
+      </c>
+      <c r="Q9" s="42">
+        <f t="shared" si="2"/>
+        <v>1.1104381934247394</v>
+      </c>
+      <c r="R9" s="40"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="47"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="40"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="50">
+        <f>INCOME_STATEMENT!D16</f>
+        <v>5738523000000</v>
+      </c>
+      <c r="D11" s="50">
+        <f>INCOME_STATEMENT!E16</f>
+        <v>5851805000000</v>
+      </c>
+      <c r="E11" s="50">
+        <f>INCOME_STATEMENT!F16</f>
+        <v>6390672000000</v>
+      </c>
+      <c r="F11" s="50">
+        <f>INCOME_STATEMENT!G16</f>
+        <v>7004562000000</v>
+      </c>
+      <c r="G11" s="50">
+        <f>INCOME_STATEMENT!H16</f>
+        <v>9109445000000</v>
+      </c>
+      <c r="H11" s="50">
+        <f>INCOME_STATEMENT!D16</f>
+        <v>5738523000000</v>
+      </c>
+      <c r="I11" s="50">
+        <f>INCOME_STATEMENT!E16</f>
+        <v>5851805000000</v>
+      </c>
+      <c r="J11" s="50">
+        <f>INCOME_STATEMENT!F16</f>
+        <v>6390672000000</v>
+      </c>
+      <c r="K11" s="50">
+        <f>INCOME_STATEMENT!G16</f>
+        <v>7004562000000</v>
+      </c>
+      <c r="L11" s="50">
+        <f>INCOME_STATEMENT!H16</f>
+        <v>9109445000000</v>
+      </c>
+      <c r="M11" s="50">
+        <f>BALANCE_SHEET!E12</f>
+        <v>9681888000000</v>
+      </c>
+      <c r="N11" s="50">
+        <f>BALANCE_SHEET!F12</f>
+        <v>10902585000000</v>
+      </c>
+      <c r="O11" s="50">
+        <f>BALANCE_SHEET!G12</f>
+        <v>12041437000000</v>
+      </c>
+      <c r="P11" s="50">
+        <f>BALANCE_SHEET!H12</f>
+        <v>12041437000000</v>
+      </c>
+      <c r="Q11" s="50">
+        <f>BALANCE_SHEET!I12</f>
+        <v>13733025000000</v>
+      </c>
+      <c r="R11" s="40"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="54"/>
+      <c r="C12" s="50">
+        <f>BALANCE_SHEET!E8</f>
+        <v>14280670000000</v>
+      </c>
+      <c r="D12" s="50">
+        <f>BALANCE_SHEET!F8</f>
+        <v>15729945000000</v>
+      </c>
+      <c r="E12" s="50">
+        <f>BALANCE_SHEET!G8</f>
+        <v>16745695000000</v>
+      </c>
+      <c r="F12" s="50">
+        <f>BALANCE_SHEET!H8</f>
+        <v>16745695000000</v>
+      </c>
+      <c r="G12" s="50">
+        <f>BALANCE_SHEET!I8</f>
+        <v>18906413000000</v>
+      </c>
+      <c r="H12" s="50">
+        <f>INCOME_STATEMENT!D5</f>
+        <v>34511534000000</v>
+      </c>
+      <c r="I12" s="50">
+        <f>INCOME_STATEMENT!E5</f>
+        <v>36484030000000</v>
+      </c>
+      <c r="J12" s="50">
+        <f>INCOME_STATEMENT!F5</f>
+        <v>40053732000000</v>
+      </c>
+      <c r="K12" s="50">
+        <f>INCOME_STATEMENT!G5</f>
+        <v>41204510000000</v>
+      </c>
+      <c r="L12" s="50">
+        <f>INCOME_STATEMENT!H5</f>
+        <v>41802073000000</v>
+      </c>
+      <c r="M12" s="50">
+        <f>BALANCE_SHEET!E14</f>
+        <v>4598782000000</v>
+      </c>
+      <c r="N12" s="50">
+        <f>BALANCE_SHEET!F14</f>
+        <v>4827360000000</v>
+      </c>
+      <c r="O12" s="50">
+        <f>BALANCE_SHEET!G14</f>
+        <v>4704258000000</v>
+      </c>
+      <c r="P12" s="50">
+        <f>BALANCE_SHEET!H14</f>
+        <v>4704258000000</v>
+      </c>
+      <c r="Q12" s="50">
+        <f>BALANCE_SHEET!I14</f>
+        <v>5173388000000</v>
+      </c>
+      <c r="R12" s="40"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="54"/>
+      <c r="C13" s="41">
+        <f>C11/C12</f>
+        <v>0.40183849917405834</v>
+      </c>
+      <c r="D13" s="41">
+        <f t="shared" ref="D13:G13" si="3">D11/D12</f>
+        <v>0.37201687609206519</v>
+      </c>
+      <c r="E13" s="41">
+        <f t="shared" si="3"/>
+        <v>0.38163074151296794</v>
+      </c>
+      <c r="F13" s="41">
+        <f t="shared" si="3"/>
+        <v>0.41829031282368395</v>
+      </c>
+      <c r="G13" s="41">
+        <f t="shared" si="3"/>
+        <v>0.4818177303119317</v>
+      </c>
+      <c r="H13" s="41">
+        <f t="shared" ref="H13" si="4">H11/H12</f>
+        <v>0.16627840999475713</v>
+      </c>
+      <c r="I13" s="41">
+        <f t="shared" ref="I13" si="5">I11/I12</f>
+        <v>0.16039360235149461</v>
+      </c>
+      <c r="J13" s="41">
+        <f t="shared" ref="J13" si="6">J11/J12</f>
+        <v>0.15955247316280041</v>
+      </c>
+      <c r="K13" s="41">
+        <f t="shared" ref="K13" si="7">K11/K12</f>
+        <v>0.16999503209721459</v>
+      </c>
+      <c r="L13" s="41">
+        <f t="shared" ref="L13:Q13" si="8">L11/L12</f>
+        <v>0.21791849892229029</v>
+      </c>
+      <c r="M13" s="41">
+        <f t="shared" si="8"/>
+        <v>2.1053157118558783</v>
+      </c>
+      <c r="N13" s="41">
+        <f>N11/N12</f>
+        <v>2.2584984339266181</v>
+      </c>
+      <c r="O13" s="41">
+        <f t="shared" si="8"/>
+        <v>2.5596889031171335</v>
+      </c>
+      <c r="P13" s="41">
+        <f t="shared" si="8"/>
+        <v>2.5596889031171335</v>
+      </c>
+      <c r="Q13" s="41">
+        <f t="shared" si="8"/>
+        <v>2.6545515240689466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="54"/>
+      <c r="C14" s="41" t="str">
+        <f>IF(C13=C$28,"S",IF(C13&lt;C$28,"B",IF(C13&gt;C$28,"A")))</f>
+        <v>A</v>
+      </c>
+      <c r="D14" s="41" t="str">
+        <f t="shared" ref="D14:Q14" si="9">IF(D13=D$28,"S",IF(D13&lt;D$28,"B",IF(D13&gt;D$28,"A")))</f>
+        <v>A</v>
+      </c>
+      <c r="E14" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="F14" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="G14" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="H14" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="I14" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="J14" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="K14" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="L14" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="M14" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="N14" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="O14" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="P14" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+      <c r="Q14" s="41" t="str">
+        <f t="shared" si="9"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="50">
+        <f>INCOME_STATEMENT!D43</f>
+        <v>7371973842</v>
+      </c>
+      <c r="D15" s="50">
+        <f>INCOME_STATEMENT!E43</f>
+        <v>1045990311</v>
+      </c>
+      <c r="E15" s="50">
+        <f>INCOME_STATEMENT!F43</f>
+        <v>-5549465678</v>
+      </c>
+      <c r="F15" s="50">
+        <f>INCOME_STATEMENT!G43</f>
+        <v>-1283332109</v>
+      </c>
+      <c r="G15" s="50">
+        <f>INCOME_STATEMENT!H43</f>
+        <v>-2256476497</v>
+      </c>
+      <c r="H15" s="41">
+        <f>INCOME_STATEMENT!D43</f>
+        <v>7371973842</v>
+      </c>
+      <c r="I15" s="41">
+        <f>INCOME_STATEMENT!E43</f>
+        <v>1045990311</v>
+      </c>
+      <c r="J15" s="41">
+        <f>INCOME_STATEMENT!F43</f>
+        <v>-5549465678</v>
+      </c>
+      <c r="K15" s="41">
+        <f>INCOME_STATEMENT!G43</f>
+        <v>-1283332109</v>
+      </c>
+      <c r="L15" s="41">
+        <f>INCOME_STATEMENT!H43</f>
+        <v>-2256476497</v>
+      </c>
+      <c r="M15" s="41">
+        <f>BALANCE_SHEET!E27</f>
+        <v>114841797856</v>
+      </c>
+      <c r="N15" s="41">
+        <f>BALANCE_SHEET!F27</f>
+        <v>120064018299</v>
+      </c>
+      <c r="O15" s="41">
+        <f>BALANCE_SHEET!G27</f>
+        <v>113947973889</v>
+      </c>
+      <c r="P15" s="41">
+        <f>BALANCE_SHEET!H27</f>
+        <v>130623005085</v>
+      </c>
+      <c r="Q15" s="41">
+        <f>BALANCE_SHEET!I27</f>
+        <v>143913787087</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="54"/>
+      <c r="C16" s="50">
+        <f>BALANCE_SHEET!E23</f>
+        <v>498786376745</v>
+      </c>
+      <c r="D16" s="50">
+        <f>BALANCE_SHEET!F23</f>
+        <v>497090038108</v>
+      </c>
+      <c r="E16" s="50">
+        <f>BALANCE_SHEET!G23</f>
+        <v>483037173864</v>
+      </c>
+      <c r="F16" s="50">
+        <f>BALANCE_SHEET!H23</f>
+        <v>497354419089</v>
+      </c>
+      <c r="G16" s="50">
+        <f>BALANCE_SHEET!I23</f>
+        <v>511887783867</v>
+      </c>
+      <c r="H16" s="41">
+        <f>INCOME_STATEMENT!D32</f>
+        <v>434747101600</v>
+      </c>
+      <c r="I16" s="41">
+        <f>INCOME_STATEMENT!E32</f>
+        <v>428092732505</v>
+      </c>
+      <c r="J16" s="41">
+        <f>INCOME_STATEMENT!F32</f>
+        <v>344361345265</v>
+      </c>
+      <c r="K16" s="41">
+        <f>INCOME_STATEMENT!G32</f>
+        <v>344678666245</v>
+      </c>
+      <c r="L16" s="41">
+        <f>INCOME_STATEMENT!H32</f>
+        <v>300572751733</v>
+      </c>
+      <c r="M16" s="41">
+        <f>BALANCE_SHEET!E29</f>
+        <v>383944578889</v>
+      </c>
+      <c r="N16" s="41">
+        <f>BALANCE_SHEET!F29</f>
+        <v>377026019809</v>
+      </c>
+      <c r="O16" s="41">
+        <f>BALANCE_SHEET!G29</f>
+        <v>369089199975</v>
+      </c>
+      <c r="P16" s="41">
+        <f>BALANCE_SHEET!H29</f>
+        <v>366731414004</v>
+      </c>
+      <c r="Q16" s="41">
+        <f>BALANCE_SHEET!I29</f>
+        <v>367973996780</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="54"/>
+      <c r="C17" s="41">
+        <f>C15/C16</f>
+        <v>1.4779821955259325E-2</v>
+      </c>
+      <c r="D17" s="41">
+        <f>D15/D16</f>
+        <v>2.1042270631316563E-3</v>
+      </c>
+      <c r="E17" s="41">
+        <f>E15/E16</f>
+        <v>-1.1488692751341871E-2</v>
+      </c>
+      <c r="F17" s="41">
+        <f>F15/F16</f>
+        <v>-2.5803170932926843E-3</v>
+      </c>
+      <c r="G17" s="41">
+        <f>G15/G16</f>
+        <v>-4.4081468011478928E-3</v>
+      </c>
+      <c r="H17" s="41">
+        <f t="shared" ref="H17:L17" si="10">H15/H16</f>
+        <v>1.6956924646234377E-2</v>
+      </c>
+      <c r="I17" s="41">
+        <f t="shared" si="10"/>
+        <v>2.4433732029958792E-3</v>
+      </c>
+      <c r="J17" s="41">
+        <f t="shared" si="10"/>
+        <v>-1.6115239861574652E-2</v>
+      </c>
+      <c r="K17" s="41">
+        <f t="shared" si="10"/>
+        <v>-3.7232710773221996E-3</v>
+      </c>
+      <c r="L17" s="41">
+        <f t="shared" si="10"/>
+        <v>-7.5072556776684708E-3</v>
+      </c>
+      <c r="M17" s="41">
+        <f t="shared" ref="M17" si="11">M15/M16</f>
+        <v>0.29911035126036056</v>
+      </c>
+      <c r="N17" s="41">
+        <f t="shared" ref="N17" si="12">N15/N16</f>
+        <v>0.31845021826298353</v>
+      </c>
+      <c r="O17" s="41">
+        <f t="shared" ref="O17" si="13">O15/O16</f>
+        <v>0.30872746722667094</v>
+      </c>
+      <c r="P17" s="41">
+        <f t="shared" ref="P17" si="14">P15/P16</f>
+        <v>0.35618166346550084</v>
+      </c>
+      <c r="Q17" s="41">
+        <f t="shared" ref="Q17" si="15">Q15/Q16</f>
+        <v>0.39109770893143164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="54"/>
+      <c r="C18" s="41" t="str">
+        <f>IF(C17=C$28,"S",IF(C17&lt;C$28,"B",IF(C17&gt;C$28,"A")))</f>
+        <v>B</v>
+      </c>
+      <c r="D18" s="41" t="str">
+        <f t="shared" ref="D18:Q18" si="16">IF(D17=D$28,"S",IF(D17&lt;D$28,"B",IF(D17&gt;D$28,"A")))</f>
+        <v>B</v>
+      </c>
+      <c r="E18" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="F18" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="G18" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="H18" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="I18" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="J18" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="K18" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="L18" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="M18" s="41" t="str">
+        <f>IF(M17=M$28,"S",IF(M17&lt;M$28,"B",IF(M17&gt;M$28,"A")))</f>
+        <v>B</v>
+      </c>
+      <c r="N18" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="O18" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="P18" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+      <c r="Q18" s="41" t="str">
+        <f t="shared" si="16"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="50">
+        <f>INCOME_STATEMENT!D69</f>
+        <v>7371973842</v>
+      </c>
+      <c r="D19" s="50">
+        <f>INCOME_STATEMENT!E69</f>
+        <v>1045990311</v>
+      </c>
+      <c r="E19" s="50">
+        <f>INCOME_STATEMENT!F69</f>
+        <v>-5549465678</v>
+      </c>
+      <c r="F19" s="50">
+        <f>INCOME_STATEMENT!G69</f>
+        <v>-1283332109</v>
+      </c>
+      <c r="G19" s="50">
+        <f>INCOME_STATEMENT!H69</f>
+        <v>-2256476497</v>
+      </c>
+      <c r="H19" s="53">
+        <f>INCOME_STATEMENT!D69</f>
+        <v>7371973842</v>
+      </c>
+      <c r="I19" s="53">
+        <f>INCOME_STATEMENT!E69</f>
+        <v>1045990311</v>
+      </c>
+      <c r="J19" s="53">
+        <f>INCOME_STATEMENT!F69</f>
+        <v>-5549465678</v>
+      </c>
+      <c r="K19" s="53">
+        <f>INCOME_STATEMENT!G69</f>
+        <v>-1283332109</v>
+      </c>
+      <c r="L19" s="53">
+        <f>INCOME_STATEMENT!H69</f>
+        <v>-2256476497</v>
+      </c>
+      <c r="M19" s="53">
+        <f>BALANCE_SHEET!E42</f>
+        <v>165633948162</v>
+      </c>
+      <c r="N19" s="53">
+        <f>BALANCE_SHEET!F42</f>
+        <v>214685781274</v>
+      </c>
+      <c r="O19" s="53">
+        <f>BALANCE_SHEET!G42</f>
+        <v>269032270377</v>
+      </c>
+      <c r="P19" s="53">
+        <f>BALANCE_SHEET!H42</f>
+        <v>367927139244</v>
+      </c>
+      <c r="Q19" s="53">
+        <f>BALANCE_SHEET!I42</f>
+        <v>347517123452</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="54"/>
+      <c r="C20" s="50">
+        <f>BALANCE_SHEET!E38</f>
+        <v>619383082066</v>
+      </c>
+      <c r="D20" s="50">
+        <f>BALANCE_SHEET!F38</f>
+        <v>648899377240</v>
+      </c>
+      <c r="E20" s="50">
+        <f>BALANCE_SHEET!G38</f>
+        <v>709959168088</v>
+      </c>
+      <c r="F20" s="50">
+        <f>BALANCE_SHEET!H38</f>
+        <v>780669761787</v>
+      </c>
+      <c r="G20" s="50">
+        <f>BALANCE_SHEET!I38</f>
+        <v>648016880325</v>
+      </c>
+      <c r="H20" s="53">
+        <f>INCOME_STATEMENT!D58</f>
+        <v>434747101600</v>
+      </c>
+      <c r="I20" s="53">
+        <f>INCOME_STATEMENT!E58</f>
+        <v>428092732505</v>
+      </c>
+      <c r="J20" s="53">
+        <f>INCOME_STATEMENT!F58</f>
+        <v>344361345265</v>
+      </c>
+      <c r="K20" s="53">
+        <f>INCOME_STATEMENT!G58</f>
+        <v>344678666245</v>
+      </c>
+      <c r="L20" s="53">
+        <f>INCOME_STATEMENT!H58</f>
+        <v>300572751733</v>
+      </c>
+      <c r="M20" s="53">
+        <f>BALANCE_SHEET!E44</f>
+        <v>453749133904</v>
+      </c>
+      <c r="N20" s="53">
+        <f>BALANCE_SHEET!F44</f>
+        <v>434213595966</v>
+      </c>
+      <c r="O20" s="53">
+        <f>BALANCE_SHEET!G44</f>
+        <v>440926897711</v>
+      </c>
+      <c r="P20" s="53">
+        <f>BALANCE_SHEET!H44</f>
+        <v>412742622543</v>
+      </c>
+      <c r="Q20" s="53">
+        <f>BALANCE_SHEET!I44</f>
+        <v>300499756873</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="54"/>
+      <c r="C21" s="41">
+        <f>C19/C20</f>
+        <v>1.1902123347331692E-2</v>
+      </c>
+      <c r="D21" s="41">
+        <f>D19/D20</f>
+        <v>1.6119453149253573E-3</v>
+      </c>
+      <c r="E21" s="41">
+        <f>E19/E20</f>
+        <v>-7.8165983727561915E-3</v>
+      </c>
+      <c r="F21" s="41">
+        <f>F19/F20</f>
+        <v>-1.6438860217441696E-3</v>
+      </c>
+      <c r="G21" s="41">
+        <f>G19/G20</f>
+        <v>-3.4821261073759513E-3</v>
+      </c>
+      <c r="H21" s="41">
+        <f t="shared" ref="H21:L21" si="17">H19/H20</f>
+        <v>1.6956924646234377E-2</v>
+      </c>
+      <c r="I21" s="41">
+        <f t="shared" si="17"/>
+        <v>2.4433732029958792E-3</v>
+      </c>
+      <c r="J21" s="41">
+        <f t="shared" si="17"/>
+        <v>-1.6115239861574652E-2</v>
+      </c>
+      <c r="K21" s="41">
+        <f t="shared" si="17"/>
+        <v>-3.7232710773221996E-3</v>
+      </c>
+      <c r="L21" s="41">
+        <f t="shared" si="17"/>
+        <v>-7.5072556776684708E-3</v>
+      </c>
+      <c r="M21" s="41">
+        <f t="shared" ref="M21" si="18">M19/M20</f>
+        <v>0.36503419133146664</v>
+      </c>
+      <c r="N21" s="41">
+        <f t="shared" ref="N21" si="19">N19/N20</f>
+        <v>0.49442436457197075</v>
+      </c>
+      <c r="O21" s="41">
+        <f t="shared" ref="O21" si="20">O19/O20</f>
+        <v>0.61015164140277467</v>
+      </c>
+      <c r="P21" s="41">
+        <f t="shared" ref="P21" si="21">P19/P20</f>
+        <v>0.89142026810102204</v>
+      </c>
+      <c r="Q21" s="41">
+        <f t="shared" ref="Q21" si="22">Q19/Q20</f>
+        <v>1.1564639088838629</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="54"/>
+      <c r="C22" s="41" t="str">
+        <f>IF(C21=C$28,"S",IF(C21&lt;C$28,"B",IF(C21&gt;C$28,"A")))</f>
+        <v>B</v>
+      </c>
+      <c r="D22" s="41" t="str">
+        <f t="shared" ref="D22:Q22" si="23">IF(D21=D$28,"S",IF(D21&lt;D$28,"B",IF(D21&gt;D$28,"A")))</f>
+        <v>B</v>
+      </c>
+      <c r="E22" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v>B</v>
+      </c>
+      <c r="F22" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v>B</v>
+      </c>
+      <c r="G22" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v>B</v>
+      </c>
+      <c r="H22" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v>B</v>
+      </c>
+      <c r="I22" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v>B</v>
+      </c>
+      <c r="J22" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v>B</v>
+      </c>
+      <c r="K22" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v>B</v>
+      </c>
+      <c r="L22" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v>B</v>
+      </c>
+      <c r="M22" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v>B</v>
+      </c>
+      <c r="N22" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v>B</v>
+      </c>
+      <c r="O22" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v>B</v>
+      </c>
+      <c r="P22" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v>B</v>
+      </c>
+      <c r="Q22" s="41" t="str">
+        <f t="shared" si="23"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="50">
+        <f>INCOME_STATEMENT!D95</f>
+        <v>174314394101</v>
+      </c>
+      <c r="D23" s="50">
+        <f>INCOME_STATEMENT!E95</f>
+        <v>544474278014</v>
+      </c>
+      <c r="E23" s="50">
+        <f>INCOME_STATEMENT!F95</f>
+        <v>162059596347</v>
+      </c>
+      <c r="F23" s="50">
+        <f>INCOME_STATEMENT!G95</f>
+        <v>179126382068</v>
+      </c>
+      <c r="G23" s="50">
+        <f>INCOME_STATEMENT!H95</f>
+        <v>173049442756</v>
+      </c>
+      <c r="H23" s="53">
+        <f>INCOME_STATEMENT!D95</f>
+        <v>174314394101</v>
+      </c>
+      <c r="I23" s="53">
+        <f>INCOME_STATEMENT!E95</f>
+        <v>544474278014</v>
+      </c>
+      <c r="J23" s="53">
+        <f>INCOME_STATEMENT!F95</f>
+        <v>162059596347</v>
+      </c>
+      <c r="K23" s="53">
+        <f>INCOME_STATEMENT!G95</f>
+        <v>179126382068</v>
+      </c>
+      <c r="L23" s="53">
+        <f>INCOME_STATEMENT!H95</f>
+        <v>173049442756</v>
+      </c>
+      <c r="M23" s="53">
+        <f>BALANCE_SHEET!E57</f>
+        <v>569730901368</v>
+      </c>
+      <c r="N23" s="53">
+        <f>BALANCE_SHEET!F57</f>
+        <v>367225370670</v>
+      </c>
+      <c r="O23" s="53">
+        <f>BALANCE_SHEET!G57</f>
+        <v>401942530776</v>
+      </c>
+      <c r="P23" s="53">
+        <f>BALANCE_SHEET!H57</f>
+        <v>503480853006</v>
+      </c>
+      <c r="Q23" s="53">
+        <f>BALANCE_SHEET!I57</f>
+        <v>472680346662</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="54"/>
+      <c r="C24" s="50">
+        <f>BALANCE_SHEET!E53</f>
+        <v>1853235343636</v>
+      </c>
+      <c r="D24" s="50">
+        <f>BALANCE_SHEET!F53</f>
+        <v>2082096848703</v>
+      </c>
+      <c r="E24" s="50">
+        <f>BALANCE_SHEET!G53</f>
+        <v>2185101038101</v>
+      </c>
+      <c r="F24" s="50">
+        <f>BALANCE_SHEET!H53</f>
+        <v>2361807189430</v>
+      </c>
+      <c r="G24" s="50">
+        <f>BALANCE_SHEET!I53</f>
+        <v>2445143511801</v>
+      </c>
+      <c r="H24" s="53">
+        <f>INCOME_STATEMENT!D84</f>
+        <v>2308203551971</v>
+      </c>
+      <c r="I24" s="53">
+        <f>INCOME_STATEMENT!E84</f>
+        <v>2314889854074</v>
+      </c>
+      <c r="J24" s="53">
+        <f>INCOME_STATEMENT!F84</f>
+        <v>2526776164168</v>
+      </c>
+      <c r="K24" s="53">
+        <f>INCOME_STATEMENT!G84</f>
+        <v>2706394847919</v>
+      </c>
+      <c r="L24" s="53">
+        <f>INCOME_STATEMENT!H84</f>
+        <v>2648754344347</v>
+      </c>
+      <c r="M24" s="53">
+        <f>BALANCE_SHEET!E59</f>
+        <v>1283504442268</v>
+      </c>
+      <c r="N24" s="53">
+        <f>BALANCE_SHEET!F59</f>
+        <v>1714871478033</v>
+      </c>
+      <c r="O24" s="53">
+        <f>BALANCE_SHEET!G59</f>
+        <v>1783158507325</v>
+      </c>
+      <c r="P24" s="53">
+        <f>BALANCE_SHEET!H59</f>
+        <v>1858326336424</v>
+      </c>
+      <c r="Q24" s="53">
+        <f>BALANCE_SHEET!I59</f>
+        <v>1972463165139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="54"/>
+      <c r="C25" s="41">
+        <f>C23/C24</f>
+        <v>9.4059502318253677E-2</v>
+      </c>
+      <c r="D25" s="41">
+        <f>D23/D24</f>
+        <v>0.26150285869419054</v>
+      </c>
+      <c r="E25" s="41">
+        <f>E23/E24</f>
+        <v>7.4165722097610964E-2</v>
+      </c>
+      <c r="F25" s="41">
+        <f>F23/F24</f>
+        <v>7.5842932001248781E-2</v>
+      </c>
+      <c r="G25" s="41">
+        <f>G23/G24</f>
+        <v>7.077271412529007E-2</v>
+      </c>
+      <c r="H25" s="41">
+        <f t="shared" ref="H25:L25" si="24">H23/H24</f>
+        <v>7.5519506913569664E-2</v>
+      </c>
+      <c r="I25" s="41">
+        <f t="shared" si="24"/>
+        <v>0.23520526346243809</v>
+      </c>
+      <c r="J25" s="41">
+        <f t="shared" si="24"/>
+        <v>6.4136902447139363E-2</v>
+      </c>
+      <c r="K25" s="41">
+        <f t="shared" si="24"/>
+        <v>6.6186344614768161E-2</v>
+      </c>
+      <c r="L25" s="41">
+        <f t="shared" si="24"/>
+        <v>6.5332386570813555E-2</v>
+      </c>
+      <c r="M25" s="41">
+        <f t="shared" ref="M25" si="25">M23/M24</f>
+        <v>0.44388697273323369</v>
+      </c>
+      <c r="N25" s="41">
+        <f t="shared" ref="N25" si="26">N23/N24</f>
+        <v>0.21414162832261727</v>
+      </c>
+      <c r="O25" s="41">
+        <f t="shared" ref="O25" si="27">O23/O24</f>
+        <v>0.22541043273767788</v>
+      </c>
+      <c r="P25" s="41">
+        <f t="shared" ref="P25" si="28">P23/P24</f>
+        <v>0.27093242082273578</v>
+      </c>
+      <c r="Q25" s="41">
+        <f t="shared" ref="Q25" si="29">Q23/Q24</f>
+        <v>0.23963963181471634</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="54"/>
+      <c r="C26" s="41" t="str">
+        <f>IF(C25=C$28,"S",IF(C25&lt;C$28,"B",IF(C25&gt;C$28,"A")))</f>
+        <v>B</v>
+      </c>
+      <c r="D26" s="41" t="str">
+        <f t="shared" ref="D26:Q26" si="30">IF(D25=D$28,"S",IF(D25&lt;D$28,"B",IF(D25&gt;D$28,"A")))</f>
+        <v>A</v>
+      </c>
+      <c r="E26" s="41" t="str">
+        <f t="shared" si="30"/>
+        <v>B</v>
+      </c>
+      <c r="F26" s="41" t="str">
+        <f t="shared" si="30"/>
+        <v>B</v>
+      </c>
+      <c r="G26" s="41" t="str">
+        <f t="shared" si="30"/>
+        <v>B</v>
+      </c>
+      <c r="H26" s="41" t="str">
+        <f t="shared" si="30"/>
+        <v>A</v>
+      </c>
+      <c r="I26" s="41" t="str">
+        <f t="shared" si="30"/>
+        <v>A</v>
+      </c>
+      <c r="J26" s="41" t="str">
+        <f t="shared" si="30"/>
+        <v>A</v>
+      </c>
+      <c r="K26" s="41" t="str">
+        <f t="shared" si="30"/>
+        <v>A</v>
+      </c>
+      <c r="L26" s="41" t="str">
+        <f t="shared" si="30"/>
+        <v>B</v>
+      </c>
+      <c r="M26" s="41" t="str">
+        <f t="shared" si="30"/>
+        <v>B</v>
+      </c>
+      <c r="N26" s="41" t="str">
+        <f t="shared" si="30"/>
+        <v>B</v>
+      </c>
+      <c r="O26" s="41" t="str">
+        <f t="shared" si="30"/>
+        <v>B</v>
+      </c>
+      <c r="P26" s="41" t="str">
+        <f t="shared" si="30"/>
+        <v>B</v>
+      </c>
+      <c r="Q26" s="41" t="str">
+        <f t="shared" si="30"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="45"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="56">
+        <f>(C13+C17+C21+C25)/4</f>
+        <v>0.13064498669872576</v>
+      </c>
+      <c r="D28" s="56">
+        <f>(D13+D17+D21+D25)/4</f>
+        <v>0.15930897679107819</v>
+      </c>
+      <c r="E28" s="56">
+        <f>(E13+E17+E21+E25)/4</f>
+        <v>0.10912279312162022</v>
+      </c>
+      <c r="F28" s="56">
+        <f>(F13+F17+F21+F25)/4</f>
+        <v>0.12247726042747398</v>
+      </c>
+      <c r="G28" s="56">
+        <f>(G13+G17+G21+G25)/4</f>
+        <v>0.13617504288217447</v>
+      </c>
+      <c r="H28" s="56">
+        <f t="shared" ref="H28:Q28" si="31">(H13+H17+H21+H25)/4</f>
+        <v>6.8927941550198893E-2</v>
+      </c>
+      <c r="I28" s="56">
+        <f t="shared" si="31"/>
+        <v>0.1001214030549811</v>
+      </c>
+      <c r="J28" s="56">
+        <f t="shared" si="31"/>
+        <v>4.7864723971697623E-2</v>
+      </c>
+      <c r="K28" s="56">
+        <f t="shared" si="31"/>
+        <v>5.7183708639334585E-2</v>
+      </c>
+      <c r="L28" s="56">
+        <f t="shared" si="31"/>
+        <v>6.7059093534441727E-2</v>
+      </c>
+      <c r="M28" s="56">
+        <f>(M13+M17+M21+M25)/4</f>
+        <v>0.80333680679523478</v>
+      </c>
+      <c r="N28" s="56">
+        <f t="shared" si="31"/>
+        <v>0.82137866127104742</v>
+      </c>
+      <c r="O28" s="56">
+        <f t="shared" si="31"/>
+        <v>0.92599461112106418</v>
+      </c>
+      <c r="P28" s="56">
+        <f t="shared" si="31"/>
+        <v>1.0195558138765979</v>
+      </c>
+      <c r="Q28" s="56">
+        <f t="shared" si="31"/>
+        <v>1.1104381934247394</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="57"/>
+      <c r="C30" s="58" t="str">
+        <f>IF(C5-C13=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="D30" s="58" t="str">
+        <f>IF(D5-D13=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="E30" s="58" t="str">
+        <f>IF(E5-E13=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="F30" s="58" t="str">
+        <f>IF(F5-F13=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="G30" s="58" t="str">
+        <f>IF(G5-G13=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="H30" s="58" t="str">
+        <f>IF(H5-H13=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="I30" s="58" t="str">
+        <f>IF(I5-I13=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="J30" s="58" t="str">
+        <f>IF(J5-J13=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="K30" s="58" t="str">
+        <f>IF(K5-K13=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="L30" s="58" t="str">
+        <f>IF(L5-L13=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="M30" s="58" t="str">
+        <f t="shared" ref="M30:Q30" si="32">IF(M5-M13=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="N30" s="58" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="O30" s="58" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="P30" s="58" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="Q30" s="58" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="57"/>
+      <c r="C31" s="58" t="str">
+        <f>IF(C6=C17,"","X")</f>
+        <v/>
+      </c>
+      <c r="D31" s="58" t="str">
+        <f t="shared" ref="D31:L31" si="33">IF(D6=D17,"","X")</f>
+        <v/>
+      </c>
+      <c r="E31" s="58" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="F31" s="58" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="G31" s="58" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H31" s="58" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I31" s="58" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J31" s="58" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K31" s="58" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L31" s="58" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M31" s="58" t="str">
+        <f t="shared" ref="M31:Q31" si="34">IF(M6=M17,"","X")</f>
+        <v/>
+      </c>
+      <c r="N31" s="58" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="O31" s="58" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="P31" s="58" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="Q31" s="58" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="57"/>
+      <c r="C32" s="58" t="str">
+        <f>IF(C7=C21,"","X")</f>
+        <v/>
+      </c>
+      <c r="D32" s="58" t="str">
+        <f t="shared" ref="D32:L32" si="35">IF(D7=D21,"","X")</f>
+        <v/>
+      </c>
+      <c r="E32" s="58" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F32" s="58" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G32" s="58" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H32" s="58" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I32" s="58" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J32" s="58" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K32" s="58" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L32" s="58" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M32" s="58" t="str">
+        <f t="shared" ref="M32:Q32" si="36">IF(M7=M21,"","X")</f>
+        <v/>
+      </c>
+      <c r="N32" s="58" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="O32" s="58" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="P32" s="58" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="Q32" s="58" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33" s="57"/>
+      <c r="C33" s="58" t="str">
+        <f>IF(C8=C25,"","X")</f>
+        <v/>
+      </c>
+      <c r="D33" s="58" t="str">
+        <f t="shared" ref="D33:L33" si="37">IF(D8=D25,"","X")</f>
+        <v/>
+      </c>
+      <c r="E33" s="58" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="F33" s="58" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="G33" s="58" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="H33" s="58" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="I33" s="58" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="J33" s="58" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="K33" s="58" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="L33" s="58" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="M33" s="58" t="str">
+        <f t="shared" ref="M33:Q33" si="38">IF(M8=M25,"","X")</f>
+        <v/>
+      </c>
+      <c r="N33" s="58" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="O33" s="58" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="P33" s="58" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="Q33" s="58" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PROSKRIP/Analisa_LK_UNVR_2014_2018.xlsx
+++ b/PROSKRIP/Analisa_LK_UNVR_2014_2018.xlsx
@@ -15,7 +15,6 @@
     <sheet name="BALANCE_SHEET" sheetId="1" r:id="rId1"/>
     <sheet name="INCOME_STATEMENT" sheetId="2" r:id="rId2"/>
     <sheet name="ANALISA_RASIO" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="60">
   <si>
     <t>Aset Lancar</t>
   </si>
@@ -190,6 +189,24 @@
   <si>
     <t>RATA2</t>
   </si>
+  <si>
+    <t>Total Aset</t>
+  </si>
+  <si>
+    <t>Ekuitas</t>
+  </si>
+  <si>
+    <t>Rasio</t>
+  </si>
+  <si>
+    <t>Net Profit</t>
+  </si>
+  <si>
+    <t>Net Sales</t>
+  </si>
+  <si>
+    <t>Total Utang</t>
+  </si>
 </sst>
 </file>
 
@@ -199,7 +216,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -321,7 +338,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -349,12 +366,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -447,21 +535,9 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -491,17 +567,125 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="13" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -785,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -879,46 +1063,46 @@
     </row>
     <row r="6" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="36"/>
+      <c r="C6" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="95"/>
       <c r="E6" s="3">
-        <v>6337170000000</v>
+        <v>6337170</v>
       </c>
       <c r="F6" s="3">
-        <v>6623114000000</v>
+        <v>6623114</v>
       </c>
       <c r="G6" s="3">
-        <v>6588109000000</v>
+        <v>6588109</v>
       </c>
       <c r="H6" s="3">
-        <v>6588109000000</v>
+        <v>6588109</v>
       </c>
       <c r="I6" s="3">
-        <v>7941635000000</v>
+        <v>7941635</v>
       </c>
     </row>
     <row r="7" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="3">
-        <v>7943500000000</v>
+        <v>7943500</v>
       </c>
       <c r="F7" s="3">
-        <v>9106831000000</v>
+        <v>9106831</v>
       </c>
       <c r="G7" s="3">
-        <v>10157586000000</v>
+        <v>10157586</v>
       </c>
       <c r="H7" s="3">
-        <v>10157586000000</v>
+        <v>10157586</v>
       </c>
       <c r="I7" s="3">
-        <v>10964778000000</v>
+        <v>10964778</v>
       </c>
     </row>
     <row r="8" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -929,23 +1113,23 @@
       <c r="D8" s="5"/>
       <c r="E8" s="4">
         <f>E6+E7</f>
-        <v>14280670000000</v>
+        <v>14280670</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" ref="F8" si="1">F6+F7</f>
-        <v>15729945000000</v>
+        <f>F6+F7</f>
+        <v>15729945</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" ref="G8" si="2">G6+G7</f>
-        <v>16745695000000</v>
+        <f t="shared" ref="G8" si="1">G6+G7</f>
+        <v>16745695</v>
       </c>
       <c r="H8" s="4">
-        <f t="shared" ref="H8" si="3">H6+H7</f>
-        <v>16745695000000</v>
+        <f>H6+H7</f>
+        <v>16745695</v>
       </c>
       <c r="I8" s="4">
-        <f t="shared" ref="I8" si="4">I6+I7</f>
-        <v>18906413000000</v>
+        <f>I6+I7</f>
+        <v>18906413</v>
       </c>
     </row>
     <row r="9" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -960,46 +1144,46 @@
     </row>
     <row r="10" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="3">
-        <v>8864832000000</v>
+        <v>8864832</v>
       </c>
       <c r="F10" s="3">
-        <v>10127542000000</v>
+        <v>10127542</v>
       </c>
       <c r="G10" s="3">
-        <v>10878074000000</v>
+        <v>10878074</v>
       </c>
       <c r="H10" s="3">
-        <v>10878074000000</v>
+        <v>10878074</v>
       </c>
       <c r="I10" s="3">
-        <v>12532304000000</v>
+        <v>12532304</v>
       </c>
     </row>
     <row r="11" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="3">
-        <v>817056000000</v>
+        <v>817056</v>
       </c>
       <c r="F11" s="3">
-        <v>775043000000</v>
+        <v>775043</v>
       </c>
       <c r="G11" s="3">
-        <v>1163363000000</v>
+        <v>1163363</v>
       </c>
       <c r="H11" s="3">
-        <v>1163363000000</v>
+        <v>1163363</v>
       </c>
       <c r="I11" s="3">
-        <v>1200721000000</v>
+        <v>1200721</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1010,23 +1194,23 @@
       <c r="D12" s="5"/>
       <c r="E12" s="4">
         <f>E10+E11</f>
-        <v>9681888000000</v>
+        <v>9681888</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" ref="F12" si="5">F10+F11</f>
-        <v>10902585000000</v>
+        <f t="shared" ref="F12" si="2">F10+F11</f>
+        <v>10902585</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" ref="G12" si="6">G10+G11</f>
-        <v>12041437000000</v>
+        <f t="shared" ref="G12" si="3">G10+G11</f>
+        <v>12041437</v>
       </c>
       <c r="H12" s="4">
-        <f t="shared" ref="H12" si="7">H10+H11</f>
-        <v>12041437000000</v>
+        <f t="shared" ref="H12" si="4">H10+H11</f>
+        <v>12041437</v>
       </c>
       <c r="I12" s="4">
-        <f t="shared" ref="I12" si="8">I10+I11</f>
-        <v>13733025000000</v>
+        <f>I10+I11</f>
+        <v>13733025</v>
       </c>
     </row>
     <row r="13" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1046,19 +1230,19 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4">
-        <v>4598782000000</v>
+        <v>4598782</v>
       </c>
       <c r="F14" s="4">
-        <v>4827360000000</v>
+        <v>4827360</v>
       </c>
       <c r="G14" s="4">
-        <v>4704258000000</v>
+        <v>4704258</v>
       </c>
       <c r="H14" s="4">
-        <v>4704258000000</v>
+        <v>4704258</v>
       </c>
       <c r="I14" s="4">
-        <v>5173388000000</v>
+        <v>5173388</v>
       </c>
     </row>
     <row r="15" spans="2:9" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1069,23 +1253,23 @@
       <c r="D15" s="16"/>
       <c r="E15" s="6">
         <f>E12+E14</f>
-        <v>14280670000000</v>
+        <v>14280670</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" ref="F15" si="9">F12+F14</f>
-        <v>15729945000000</v>
+        <f t="shared" ref="F15" si="5">F12+F14</f>
+        <v>15729945</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" ref="G15" si="10">G12+G14</f>
-        <v>16745695000000</v>
+        <f t="shared" ref="G15" si="6">G12+G14</f>
+        <v>16745695</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" ref="H15" si="11">H12+H14</f>
-        <v>16745695000000</v>
+        <f t="shared" ref="H15" si="7">H12+H14</f>
+        <v>16745695</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" ref="I15" si="12">I12+I14</f>
-        <v>18906413000000</v>
+        <f t="shared" ref="I15" si="8">I12+I14</f>
+        <v>18906413</v>
       </c>
     </row>
     <row r="16" spans="2:9" s="4" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1138,27 +1322,27 @@
         <v/>
       </c>
       <c r="F20" s="14" t="str">
-        <f t="shared" ref="F20:I20" si="13">IF(F23-F30=0,"","UNBALANCED")</f>
+        <f t="shared" ref="F20:I20" si="9">IF(F23-F30=0,"","UNBALANCED")</f>
         <v/>
       </c>
       <c r="G20" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H20" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I20" s="14" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="36"/>
+      <c r="C21" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="95"/>
       <c r="E21" s="3">
         <v>376694285634</v>
       </c>
@@ -1176,10 +1360,10 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="36"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="3">
         <v>122092091111</v>
       </c>
@@ -1207,27 +1391,27 @@
         <v>498786376745</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" ref="F23:I23" si="14">F21+F22</f>
+        <f t="shared" ref="F23:I23" si="10">F21+F22</f>
         <v>497090038108</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>483037173864</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>497354419089</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>511887783867</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="3">
         <v>104267201912</v>
       </c>
@@ -1245,10 +1429,10 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="95"/>
       <c r="E26" s="3">
         <v>10574595944</v>
       </c>
@@ -1276,19 +1460,19 @@
         <v>114841797856</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" ref="F27" si="15">F25+F26</f>
+        <f t="shared" ref="F27" si="11">F25+F26</f>
         <v>120064018299</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" ref="G27" si="16">G25+G26</f>
+        <f t="shared" ref="G27" si="12">G25+G26</f>
         <v>113947973889</v>
       </c>
       <c r="H27" s="4">
-        <f t="shared" ref="H27" si="17">H25+H26</f>
+        <f t="shared" ref="H27" si="13">H25+H26</f>
         <v>130623005085</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" ref="I27" si="18">I25+I26</f>
+        <f t="shared" ref="I27" si="14">I25+I26</f>
         <v>143913787087</v>
       </c>
     </row>
@@ -1325,19 +1509,19 @@
         <v>498786376745</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" ref="F30:I30" si="19">F27+F29</f>
+        <f t="shared" ref="F30:I30" si="15">F27+F29</f>
         <v>497090038108</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>483037173864</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>497354419089</v>
       </c>
       <c r="I30" s="6">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>511887783867</v>
       </c>
     </row>
@@ -1389,10 +1573,10 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="36"/>
+      <c r="C36" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="95"/>
       <c r="E36" s="3">
         <v>441621631299</v>
       </c>
@@ -1410,10 +1594,10 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="36"/>
+      <c r="D37" s="95"/>
       <c r="E37" s="3">
         <v>177761450767</v>
       </c>
@@ -1441,27 +1625,27 @@
         <v>619383082066</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" ref="F38" si="20">F36+F37</f>
+        <f t="shared" ref="F38" si="16">F36+F37</f>
         <v>648899377240</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" ref="G38" si="21">G36+G37</f>
+        <f t="shared" ref="G38" si="17">G36+G37</f>
         <v>709959168088</v>
       </c>
       <c r="H38" s="4">
-        <f t="shared" ref="H38" si="22">H36+H37</f>
+        <f t="shared" ref="H38" si="18">H36+H37</f>
         <v>780669761787</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" ref="I38" si="23">I36+I37</f>
+        <f t="shared" ref="I38" si="19">I36+I37</f>
         <v>648016880325</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="36"/>
+      <c r="D40" s="95"/>
       <c r="E40" s="3">
         <v>111683722179</v>
       </c>
@@ -1479,10 +1663,10 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="36"/>
+      <c r="D41" s="95"/>
       <c r="E41" s="3">
         <v>53950225983</v>
       </c>
@@ -1510,19 +1694,19 @@
         <v>165633948162</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" ref="F42" si="24">F40+F41</f>
+        <f t="shared" ref="F42" si="20">F40+F41</f>
         <v>214685781274</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" ref="G42" si="25">G40+G41</f>
+        <f t="shared" ref="G42" si="21">G40+G41</f>
         <v>269032270377</v>
       </c>
       <c r="H42" s="4">
-        <f t="shared" ref="H42" si="26">H40+H41</f>
+        <f t="shared" ref="H42" si="22">H40+H41</f>
         <v>367927139244</v>
       </c>
       <c r="I42" s="4">
-        <f t="shared" ref="I42" si="27">I40+I41</f>
+        <f t="shared" ref="I42" si="23">I40+I41</f>
         <v>347517123452</v>
       </c>
     </row>
@@ -1559,19 +1743,19 @@
         <v>619383082066</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" ref="F45" si="28">F42+F44</f>
+        <f t="shared" ref="F45" si="24">F42+F44</f>
         <v>648899377240</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" ref="G45" si="29">G42+G44</f>
+        <f t="shared" ref="G45" si="25">G42+G44</f>
         <v>709959168088</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" ref="H45" si="30">H42+H44</f>
+        <f t="shared" ref="H45" si="26">H42+H44</f>
         <v>780669761787</v>
       </c>
       <c r="I45" s="6">
-        <f t="shared" ref="I45" si="31">I42+I44</f>
+        <f t="shared" ref="I45" si="27">I42+I44</f>
         <v>648016880325</v>
       </c>
     </row>
@@ -1624,10 +1808,10 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" s="36"/>
+      <c r="C51" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="95"/>
       <c r="E51" s="3">
         <v>874017297803</v>
       </c>
@@ -1645,10 +1829,10 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="36"/>
+      <c r="D52" s="95"/>
       <c r="E52" s="3">
         <v>979218045833</v>
       </c>
@@ -1676,27 +1860,27 @@
         <v>1853235343636</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" ref="F53" si="32">F51+F52</f>
+        <f t="shared" ref="F53" si="28">F51+F52</f>
         <v>2082096848703</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" ref="G53" si="33">G51+G52</f>
+        <f t="shared" ref="G53" si="29">G51+G52</f>
         <v>2185101038101</v>
       </c>
       <c r="H53" s="4">
-        <f t="shared" ref="H53" si="34">H51+H52</f>
+        <f t="shared" ref="H53" si="30">H51+H52</f>
         <v>2361807189430</v>
       </c>
       <c r="I53" s="4">
-        <f t="shared" ref="I53" si="35">I51+I52</f>
+        <f t="shared" ref="I53" si="31">I51+I52</f>
         <v>2445143511801</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="36"/>
+      <c r="D55" s="95"/>
       <c r="E55" s="3">
         <v>486053837459</v>
       </c>
@@ -1714,10 +1898,10 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="36"/>
+      <c r="D56" s="95"/>
       <c r="E56" s="3">
         <v>83677063909</v>
       </c>
@@ -1745,19 +1929,19 @@
         <v>569730901368</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" ref="F57" si="36">F55+F56</f>
+        <f t="shared" ref="F57" si="32">F55+F56</f>
         <v>367225370670</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" ref="G57" si="37">G55+G56</f>
+        <f t="shared" ref="G57" si="33">G55+G56</f>
         <v>401942530776</v>
       </c>
       <c r="H57" s="4">
-        <f t="shared" ref="H57" si="38">H55+H56</f>
+        <f t="shared" ref="H57" si="34">H55+H56</f>
         <v>503480853006</v>
       </c>
       <c r="I57" s="4">
-        <f t="shared" ref="I57" si="39">I55+I56</f>
+        <f t="shared" ref="I57" si="35">I55+I56</f>
         <v>472680346662</v>
       </c>
     </row>
@@ -1794,19 +1978,19 @@
         <v>1853235343636</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" ref="F60" si="40">F57+F59</f>
+        <f t="shared" ref="F60" si="36">F57+F59</f>
         <v>2082096848703</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" ref="G60" si="41">G57+G59</f>
+        <f t="shared" ref="G60" si="37">G57+G59</f>
         <v>2185101038101</v>
       </c>
       <c r="H60" s="6">
-        <f t="shared" ref="H60" si="42">H57+H59</f>
+        <f t="shared" ref="H60" si="38">H57+H59</f>
         <v>2361807189430</v>
       </c>
       <c r="I60" s="6">
-        <f t="shared" ref="I60" si="43">I57+I59</f>
+        <f t="shared" ref="I60" si="39">I57+I59</f>
         <v>2445143511801</v>
       </c>
     </row>
@@ -1837,439 +2021,441 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H103"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="B79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="3.7109375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="33" customWidth="1"/>
-    <col min="4" max="8" width="19.28515625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="3.7109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" style="33" customWidth="1"/>
+    <col min="3" max="7" width="19.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="2:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="17" t="s">
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="20" t="s">
+      <c r="B2" s="18"/>
+    </row>
+    <row r="3" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="21"/>
-    </row>
-    <row r="4" spans="2:8" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
+      <c r="B3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26" t="s">
+        <v>2</v>
+      </c>
       <c r="D4" s="26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="39"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="23">
+        <v>34511534</v>
+      </c>
       <c r="D5" s="23">
-        <v>34511534000000</v>
+        <v>36484030</v>
       </c>
       <c r="E5" s="23">
-        <v>36484030000000</v>
+        <v>40053732</v>
       </c>
       <c r="F5" s="23">
-        <v>40053732000000</v>
+        <v>41204510</v>
       </c>
       <c r="G5" s="23">
-        <v>41204510000000</v>
-      </c>
-      <c r="H5" s="23">
-        <v>41802073000000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="39" t="s">
+        <v>41802073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="39"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="23">
+        <v>-17412413</v>
+      </c>
       <c r="D6" s="23">
-        <v>-17412413000000</v>
+        <v>-17835061</v>
       </c>
       <c r="E6" s="23">
-        <v>-17835061000000</v>
+        <v>-19594636</v>
       </c>
       <c r="F6" s="23">
-        <v>-19594636000000</v>
+        <v>-19984776</v>
       </c>
       <c r="G6" s="23">
-        <v>-19984776000000</v>
-      </c>
-      <c r="H6" s="23">
-        <v>-20709800000000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="28"/>
-      <c r="C7" s="21" t="s">
+        <v>-20709800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="21" t="s">
         <v>11</v>
+      </c>
+      <c r="C7" s="22">
+        <f>C5+C6</f>
+        <v>17099121</v>
       </c>
       <c r="D7" s="22">
         <f>D5+D6</f>
-        <v>17099121000000</v>
+        <v>18648969</v>
       </c>
       <c r="E7" s="22">
         <f>E5+E6</f>
-        <v>18648969000000</v>
+        <v>20459096</v>
       </c>
       <c r="F7" s="22">
         <f>F5+F6</f>
-        <v>20459096000000</v>
+        <v>21219734</v>
       </c>
       <c r="G7" s="22">
         <f>G5+G6</f>
-        <v>21219734000000</v>
-      </c>
-      <c r="H7" s="22">
-        <f>H5+H6</f>
-        <v>21092273000000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="39" t="s">
+        <v>21092273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="23">
+        <v>-6613992</v>
+      </c>
       <c r="D8" s="23">
-        <v>-6613992000000</v>
+        <v>-7239165</v>
       </c>
       <c r="E8" s="23">
-        <v>-7239165000000</v>
+        <v>-7791556</v>
       </c>
       <c r="F8" s="23">
-        <v>-7791556000000</v>
+        <v>-7839387</v>
       </c>
       <c r="G8" s="23">
-        <v>-7839387000000</v>
-      </c>
-      <c r="H8" s="23">
-        <v>-7719088000000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="39" t="s">
+        <v>-7719088</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="39"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="23">
+        <v>-2705822</v>
+      </c>
       <c r="D9" s="23">
-        <v>-2705822000000</v>
+        <v>-3465924</v>
       </c>
       <c r="E9" s="23">
-        <v>-3465924000000</v>
+        <v>-3960830</v>
       </c>
       <c r="F9" s="23">
-        <v>-3960830000000</v>
+        <v>-3875371</v>
       </c>
       <c r="G9" s="23">
-        <v>-3875371000000</v>
-      </c>
-      <c r="H9" s="23">
-        <v>-3917171000000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="39" t="s">
+        <v>-3917171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="39"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="23">
+        <v>-16979</v>
+      </c>
       <c r="D10" s="23">
-        <v>-16979000000</v>
+        <v>-4479</v>
       </c>
       <c r="E10" s="23">
-        <v>-4479000000</v>
+        <v>951</v>
       </c>
       <c r="F10" s="23">
-        <v>951000000</v>
+        <v>-9212</v>
       </c>
       <c r="G10" s="23">
-        <v>-9212000000</v>
-      </c>
-      <c r="H10" s="23">
-        <v>2822616000000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="28"/>
-      <c r="C11" s="21" t="s">
+        <v>2822616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="21" t="s">
         <v>14</v>
+      </c>
+      <c r="C11" s="22">
+        <f>C7+SUM(C8:C10)</f>
+        <v>7762328</v>
       </c>
       <c r="D11" s="22">
         <f>D7+SUM(D8:D10)</f>
-        <v>7762328000000</v>
+        <v>7939401</v>
       </c>
       <c r="E11" s="22">
         <f>E7+SUM(E8:E10)</f>
-        <v>7939401000000</v>
+        <v>8707661</v>
       </c>
       <c r="F11" s="22">
         <f>F7+SUM(F8:F10)</f>
-        <v>8707661000000</v>
+        <v>9495764</v>
       </c>
       <c r="G11" s="22">
         <f>G7+SUM(G8:G10)</f>
-        <v>9495764000000</v>
-      </c>
-      <c r="H11" s="22">
-        <f>H7+SUM(H8:H10)</f>
-        <v>12278630000000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="39" t="s">
+        <v>12278630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="39"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="23">
+        <v>10458</v>
+      </c>
       <c r="D12" s="23">
-        <v>10458000000</v>
+        <v>10616</v>
       </c>
       <c r="E12" s="23">
-        <v>10616000000</v>
+        <v>7468</v>
       </c>
       <c r="F12" s="23">
-        <v>7468000000</v>
+        <v>3579</v>
       </c>
       <c r="G12" s="23">
-        <v>3579000000</v>
-      </c>
-      <c r="H12" s="23">
-        <v>15776000000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" s="39" t="s">
+        <v>15776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="39"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="23">
+        <v>-96064</v>
+      </c>
       <c r="D13" s="23">
-        <v>-96064000000</v>
+        <v>-120527</v>
       </c>
       <c r="E13" s="23">
-        <v>-120527000000</v>
+        <v>-143244</v>
       </c>
       <c r="F13" s="23">
-        <v>-143244000000</v>
+        <v>-127682</v>
       </c>
       <c r="G13" s="23">
-        <v>-127682000000</v>
-      </c>
-      <c r="H13" s="23">
-        <v>-108642000000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="28"/>
-      <c r="C14" s="21" t="s">
+        <v>-108642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="21" t="s">
         <v>17</v>
+      </c>
+      <c r="C14" s="22">
+        <f>C11+SUM(C12:C13)</f>
+        <v>7676722</v>
       </c>
       <c r="D14" s="22">
         <f>D11+SUM(D12:D13)</f>
-        <v>7676722000000</v>
+        <v>7829490</v>
       </c>
       <c r="E14" s="22">
         <f>E11+SUM(E12:E13)</f>
-        <v>7829490000000</v>
+        <v>8571885</v>
       </c>
       <c r="F14" s="22">
         <f>F11+SUM(F12:F13)</f>
-        <v>8571885000000</v>
+        <v>9371661</v>
       </c>
       <c r="G14" s="22">
         <f>G11+SUM(G12:G13)</f>
-        <v>9371661000000</v>
-      </c>
-      <c r="H14" s="22">
-        <f>H11+SUM(H12:H13)</f>
-        <v>12185764000000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="39" t="s">
+        <v>12185764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="23">
+        <v>-1938199</v>
+      </c>
       <c r="D15" s="23">
-        <v>-1938199000000</v>
+        <v>-1977685</v>
       </c>
       <c r="E15" s="23">
-        <v>-1977685000000</v>
+        <v>-2181213</v>
       </c>
       <c r="F15" s="23">
-        <v>-2181213000000</v>
+        <v>-2367099</v>
       </c>
       <c r="G15" s="23">
-        <v>-2367099000000</v>
-      </c>
-      <c r="H15" s="23">
-        <v>-3076319000000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="29"/>
-      <c r="C16" s="30" t="s">
+        <v>-3076319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30" t="s">
         <v>19</v>
+      </c>
+      <c r="C16" s="31">
+        <f>C14+C15</f>
+        <v>5738523</v>
       </c>
       <c r="D16" s="31">
         <f>D14+D15</f>
-        <v>5738523000000</v>
+        <v>5851805</v>
       </c>
       <c r="E16" s="31">
         <f>E14+E15</f>
-        <v>5851805000000</v>
+        <v>6390672</v>
       </c>
       <c r="F16" s="31">
         <f>F14+F15</f>
-        <v>6390672000000</v>
+        <v>7004562</v>
       </c>
       <c r="G16" s="31">
         <f>G14+G15</f>
-        <v>7004562000000</v>
-      </c>
-      <c r="H16" s="31">
-        <f>H14+H15</f>
-        <v>9109445000000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="38" t="s">
+        <v>9109445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="38"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="39" t="s">
+      <c r="B17" s="97"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="39"/>
-    </row>
-    <row r="19" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C19" s="33" t="s">
+      <c r="B18" s="96"/>
+    </row>
+    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="33" t="s">
         <v>23</v>
       </c>
+      <c r="C19" s="23">
+        <v>0</v>
+      </c>
       <c r="D19" s="23">
-        <v>0</v>
+        <v>16775</v>
       </c>
       <c r="E19" s="23">
-        <v>16775000000</v>
+        <v>-577554</v>
       </c>
       <c r="F19" s="23">
-        <v>-577554000000</v>
+        <v>136981</v>
       </c>
       <c r="G19" s="23">
-        <v>136981000000</v>
-      </c>
-      <c r="H19" s="23">
-        <v>369000000000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C20" s="33" t="s">
+        <v>369000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="33" t="s">
         <v>24</v>
       </c>
+      <c r="C20" s="23">
+        <v>0</v>
+      </c>
       <c r="D20" s="23">
-        <v>0</v>
+        <v>-4194</v>
       </c>
       <c r="E20" s="23">
-        <v>-4194000000</v>
+        <v>144389</v>
       </c>
       <c r="F20" s="23">
-        <v>144389000000</v>
+        <v>-34223</v>
       </c>
       <c r="G20" s="23">
-        <v>-34223000000</v>
-      </c>
-      <c r="H20" s="23">
-        <v>-92250000000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="38" t="s">
+        <v>-92250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="38"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="22">
+        <f>C19+C20</f>
+        <v>0</v>
+      </c>
       <c r="D21" s="22">
         <f>D19+D20</f>
-        <v>0</v>
+        <v>12581</v>
       </c>
       <c r="E21" s="22">
-        <f>E19+E20</f>
-        <v>12581000000</v>
+        <f t="shared" ref="E21:F21" si="0">E19+E20</f>
+        <v>-433165</v>
       </c>
       <c r="F21" s="22">
-        <f t="shared" ref="F21:H21" si="0">F19+F20</f>
-        <v>-433165000000</v>
+        <f t="shared" si="0"/>
+        <v>102758</v>
       </c>
       <c r="G21" s="22">
-        <f t="shared" si="0"/>
-        <v>102758000000</v>
-      </c>
-      <c r="H21" s="22">
-        <f>H19+H20</f>
-        <v>276750000000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="38" t="s">
+        <f>G19+G20</f>
+        <v>276750</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="22">
+        <f>C16+C21</f>
+        <v>5738523</v>
+      </c>
       <c r="D22" s="22">
         <f>D16+D21</f>
-        <v>5738523000000</v>
+        <v>5864386</v>
       </c>
       <c r="E22" s="22">
-        <f>E16+E21</f>
-        <v>5864386000000</v>
+        <f t="shared" ref="E22:G22" si="1">E16+E21</f>
+        <v>5957507</v>
       </c>
       <c r="F22" s="22">
-        <f t="shared" ref="F22:H22" si="1">F16+F21</f>
-        <v>5957507000000</v>
+        <f t="shared" si="1"/>
+        <v>7107320</v>
       </c>
       <c r="G22" s="22">
         <f t="shared" si="1"/>
-        <v>7107320000000</v>
-      </c>
-      <c r="H22" s="22">
-        <f t="shared" si="1"/>
-        <v>9386195000000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="37" t="s">
+        <v>9386195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="37"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="23">
+        <v>0</v>
+      </c>
       <c r="D23" s="23">
         <v>0</v>
       </c>
@@ -2277,391 +2463,391 @@
         <v>0</v>
       </c>
       <c r="F23" s="23">
-        <v>0</v>
+        <v>10149844</v>
       </c>
       <c r="G23" s="23">
-        <v>10149844</v>
-      </c>
-      <c r="H23" s="23">
         <v>13055881</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="38" t="s">
+    <row r="24" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="38"/>
-    </row>
-    <row r="25" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C25" s="33" t="s">
+      <c r="B24" s="97"/>
+    </row>
+    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="33" t="s">
         <v>28</v>
       </c>
+      <c r="C25" s="22">
+        <v>752</v>
+      </c>
       <c r="D25" s="22">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="E25" s="22">
-        <v>766</v>
+        <v>838</v>
       </c>
       <c r="F25" s="22">
-        <v>838</v>
+        <v>918</v>
       </c>
       <c r="G25" s="22">
-        <v>918</v>
-      </c>
-      <c r="H25" s="22">
         <v>1194</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="2:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="17" t="s">
+    </row>
+    <row r="29" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="s">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26" t="s">
+        <v>2</v>
+      </c>
       <c r="D31" s="26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="39" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="39"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="23">
+        <v>434747101600</v>
+      </c>
       <c r="D32" s="23">
-        <v>434747101600</v>
+        <v>428092732505</v>
       </c>
       <c r="E32" s="23">
-        <v>428092732505</v>
+        <v>344361345265</v>
       </c>
       <c r="F32" s="23">
-        <v>344361345265</v>
+        <v>344678666245</v>
       </c>
       <c r="G32" s="23">
-        <v>344678666245</v>
-      </c>
-      <c r="H32" s="23">
         <v>300572751733</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="39" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="39"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="23">
+        <v>-187750245429</v>
+      </c>
       <c r="D33" s="23">
-        <v>-187750245429</v>
+        <v>-181547126367</v>
       </c>
       <c r="E33" s="23">
-        <v>-181547126367</v>
+        <v>-142263034669</v>
       </c>
       <c r="F33" s="23">
-        <v>-142263034669</v>
+        <v>-145109272647</v>
       </c>
       <c r="G33" s="23">
-        <v>-145109272647</v>
-      </c>
-      <c r="H33" s="23">
         <v>-126237236215</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="28"/>
-      <c r="C34" s="21" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="28"/>
+      <c r="B34" s="21" t="s">
         <v>11</v>
+      </c>
+      <c r="C34" s="22">
+        <f>C32+C33</f>
+        <v>246996856171</v>
       </c>
       <c r="D34" s="22">
         <f>D32+D33</f>
-        <v>246996856171</v>
+        <v>246545606138</v>
       </c>
       <c r="E34" s="22">
         <f>E32+E33</f>
-        <v>246545606138</v>
+        <v>202098310596</v>
       </c>
       <c r="F34" s="22">
         <f>F32+F33</f>
-        <v>202098310596</v>
+        <v>199569393598</v>
       </c>
       <c r="G34" s="22">
         <f>G32+G33</f>
-        <v>199569393598</v>
-      </c>
-      <c r="H34" s="22">
-        <f>H32+H33</f>
         <v>174335515518</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="39" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="39"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="23">
+        <v>-187666642049</v>
+      </c>
       <c r="D35" s="23">
-        <v>-187666642049</v>
+        <v>-190379660433</v>
       </c>
       <c r="E35" s="23">
-        <v>-190379660433</v>
+        <v>-154870187331</v>
       </c>
       <c r="F35" s="23">
-        <v>-154870187331</v>
+        <v>-149895559375</v>
       </c>
       <c r="G35" s="23">
-        <v>-149895559375</v>
-      </c>
-      <c r="H35" s="23">
         <v>-121854966846</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="39" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="39"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="23">
+        <v>-41469242951</v>
+      </c>
       <c r="D36" s="23">
-        <v>-41469242951</v>
+        <v>-46045824750</v>
       </c>
       <c r="E36" s="23">
-        <v>-46045824750</v>
+        <v>-45750235747</v>
       </c>
       <c r="F36" s="23">
-        <v>-45750235747</v>
+        <v>-43984434952</v>
       </c>
       <c r="G36" s="23">
-        <v>-43984434952</v>
-      </c>
-      <c r="H36" s="23">
         <v>-43793006242</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="39" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="23">
+      <c r="B37" s="96"/>
+      <c r="C37" s="23">
         <f>-648323373-5475379430</f>
         <v>-6123702803</v>
       </c>
-      <c r="E37" s="23">
+      <c r="D37" s="23">
         <f>-266342637-4615022538</f>
         <v>-4881365175</v>
       </c>
-      <c r="F37" s="23">
+      <c r="E37" s="23">
         <f>-1309954850-167759452</f>
         <v>-1477714302</v>
       </c>
-      <c r="G37" s="23">
+      <c r="F37" s="23">
         <f>1834023590-3878361119</f>
         <v>-2044337529</v>
       </c>
-      <c r="H37" s="23">
+      <c r="G37" s="23">
         <f>2293299533-3391029312</f>
         <v>-1097729779</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="28"/>
-      <c r="C38" s="21" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="28"/>
+      <c r="B38" s="21" t="s">
         <v>14</v>
+      </c>
+      <c r="C38" s="22">
+        <f>C34+C35+C36+C37</f>
+        <v>11737268368</v>
       </c>
       <c r="D38" s="22">
         <f>D34+D35+D36+D37</f>
-        <v>11737268368</v>
+        <v>5238755780</v>
       </c>
       <c r="E38" s="22">
         <f>E34+E35+E36+E37</f>
-        <v>5238755780</v>
+        <v>173216</v>
       </c>
       <c r="F38" s="22">
         <f>F34+F35+F36+F37</f>
-        <v>173216</v>
+        <v>3645061742</v>
       </c>
       <c r="G38" s="22">
         <f>G34+G35+G36+G37</f>
-        <v>3645061742</v>
-      </c>
-      <c r="H38" s="22">
-        <f>H34+H35+H36+H37</f>
         <v>7589812651</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="39" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="39"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="23">
+        <v>991753907</v>
+      </c>
       <c r="D39" s="23">
-        <v>991753907</v>
+        <v>682631942</v>
       </c>
       <c r="E39" s="23">
-        <v>682631942</v>
+        <v>664733259</v>
       </c>
       <c r="F39" s="23">
-        <v>664733259</v>
+        <v>-5568603458</v>
       </c>
       <c r="G39" s="23">
-        <v>-5568603458</v>
-      </c>
-      <c r="H39" s="23">
         <v>-6507057142</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="39" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="39"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="23">
+        <v>-2688038171</v>
+      </c>
       <c r="D40" s="23">
-        <v>-2688038171</v>
+        <v>-3665411293</v>
       </c>
       <c r="E40" s="23">
-        <v>-3665411293</v>
+        <v>-4747208360</v>
       </c>
       <c r="F40" s="23">
-        <v>-4747208360</v>
+        <v>567970732</v>
       </c>
       <c r="G40" s="23">
-        <v>567970732</v>
-      </c>
-      <c r="H40" s="23">
         <v>794345026</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="28"/>
-      <c r="C41" s="21" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="28"/>
+      <c r="B41" s="21" t="s">
         <v>17</v>
+      </c>
+      <c r="C41" s="22">
+        <f>C38+C39+C40</f>
+        <v>10040984104</v>
       </c>
       <c r="D41" s="22">
         <f>D38+D39+D40</f>
-        <v>10040984104</v>
+        <v>2255976429</v>
       </c>
       <c r="E41" s="22">
-        <f>E38+E39+E40</f>
-        <v>2255976429</v>
+        <f>E38+(E39+E40)</f>
+        <v>-4082301885</v>
       </c>
       <c r="F41" s="22">
-        <f>F38+(F39+F40)</f>
-        <v>-4082301885</v>
+        <f>F38+F39+F40</f>
+        <v>-1355570984</v>
       </c>
       <c r="G41" s="22">
         <f>G38+G39+G40</f>
-        <v>-1355570984</v>
-      </c>
-      <c r="H41" s="22">
-        <f>H38+H39+H40</f>
         <v>1877100535</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="39" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="39"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="23">
+        <v>-2669010262</v>
+      </c>
       <c r="D42" s="23">
-        <v>-2669010262</v>
+        <v>-1209986118</v>
       </c>
       <c r="E42" s="23">
-        <v>-1209986118</v>
+        <v>-1467163793</v>
       </c>
       <c r="F42" s="23">
-        <v>-1467163793</v>
+        <v>72238875</v>
       </c>
       <c r="G42" s="23">
-        <v>72238875</v>
-      </c>
-      <c r="H42" s="23">
         <v>-4133577032</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="29"/>
-      <c r="C43" s="30" t="s">
+    <row r="43" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30" t="s">
         <v>19</v>
+      </c>
+      <c r="C43" s="31">
+        <f>C41+C42</f>
+        <v>7371973842</v>
       </c>
       <c r="D43" s="31">
         <f>D41+D42</f>
-        <v>7371973842</v>
+        <v>1045990311</v>
       </c>
       <c r="E43" s="31">
         <f>E41+E42</f>
-        <v>1045990311</v>
+        <v>-5549465678</v>
       </c>
       <c r="F43" s="31">
         <f>F41+F42</f>
-        <v>-5549465678</v>
+        <v>-1283332109</v>
       </c>
       <c r="G43" s="31">
         <f>G41+G42</f>
-        <v>-1283332109</v>
-      </c>
-      <c r="H43" s="31">
-        <f>H41+H42</f>
         <v>-2256476497</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="38" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="38"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="39" t="s">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="39"/>
-    </row>
-    <row r="46" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C46" s="33" t="s">
+      <c r="B45" s="96"/>
+    </row>
+    <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B46" s="33" t="s">
         <v>23</v>
       </c>
+      <c r="C46" s="23">
+        <v>0</v>
+      </c>
       <c r="D46" s="23">
         <v>0</v>
       </c>
@@ -2674,14 +2860,14 @@
       <c r="G46" s="23">
         <v>0</v>
       </c>
-      <c r="H46" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C47" s="33" t="s">
+    </row>
+    <row r="47" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B47" s="33" t="s">
         <v>24</v>
       </c>
+      <c r="C47" s="23">
+        <v>0</v>
+      </c>
       <c r="D47" s="23">
         <v>0</v>
       </c>
@@ -2694,67 +2880,67 @@
       <c r="G47" s="23">
         <v>0</v>
       </c>
-      <c r="H47" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="38" t="s">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="38"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="22">
+        <f>C46+C47</f>
+        <v>0</v>
+      </c>
       <c r="D48" s="22">
         <f>D46+D47</f>
         <v>0</v>
       </c>
       <c r="E48" s="22">
-        <f>E46+E47</f>
+        <f t="shared" ref="E48:G48" si="2">E46+E47</f>
         <v>0</v>
       </c>
       <c r="F48" s="22">
-        <f t="shared" ref="F48:H48" si="2">F46+F47</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G48" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H48" s="22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="38" t="s">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="38"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="22">
+        <f>C43+C48</f>
+        <v>7371973842</v>
+      </c>
       <c r="D49" s="22">
         <f>D43+D48</f>
-        <v>7371973842</v>
+        <v>1045990311</v>
       </c>
       <c r="E49" s="22">
-        <f>E43+E48</f>
-        <v>1045990311</v>
+        <f t="shared" ref="E49:G49" si="3">E43+E48</f>
+        <v>-5549465678</v>
       </c>
       <c r="F49" s="22">
-        <f t="shared" ref="F49:H49" si="3">F43+F48</f>
-        <v>-5549465678</v>
+        <f t="shared" si="3"/>
+        <v>-1283332109</v>
       </c>
       <c r="G49" s="22">
         <f t="shared" si="3"/>
-        <v>-1283332109</v>
-      </c>
-      <c r="H49" s="22">
-        <f t="shared" si="3"/>
         <v>-2256476497</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="37" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="37"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="23">
+        <v>0</v>
+      </c>
       <c r="D50" s="23">
         <v>0</v>
       </c>
@@ -2767,381 +2953,381 @@
       <c r="G50" s="23">
         <v>0</v>
       </c>
-      <c r="H50" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B51" s="38" t="s">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C51" s="38"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="22">
+        <v>17</v>
+      </c>
       <c r="D51" s="22">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E51" s="22">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="F51" s="22">
-        <v>-13</v>
+        <v>-3</v>
       </c>
       <c r="G51" s="22">
-        <v>-3</v>
-      </c>
-      <c r="H51" s="22">
         <v>-527</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B54" s="17" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
       <c r="D54" s="19"/>
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="17" t="s">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B56" s="20" t="s">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="24"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26" t="s">
+        <v>2</v>
+      </c>
       <c r="D57" s="26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G57" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H57" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B58" s="39" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="39"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="23">
+        <v>434747101600</v>
+      </c>
       <c r="D58" s="23">
-        <v>434747101600</v>
+        <v>428092732505</v>
       </c>
       <c r="E58" s="23">
-        <v>428092732505</v>
+        <v>344361345265</v>
       </c>
       <c r="F58" s="23">
-        <v>344361345265</v>
+        <v>344678666245</v>
       </c>
       <c r="G58" s="23">
-        <v>344678666245</v>
-      </c>
-      <c r="H58" s="23">
         <v>300572751733</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B59" s="39" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="39"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="23">
+        <v>-187750245429</v>
+      </c>
       <c r="D59" s="23">
-        <v>-187750245429</v>
+        <v>-181547126367</v>
       </c>
       <c r="E59" s="23">
-        <v>-181547126367</v>
+        <v>-142263034669</v>
       </c>
       <c r="F59" s="23">
-        <v>-142263034669</v>
+        <v>-145109272647</v>
       </c>
       <c r="G59" s="23">
-        <v>-145109272647</v>
-      </c>
-      <c r="H59" s="23">
         <v>-126237236215</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B60" s="28"/>
-      <c r="C60" s="21" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="28"/>
+      <c r="B60" s="21" t="s">
         <v>11</v>
+      </c>
+      <c r="C60" s="22">
+        <f>C58+C59</f>
+        <v>246996856171</v>
       </c>
       <c r="D60" s="22">
         <f>D58+D59</f>
-        <v>246996856171</v>
+        <v>246545606138</v>
       </c>
       <c r="E60" s="22">
         <f>E58+E59</f>
-        <v>246545606138</v>
+        <v>202098310596</v>
       </c>
       <c r="F60" s="22">
         <f>F58+F59</f>
-        <v>202098310596</v>
+        <v>199569393598</v>
       </c>
       <c r="G60" s="22">
         <f>G58+G59</f>
-        <v>199569393598</v>
-      </c>
-      <c r="H60" s="22">
-        <f>H58+H59</f>
         <v>174335515518</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B61" s="39" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="39"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="23">
+        <v>-187666642049</v>
+      </c>
       <c r="D61" s="23">
-        <v>-187666642049</v>
+        <v>-190379660433</v>
       </c>
       <c r="E61" s="23">
-        <v>-190379660433</v>
+        <v>-154870187331</v>
       </c>
       <c r="F61" s="23">
-        <v>-154870187331</v>
+        <v>-149895559375</v>
       </c>
       <c r="G61" s="23">
-        <v>-149895559375</v>
-      </c>
-      <c r="H61" s="23">
         <v>-121854966846</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B62" s="39" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="39"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="23">
+        <v>-41469242951</v>
+      </c>
       <c r="D62" s="23">
-        <v>-41469242951</v>
+        <v>-46045824750</v>
       </c>
       <c r="E62" s="23">
-        <v>-46045824750</v>
+        <v>-45750235747</v>
       </c>
       <c r="F62" s="23">
-        <v>-45750235747</v>
+        <v>-43984434952</v>
       </c>
       <c r="G62" s="23">
-        <v>-43984434952</v>
-      </c>
-      <c r="H62" s="23">
         <v>-43793006242</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B63" s="39" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="39"/>
-      <c r="D63" s="23">
+      <c r="B63" s="96"/>
+      <c r="C63" s="23">
         <f>-648323373-5475379430</f>
         <v>-6123702803</v>
       </c>
-      <c r="E63" s="23">
+      <c r="D63" s="23">
         <f>-266342637-4615022538</f>
         <v>-4881365175</v>
       </c>
-      <c r="F63" s="23">
+      <c r="E63" s="23">
         <f>-1309954850-167759452</f>
         <v>-1477714302</v>
       </c>
-      <c r="G63" s="23">
+      <c r="F63" s="23">
         <f>1834023590-3878361119</f>
         <v>-2044337529</v>
       </c>
-      <c r="H63" s="23">
+      <c r="G63" s="23">
         <f>2293299533-3391029312</f>
         <v>-1097729779</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B64" s="28"/>
-      <c r="C64" s="21" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="28"/>
+      <c r="B64" s="21" t="s">
         <v>14</v>
+      </c>
+      <c r="C64" s="22">
+        <f>C60+C61+C62+C63</f>
+        <v>11737268368</v>
       </c>
       <c r="D64" s="22">
         <f>D60+D61+D62+D63</f>
-        <v>11737268368</v>
+        <v>5238755780</v>
       </c>
       <c r="E64" s="22">
         <f>E60+E61+E62+E63</f>
-        <v>5238755780</v>
+        <v>173216</v>
       </c>
       <c r="F64" s="22">
         <f>F60+F61+F62+F63</f>
-        <v>173216</v>
+        <v>3645061742</v>
       </c>
       <c r="G64" s="22">
         <f>G60+G61+G62+G63</f>
-        <v>3645061742</v>
-      </c>
-      <c r="H64" s="22">
-        <f>H60+H61+H62+H63</f>
         <v>7589812651</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B65" s="39" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="39"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="23">
+        <v>991753907</v>
+      </c>
       <c r="D65" s="23">
-        <v>991753907</v>
+        <v>682631942</v>
       </c>
       <c r="E65" s="23">
-        <v>682631942</v>
+        <v>664733259</v>
       </c>
       <c r="F65" s="23">
-        <v>664733259</v>
+        <v>-5568603458</v>
       </c>
       <c r="G65" s="23">
-        <v>-5568603458</v>
-      </c>
-      <c r="H65" s="23">
         <v>-6507057142</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B66" s="39" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="39"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="23">
+        <v>-2688038171</v>
+      </c>
       <c r="D66" s="23">
-        <v>-2688038171</v>
+        <v>-3665411293</v>
       </c>
       <c r="E66" s="23">
-        <v>-3665411293</v>
+        <v>-4747208360</v>
       </c>
       <c r="F66" s="23">
-        <v>-4747208360</v>
+        <v>567970732</v>
       </c>
       <c r="G66" s="23">
-        <v>567970732</v>
-      </c>
-      <c r="H66" s="23">
         <v>794345026</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B67" s="28"/>
-      <c r="C67" s="21" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="28"/>
+      <c r="B67" s="21" t="s">
         <v>17</v>
+      </c>
+      <c r="C67" s="22">
+        <f>C64+C65+C66</f>
+        <v>10040984104</v>
       </c>
       <c r="D67" s="22">
         <f>D64+D65+D66</f>
-        <v>10040984104</v>
+        <v>2255976429</v>
       </c>
       <c r="E67" s="22">
-        <f>E64+E65+E66</f>
-        <v>2255976429</v>
+        <f>E64+(E65+E66)</f>
+        <v>-4082301885</v>
       </c>
       <c r="F67" s="22">
-        <f>F64+(F65+F66)</f>
-        <v>-4082301885</v>
+        <f>F64+F65+F66</f>
+        <v>-1355570984</v>
       </c>
       <c r="G67" s="22">
         <f>G64+G65+G66</f>
-        <v>-1355570984</v>
-      </c>
-      <c r="H67" s="22">
-        <f>H64+H65+H66</f>
         <v>1877100535</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B68" s="39" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="39"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="23">
+        <v>-2669010262</v>
+      </c>
       <c r="D68" s="23">
-        <v>-2669010262</v>
+        <v>-1209986118</v>
       </c>
       <c r="E68" s="23">
-        <v>-1209986118</v>
+        <v>-1467163793</v>
       </c>
       <c r="F68" s="23">
-        <v>-1467163793</v>
+        <v>72238875</v>
       </c>
       <c r="G68" s="23">
-        <v>72238875</v>
-      </c>
-      <c r="H68" s="23">
         <v>-4133577032</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B69" s="29"/>
-      <c r="C69" s="30" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="29"/>
+      <c r="B69" s="30" t="s">
         <v>19</v>
+      </c>
+      <c r="C69" s="31">
+        <f>C67+C68</f>
+        <v>7371973842</v>
       </c>
       <c r="D69" s="31">
         <f>D67+D68</f>
-        <v>7371973842</v>
+        <v>1045990311</v>
       </c>
       <c r="E69" s="31">
         <f>E67+E68</f>
-        <v>1045990311</v>
+        <v>-5549465678</v>
       </c>
       <c r="F69" s="31">
         <f>F67+F68</f>
-        <v>-5549465678</v>
+        <v>-1283332109</v>
       </c>
       <c r="G69" s="31">
         <f>G67+G68</f>
-        <v>-1283332109</v>
-      </c>
-      <c r="H69" s="31">
-        <f>H67+H68</f>
         <v>-2256476497</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B70" s="38" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="38"/>
+      <c r="B70" s="97"/>
+      <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B71" s="39" t="s">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="39"/>
-    </row>
-    <row r="72" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C72" s="33" t="s">
+      <c r="B71" s="96"/>
+    </row>
+    <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B72" s="33" t="s">
         <v>23</v>
       </c>
+      <c r="C72" s="23">
+        <v>0</v>
+      </c>
       <c r="D72" s="23">
         <v>0</v>
       </c>
@@ -3154,14 +3340,14 @@
       <c r="G72" s="23">
         <v>0</v>
       </c>
-      <c r="H72" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C73" s="33" t="s">
+    </row>
+    <row r="73" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B73" s="33" t="s">
         <v>24</v>
       </c>
+      <c r="C73" s="23">
+        <v>0</v>
+      </c>
       <c r="D73" s="23">
         <v>0</v>
       </c>
@@ -3174,67 +3360,67 @@
       <c r="G73" s="23">
         <v>0</v>
       </c>
-      <c r="H73" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B74" s="38" t="s">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C74" s="38"/>
+      <c r="B74" s="97"/>
+      <c r="C74" s="22">
+        <f>C72+C73</f>
+        <v>0</v>
+      </c>
       <c r="D74" s="22">
         <f>D72+D73</f>
         <v>0</v>
       </c>
       <c r="E74" s="22">
-        <f>E72+E73</f>
+        <f t="shared" ref="E74:G74" si="4">E72+E73</f>
         <v>0</v>
       </c>
       <c r="F74" s="22">
-        <f t="shared" ref="F74:H74" si="4">F72+F73</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G74" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H74" s="22">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B75" s="38" t="s">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C75" s="38"/>
+      <c r="B75" s="97"/>
+      <c r="C75" s="22">
+        <f>C69+C74</f>
+        <v>7371973842</v>
+      </c>
       <c r="D75" s="22">
         <f>D69+D74</f>
-        <v>7371973842</v>
+        <v>1045990311</v>
       </c>
       <c r="E75" s="22">
-        <f>E69+E74</f>
-        <v>1045990311</v>
+        <f t="shared" ref="E75:G75" si="5">E69+E74</f>
+        <v>-5549465678</v>
       </c>
       <c r="F75" s="22">
-        <f t="shared" ref="F75:H75" si="5">F69+F74</f>
-        <v>-5549465678</v>
+        <f t="shared" si="5"/>
+        <v>-1283332109</v>
       </c>
       <c r="G75" s="22">
         <f t="shared" si="5"/>
-        <v>-1283332109</v>
-      </c>
-      <c r="H75" s="22">
-        <f t="shared" si="5"/>
         <v>-2256476497</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B76" s="37" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C76" s="37"/>
+      <c r="B76" s="98"/>
+      <c r="C76" s="23">
+        <v>0</v>
+      </c>
       <c r="D76" s="23">
         <v>0</v>
       </c>
@@ -3247,198 +3433,198 @@
       <c r="G76" s="23">
         <v>0</v>
       </c>
-      <c r="H76" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B77" s="38" t="s">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C77" s="38"/>
+      <c r="B77" s="97"/>
+      <c r="C77" s="22">
+        <v>17</v>
+      </c>
       <c r="D77" s="22">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E77" s="22">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="F77" s="22">
-        <v>-13</v>
+        <v>-3</v>
       </c>
       <c r="G77" s="22">
-        <v>-3</v>
-      </c>
-      <c r="H77" s="22">
         <v>-527</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B80" s="17" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="19"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B81" s="17" t="s">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19"/>
       <c r="D81" s="19"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B82" s="20" t="s">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="22"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B83" s="24"/>
-      <c r="C83" s="25"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="24"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="26" t="s">
+        <v>2</v>
+      </c>
       <c r="D83" s="26" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G83" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" s="39" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="39"/>
+      <c r="B84" s="96"/>
+      <c r="C84" s="23">
+        <v>2308203551971</v>
+      </c>
       <c r="D84" s="23">
-        <v>2308203551971</v>
+        <v>2314889854074</v>
       </c>
       <c r="E84" s="23">
-        <v>2314889854074</v>
+        <v>2526776164168</v>
       </c>
       <c r="F84" s="23">
-        <v>2526776164168</v>
+        <v>2706394847919</v>
       </c>
       <c r="G84" s="23">
-        <v>2706394847919</v>
-      </c>
-      <c r="H84" s="23">
         <v>2648754344347</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B85" s="39" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="39"/>
+      <c r="B85" s="96"/>
+      <c r="C85" s="23">
+        <v>-1411934917918</v>
+      </c>
       <c r="D85" s="23">
-        <v>-1411934917918</v>
+        <v>-1436977751396</v>
       </c>
       <c r="E85" s="23">
-        <v>-1436977751396</v>
+        <v>-1543337042469</v>
       </c>
       <c r="F85" s="23">
-        <v>-1543337042469</v>
+        <v>-1699417758295</v>
       </c>
       <c r="G85" s="23">
-        <v>-1699417758295</v>
-      </c>
-      <c r="H85" s="23">
         <v>-1685791739001</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B86" s="28"/>
-      <c r="C86" s="21" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="28"/>
+      <c r="B86" s="21" t="s">
         <v>11</v>
+      </c>
+      <c r="C86" s="22">
+        <f>C84+C85</f>
+        <v>896268634053</v>
       </c>
       <c r="D86" s="22">
         <f>D84+D85</f>
-        <v>896268634053</v>
+        <v>877912102678</v>
       </c>
       <c r="E86" s="22">
         <f>E84+E85</f>
-        <v>877912102678</v>
+        <v>983439121699</v>
       </c>
       <c r="F86" s="22">
         <f>F84+F85</f>
-        <v>983439121699</v>
+        <v>1006977089624</v>
       </c>
       <c r="G86" s="22">
         <f>G84+G85</f>
-        <v>1006977089624</v>
-      </c>
-      <c r="H86" s="22">
-        <f>H84+H85</f>
         <v>962962605346</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B87" s="39" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="39"/>
+      <c r="B87" s="96"/>
+      <c r="C87" s="23">
+        <v>-488014707377</v>
+      </c>
       <c r="D87" s="23">
-        <v>-488014707377</v>
+        <v>-486983280575</v>
       </c>
       <c r="E87" s="23">
-        <v>-486983280575</v>
+        <v>-557095829636</v>
       </c>
       <c r="F87" s="23">
-        <v>-557095829636</v>
+        <v>-568987731498</v>
       </c>
       <c r="G87" s="23">
-        <v>-568987731498</v>
-      </c>
-      <c r="H87" s="23">
         <v>-548089824378</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B88" s="39" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C88" s="39"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="23">
+        <v>-153757471107</v>
+      </c>
       <c r="D88" s="23">
-        <v>-153757471107</v>
+        <v>-172248605835</v>
       </c>
       <c r="E88" s="23">
-        <v>-172248605835</v>
+        <v>-190489640668</v>
       </c>
       <c r="F88" s="23">
-        <v>-190489640668</v>
+        <v>-212668813623</v>
       </c>
       <c r="G88" s="23">
-        <v>-212668813623</v>
-      </c>
-      <c r="H88" s="23">
         <v>-229749812470</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B89" s="39" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C89" s="39"/>
+      <c r="B89" s="96"/>
+      <c r="C89" s="23">
+        <v>0</v>
+      </c>
       <c r="D89" s="23">
         <v>0</v>
       </c>
@@ -3451,64 +3637,64 @@
       <c r="G89" s="23">
         <v>0</v>
       </c>
-      <c r="H89" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B90" s="28"/>
-      <c r="C90" s="21" t="s">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="28"/>
+      <c r="B90" s="21" t="s">
         <v>14</v>
+      </c>
+      <c r="C90" s="22">
+        <f>C86+C87+C88+C89</f>
+        <v>254496455569</v>
       </c>
       <c r="D90" s="22">
         <f>D86+D87+D88+D89</f>
-        <v>254496455569</v>
+        <v>218680216268</v>
       </c>
       <c r="E90" s="22">
         <f>E86+E87+E88+E89</f>
-        <v>218680216268</v>
+        <v>235853651395</v>
       </c>
       <c r="F90" s="22">
         <f>F86+F87+F88+F89</f>
-        <v>235853651395</v>
+        <v>225320544503</v>
       </c>
       <c r="G90" s="22">
         <f>G86+G87+G88+G89</f>
-        <v>225320544503</v>
-      </c>
-      <c r="H90" s="22">
-        <f>H86+H87+H88+H89</f>
         <v>185122968498</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B91" s="39" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="39"/>
+      <c r="B91" s="96"/>
+      <c r="C91" s="23">
+        <v>0</v>
+      </c>
       <c r="D91" s="23">
-        <v>0</v>
+        <v>364441731226</v>
       </c>
       <c r="E91" s="23">
-        <v>364441731226</v>
+        <v>-14377793752</v>
       </c>
       <c r="F91" s="23">
-        <v>-14377793752</v>
+        <v>17762501284</v>
       </c>
       <c r="G91" s="23">
-        <v>17762501284</v>
-      </c>
-      <c r="H91" s="23">
         <v>49502986166</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B92" s="39" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="39"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="23">
+        <v>-15067625957</v>
+      </c>
       <c r="D92" s="23">
-        <v>-15067625957</v>
+        <v>0</v>
       </c>
       <c r="E92" s="23">
         <v>0</v>
@@ -3519,104 +3705,104 @@
       <c r="G92" s="23">
         <v>0</v>
       </c>
-      <c r="H92" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B93" s="28"/>
-      <c r="C93" s="21" t="s">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="28"/>
+      <c r="B93" s="21" t="s">
         <v>17</v>
+      </c>
+      <c r="C93" s="22">
+        <f>C90+C91+C92</f>
+        <v>239428829612</v>
       </c>
       <c r="D93" s="22">
         <f>D90+D91+D92</f>
-        <v>239428829612</v>
+        <v>583121947494</v>
       </c>
       <c r="E93" s="22">
-        <f>E90+E91+E92</f>
-        <v>583121947494</v>
+        <f>E90+(E91+E92)</f>
+        <v>221475857643</v>
       </c>
       <c r="F93" s="22">
-        <f>F90+(F91+F92)</f>
-        <v>221475857643</v>
+        <f>F90+F91</f>
+        <v>243083045787</v>
       </c>
       <c r="G93" s="22">
-        <f>G90+G91</f>
-        <v>243083045787</v>
-      </c>
-      <c r="H93" s="22">
-        <f>H90+H91+H92</f>
+        <f>G90+G91+G92</f>
         <v>234625954664</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B94" s="39" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="39"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="23">
+        <v>-65114435511</v>
+      </c>
       <c r="D94" s="23">
-        <v>-65114435511</v>
+        <v>-38647669480</v>
       </c>
       <c r="E94" s="23">
-        <v>-38647669480</v>
+        <v>-59416261296</v>
       </c>
       <c r="F94" s="23">
-        <v>-59416261296</v>
+        <v>-63956663719</v>
       </c>
       <c r="G94" s="23">
-        <v>-63956663719</v>
-      </c>
-      <c r="H94" s="23">
         <v>-61576511908</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B95" s="29"/>
-      <c r="C95" s="30" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="29"/>
+      <c r="B95" s="30" t="s">
         <v>19</v>
+      </c>
+      <c r="C95" s="31">
+        <f>C93+C94</f>
+        <v>174314394101</v>
       </c>
       <c r="D95" s="31">
         <f>D93+D94</f>
-        <v>174314394101</v>
+        <v>544474278014</v>
       </c>
       <c r="E95" s="31">
         <f>E93+E94</f>
-        <v>544474278014</v>
+        <v>162059596347</v>
       </c>
       <c r="F95" s="31">
         <f>F93+F94</f>
-        <v>162059596347</v>
+        <v>179126382068</v>
       </c>
       <c r="G95" s="31">
         <f>G93+G94</f>
-        <v>179126382068</v>
-      </c>
-      <c r="H95" s="31">
-        <f>H93+H94</f>
         <v>173049442756</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B96" s="38" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C96" s="38"/>
+      <c r="B96" s="97"/>
+      <c r="C96" s="22"/>
       <c r="D96" s="22"/>
       <c r="E96" s="22"/>
       <c r="F96" s="22"/>
       <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B97" s="39" t="s">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="39"/>
-    </row>
-    <row r="98" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C98" s="33" t="s">
+      <c r="B97" s="96"/>
+    </row>
+    <row r="98" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B98" s="33" t="s">
         <v>23</v>
       </c>
+      <c r="C98" s="23">
+        <v>0</v>
+      </c>
       <c r="D98" s="23">
         <v>0</v>
       </c>
@@ -3629,14 +3815,14 @@
       <c r="G98" s="23">
         <v>0</v>
       </c>
-      <c r="H98" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="C99" s="33" t="s">
+    </row>
+    <row r="99" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B99" s="33" t="s">
         <v>24</v>
       </c>
+      <c r="C99" s="23">
+        <v>0</v>
+      </c>
       <c r="D99" s="23">
         <v>0</v>
       </c>
@@ -3649,67 +3835,67 @@
       <c r="G99" s="23">
         <v>0</v>
       </c>
-      <c r="H99" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B100" s="38" t="s">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C100" s="38"/>
+      <c r="B100" s="97"/>
+      <c r="C100" s="22">
+        <f>C98+C99</f>
+        <v>0</v>
+      </c>
       <c r="D100" s="22">
         <f>D98+D99</f>
         <v>0</v>
       </c>
       <c r="E100" s="22">
-        <f>E98+E99</f>
+        <f t="shared" ref="E100:G100" si="6">E98+E99</f>
         <v>0</v>
       </c>
       <c r="F100" s="22">
-        <f t="shared" ref="F100:H100" si="6">F98+F99</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G100" s="22">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H100" s="22">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B101" s="38" t="s">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C101" s="38"/>
+      <c r="B101" s="97"/>
+      <c r="C101" s="22">
+        <f>C95+C100</f>
+        <v>174314394101</v>
+      </c>
       <c r="D101" s="22">
         <f>D95+D100</f>
-        <v>174314394101</v>
+        <v>544474278014</v>
       </c>
       <c r="E101" s="22">
-        <f>E95+E100</f>
-        <v>544474278014</v>
+        <f t="shared" ref="E101:G101" si="7">E95+E100</f>
+        <v>162059596347</v>
       </c>
       <c r="F101" s="22">
-        <f t="shared" ref="F101:H101" si="7">F95+F100</f>
-        <v>162059596347</v>
+        <f t="shared" si="7"/>
+        <v>179126382068</v>
       </c>
       <c r="G101" s="22">
         <f t="shared" si="7"/>
-        <v>179126382068</v>
-      </c>
-      <c r="H101" s="22">
-        <f t="shared" si="7"/>
         <v>173049442756</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B102" s="37" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="C102" s="37"/>
+      <c r="B102" s="98"/>
+      <c r="C102" s="23">
+        <v>0</v>
+      </c>
       <c r="D102" s="23">
         <v>0</v>
       </c>
@@ -3722,89 +3908,86 @@
       <c r="G102" s="23">
         <v>0</v>
       </c>
-      <c r="H102" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B103" s="38" t="s">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="C103" s="38"/>
+      <c r="B103" s="97"/>
+      <c r="C103" s="22">
+        <v>17</v>
+      </c>
       <c r="D103" s="22">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E103" s="22">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="F103" s="22">
-        <v>-13</v>
+        <v>-3</v>
       </c>
       <c r="G103" s="22">
-        <v>-3</v>
-      </c>
-      <c r="H103" s="22">
         <v>-527</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3813,1838 +3996,2083 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R33"/>
+  <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.140625" style="49"/>
-    <col min="3" max="12" width="21.7109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="53" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="21.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="83" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="18" style="49" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="18" style="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="18" style="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="47"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="40"/>
-    </row>
-    <row r="3" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="51" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B2" s="43"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="36"/>
+    </row>
+    <row r="3" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51" t="s">
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51" t="s">
+      <c r="K3" s="101"/>
+      <c r="L3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="46"/>
-    </row>
-    <row r="4" spans="1:18" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="52" t="s">
+      <c r="Q3" s="101"/>
+      <c r="R3" s="101"/>
+      <c r="S3" s="101"/>
+      <c r="T3" s="101"/>
+      <c r="U3" s="42"/>
+    </row>
+    <row r="4" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="E4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="F4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="G4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="H4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="I4" s="71"/>
+      <c r="J4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="K4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="L4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="M4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="N4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="O4" s="58"/>
+      <c r="P4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="Q4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="R4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="S4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="T4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="46"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="U4" s="42"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="42">
-        <f>INCOME_STATEMENT!D16/BALANCE_SHEET!E8</f>
+      <c r="C5" s="78"/>
+      <c r="D5" s="54">
+        <f>INCOME_STATEMENT!C16/BALANCE_SHEET!E8</f>
         <v>0.40183849917405834</v>
       </c>
-      <c r="D5" s="42">
-        <f>INCOME_STATEMENT!E16/BALANCE_SHEET!F8</f>
+      <c r="E5" s="38">
+        <f>INCOME_STATEMENT!D16/BALANCE_SHEET!F8</f>
         <v>0.37201687609206519</v>
       </c>
-      <c r="E5" s="42">
-        <f>INCOME_STATEMENT!F16/BALANCE_SHEET!G8</f>
+      <c r="F5" s="38">
+        <f>INCOME_STATEMENT!E16/BALANCE_SHEET!G8</f>
         <v>0.38163074151296794</v>
       </c>
-      <c r="F5" s="42">
-        <f>INCOME_STATEMENT!G16/BALANCE_SHEET!H8</f>
+      <c r="G5" s="38">
+        <f>INCOME_STATEMENT!F16/BALANCE_SHEET!H8</f>
         <v>0.41829031282368395</v>
       </c>
-      <c r="G5" s="42">
-        <f>INCOME_STATEMENT!H16/BALANCE_SHEET!I8</f>
+      <c r="H5" s="55">
+        <f>INCOME_STATEMENT!G16/BALANCE_SHEET!I8</f>
         <v>0.4818177303119317</v>
       </c>
-      <c r="H5" s="42">
+      <c r="I5" s="72"/>
+      <c r="J5" s="38">
+        <f>INCOME_STATEMENT!C16/INCOME_STATEMENT!C5</f>
+        <v>0.16627840999475713</v>
+      </c>
+      <c r="K5" s="38">
         <f>INCOME_STATEMENT!D16/INCOME_STATEMENT!D5</f>
-        <v>0.16627840999475713</v>
-      </c>
-      <c r="I5" s="42">
+        <v>0.16039360235149461</v>
+      </c>
+      <c r="L5" s="38">
         <f>INCOME_STATEMENT!E16/INCOME_STATEMENT!E5</f>
-        <v>0.16039360235149461</v>
-      </c>
-      <c r="J5" s="42">
+        <v>0.15955247316280041</v>
+      </c>
+      <c r="M5" s="38">
         <f>INCOME_STATEMENT!F16/INCOME_STATEMENT!F5</f>
-        <v>0.15955247316280041</v>
-      </c>
-      <c r="K5" s="42">
+        <v>0.16999503209721459</v>
+      </c>
+      <c r="N5" s="55">
         <f>INCOME_STATEMENT!G16/INCOME_STATEMENT!G5</f>
-        <v>0.16999503209721459</v>
-      </c>
-      <c r="L5" s="42">
-        <f>INCOME_STATEMENT!H16/INCOME_STATEMENT!H5</f>
         <v>0.21791849892229029</v>
       </c>
-      <c r="M5" s="42">
+      <c r="O5" s="84"/>
+      <c r="P5" s="38">
         <f>BALANCE_SHEET!E12/BALANCE_SHEET!E14</f>
         <v>2.1053157118558783</v>
       </c>
-      <c r="N5" s="42">
+      <c r="Q5" s="38">
         <f>BALANCE_SHEET!F12/BALANCE_SHEET!F14</f>
         <v>2.2584984339266181</v>
       </c>
-      <c r="O5" s="42">
+      <c r="R5" s="38">
         <f>BALANCE_SHEET!G12/BALANCE_SHEET!G14</f>
         <v>2.5596889031171335</v>
       </c>
-      <c r="P5" s="42">
+      <c r="S5" s="38">
         <f>BALANCE_SHEET!H12/BALANCE_SHEET!H14</f>
         <v>2.5596889031171335</v>
       </c>
-      <c r="Q5" s="42">
+      <c r="T5" s="38">
         <f>BALANCE_SHEET!I12/BALANCE_SHEET!I14</f>
         <v>2.6545515240689466</v>
       </c>
-      <c r="R5" s="40"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+      <c r="U5" s="36"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="42">
-        <f>INCOME_STATEMENT!D43/BALANCE_SHEET!E23</f>
+      <c r="C6" s="78"/>
+      <c r="D6" s="54">
+        <f>INCOME_STATEMENT!C43/BALANCE_SHEET!E23</f>
         <v>1.4779821955259325E-2</v>
       </c>
-      <c r="D6" s="42">
-        <f>INCOME_STATEMENT!E43/BALANCE_SHEET!F23</f>
+      <c r="E6" s="38">
+        <f>INCOME_STATEMENT!D43/BALANCE_SHEET!F23</f>
         <v>2.1042270631316563E-3</v>
       </c>
-      <c r="E6" s="42">
-        <f>INCOME_STATEMENT!F43/BALANCE_SHEET!G23</f>
+      <c r="F6" s="38">
+        <f>INCOME_STATEMENT!E43/BALANCE_SHEET!G23</f>
         <v>-1.1488692751341871E-2</v>
       </c>
-      <c r="F6" s="42">
-        <f>INCOME_STATEMENT!G43/BALANCE_SHEET!H23</f>
+      <c r="G6" s="38">
+        <f>INCOME_STATEMENT!F43/BALANCE_SHEET!H23</f>
         <v>-2.5803170932926843E-3</v>
       </c>
-      <c r="G6" s="42">
-        <f>INCOME_STATEMENT!H43/BALANCE_SHEET!I23</f>
+      <c r="H6" s="55">
+        <f>INCOME_STATEMENT!G43/BALANCE_SHEET!I23</f>
         <v>-4.4081468011478928E-3</v>
       </c>
-      <c r="H6" s="42">
+      <c r="I6" s="72"/>
+      <c r="J6" s="38">
+        <f>INCOME_STATEMENT!C43/INCOME_STATEMENT!C32</f>
+        <v>1.6956924646234377E-2</v>
+      </c>
+      <c r="K6" s="38">
         <f>INCOME_STATEMENT!D43/INCOME_STATEMENT!D32</f>
-        <v>1.6956924646234377E-2</v>
-      </c>
-      <c r="I6" s="42">
+        <v>2.4433732029958792E-3</v>
+      </c>
+      <c r="L6" s="38">
         <f>INCOME_STATEMENT!E43/INCOME_STATEMENT!E32</f>
-        <v>2.4433732029958792E-3</v>
-      </c>
-      <c r="J6" s="42">
+        <v>-1.6115239861574652E-2</v>
+      </c>
+      <c r="M6" s="38">
         <f>INCOME_STATEMENT!F43/INCOME_STATEMENT!F32</f>
-        <v>-1.6115239861574652E-2</v>
-      </c>
-      <c r="K6" s="42">
+        <v>-3.7232710773221996E-3</v>
+      </c>
+      <c r="N6" s="55">
         <f>INCOME_STATEMENT!G43/INCOME_STATEMENT!G32</f>
-        <v>-3.7232710773221996E-3</v>
-      </c>
-      <c r="L6" s="42">
-        <f>INCOME_STATEMENT!H43/INCOME_STATEMENT!H32</f>
         <v>-7.5072556776684708E-3</v>
       </c>
-      <c r="M6" s="42">
+      <c r="O6" s="84"/>
+      <c r="P6" s="38">
         <f>BALANCE_SHEET!E27/BALANCE_SHEET!E29</f>
         <v>0.29911035126036056</v>
       </c>
-      <c r="N6" s="42">
+      <c r="Q6" s="38">
         <f>BALANCE_SHEET!F27/BALANCE_SHEET!F29</f>
         <v>0.31845021826298353</v>
       </c>
-      <c r="O6" s="42">
+      <c r="R6" s="38">
         <f>BALANCE_SHEET!G27/BALANCE_SHEET!G29</f>
         <v>0.30872746722667094</v>
       </c>
-      <c r="P6" s="42">
+      <c r="S6" s="38">
         <f>BALANCE_SHEET!H27/BALANCE_SHEET!H29</f>
         <v>0.35618166346550084</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="T6" s="38">
         <f>BALANCE_SHEET!I27/BALANCE_SHEET!I29</f>
         <v>0.39109770893143164</v>
       </c>
-      <c r="R6" s="40"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="47" t="s">
+      <c r="U6" s="36"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="42">
-        <f>INCOME_STATEMENT!D69/BALANCE_SHEET!E38</f>
+      <c r="C7" s="78"/>
+      <c r="D7" s="54">
+        <f>INCOME_STATEMENT!C69/BALANCE_SHEET!E38</f>
         <v>1.1902123347331692E-2</v>
       </c>
-      <c r="D7" s="42">
-        <f>INCOME_STATEMENT!E69/BALANCE_SHEET!F38</f>
+      <c r="E7" s="38">
+        <f>INCOME_STATEMENT!D69/BALANCE_SHEET!F38</f>
         <v>1.6119453149253573E-3</v>
       </c>
-      <c r="E7" s="42">
-        <f>INCOME_STATEMENT!F69/BALANCE_SHEET!G38</f>
+      <c r="F7" s="38">
+        <f>INCOME_STATEMENT!E69/BALANCE_SHEET!G38</f>
         <v>-7.8165983727561915E-3</v>
       </c>
-      <c r="F7" s="42">
-        <f>INCOME_STATEMENT!G69/BALANCE_SHEET!H38</f>
+      <c r="G7" s="38">
+        <f>INCOME_STATEMENT!F69/BALANCE_SHEET!H38</f>
         <v>-1.6438860217441696E-3</v>
       </c>
-      <c r="G7" s="42">
-        <f>INCOME_STATEMENT!H69/BALANCE_SHEET!I38</f>
+      <c r="H7" s="55">
+        <f>INCOME_STATEMENT!G69/BALANCE_SHEET!I38</f>
         <v>-3.4821261073759513E-3</v>
       </c>
-      <c r="H7" s="42">
+      <c r="I7" s="72"/>
+      <c r="J7" s="38">
+        <f>INCOME_STATEMENT!C69/INCOME_STATEMENT!C58</f>
+        <v>1.6956924646234377E-2</v>
+      </c>
+      <c r="K7" s="38">
         <f>INCOME_STATEMENT!D69/INCOME_STATEMENT!D58</f>
-        <v>1.6956924646234377E-2</v>
-      </c>
-      <c r="I7" s="42">
+        <v>2.4433732029958792E-3</v>
+      </c>
+      <c r="L7" s="38">
         <f>INCOME_STATEMENT!E69/INCOME_STATEMENT!E58</f>
-        <v>2.4433732029958792E-3</v>
-      </c>
-      <c r="J7" s="42">
+        <v>-1.6115239861574652E-2</v>
+      </c>
+      <c r="M7" s="38">
         <f>INCOME_STATEMENT!F69/INCOME_STATEMENT!F58</f>
-        <v>-1.6115239861574652E-2</v>
-      </c>
-      <c r="K7" s="42">
+        <v>-3.7232710773221996E-3</v>
+      </c>
+      <c r="N7" s="55">
         <f>INCOME_STATEMENT!G69/INCOME_STATEMENT!G58</f>
-        <v>-3.7232710773221996E-3</v>
-      </c>
-      <c r="L7" s="42">
-        <f>INCOME_STATEMENT!H69/INCOME_STATEMENT!H58</f>
         <v>-7.5072556776684708E-3</v>
       </c>
-      <c r="M7" s="42">
+      <c r="O7" s="84"/>
+      <c r="P7" s="38">
         <f>BALANCE_SHEET!E42/BALANCE_SHEET!E44</f>
         <v>0.36503419133146664</v>
       </c>
-      <c r="N7" s="42">
+      <c r="Q7" s="38">
         <f>BALANCE_SHEET!F42/BALANCE_SHEET!F44</f>
         <v>0.49442436457197075</v>
       </c>
-      <c r="O7" s="42">
+      <c r="R7" s="38">
         <f>BALANCE_SHEET!G42/BALANCE_SHEET!G44</f>
         <v>0.61015164140277467</v>
       </c>
-      <c r="P7" s="42">
+      <c r="S7" s="38">
         <f>BALANCE_SHEET!H42/BALANCE_SHEET!H44</f>
         <v>0.89142026810102204</v>
       </c>
-      <c r="Q7" s="42">
+      <c r="T7" s="38">
         <f>BALANCE_SHEET!I42/BALANCE_SHEET!I44</f>
         <v>1.1564639088838629</v>
       </c>
-      <c r="R7" s="40"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="47" t="s">
+      <c r="U7" s="36"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="42">
-        <f>INCOME_STATEMENT!D95/BALANCE_SHEET!E53</f>
+      <c r="C8" s="78"/>
+      <c r="D8" s="54">
+        <f>INCOME_STATEMENT!C95/BALANCE_SHEET!E53</f>
         <v>9.4059502318253677E-2</v>
       </c>
-      <c r="D8" s="42">
-        <f>INCOME_STATEMENT!E95/BALANCE_SHEET!F53</f>
+      <c r="E8" s="38">
+        <f>INCOME_STATEMENT!D95/BALANCE_SHEET!F53</f>
         <v>0.26150285869419054</v>
       </c>
-      <c r="E8" s="42">
-        <f>INCOME_STATEMENT!F95/BALANCE_SHEET!G53</f>
+      <c r="F8" s="38">
+        <f>INCOME_STATEMENT!E95/BALANCE_SHEET!G53</f>
         <v>7.4165722097610964E-2</v>
       </c>
-      <c r="F8" s="42">
-        <f>INCOME_STATEMENT!G95/BALANCE_SHEET!H53</f>
+      <c r="G8" s="38">
+        <f>INCOME_STATEMENT!F95/BALANCE_SHEET!H53</f>
         <v>7.5842932001248781E-2</v>
       </c>
-      <c r="G8" s="42">
-        <f>INCOME_STATEMENT!H95/BALANCE_SHEET!I53</f>
+      <c r="H8" s="55">
+        <f>INCOME_STATEMENT!G95/BALANCE_SHEET!I53</f>
         <v>7.077271412529007E-2</v>
       </c>
-      <c r="H8" s="42">
+      <c r="I8" s="72"/>
+      <c r="J8" s="38">
+        <f>INCOME_STATEMENT!C95/INCOME_STATEMENT!C84</f>
+        <v>7.5519506913569664E-2</v>
+      </c>
+      <c r="K8" s="38">
         <f>INCOME_STATEMENT!D95/INCOME_STATEMENT!D84</f>
-        <v>7.5519506913569664E-2</v>
-      </c>
-      <c r="I8" s="42">
+        <v>0.23520526346243809</v>
+      </c>
+      <c r="L8" s="38">
         <f>INCOME_STATEMENT!E95/INCOME_STATEMENT!E84</f>
-        <v>0.23520526346243809</v>
-      </c>
-      <c r="J8" s="42">
+        <v>6.4136902447139363E-2</v>
+      </c>
+      <c r="M8" s="38">
         <f>INCOME_STATEMENT!F95/INCOME_STATEMENT!F84</f>
-        <v>6.4136902447139363E-2</v>
-      </c>
-      <c r="K8" s="42">
+        <v>6.6186344614768161E-2</v>
+      </c>
+      <c r="N8" s="55">
         <f>INCOME_STATEMENT!G95/INCOME_STATEMENT!G84</f>
-        <v>6.6186344614768161E-2</v>
-      </c>
-      <c r="L8" s="42">
-        <f>INCOME_STATEMENT!H95/INCOME_STATEMENT!H84</f>
         <v>6.5332386570813555E-2</v>
       </c>
-      <c r="M8" s="42">
+      <c r="O8" s="84"/>
+      <c r="P8" s="38">
         <f>BALANCE_SHEET!E57/BALANCE_SHEET!E59</f>
         <v>0.44388697273323369</v>
       </c>
-      <c r="N8" s="42">
+      <c r="Q8" s="38">
         <f>BALANCE_SHEET!F57/BALANCE_SHEET!F59</f>
         <v>0.21414162832261727</v>
       </c>
-      <c r="O8" s="42">
+      <c r="R8" s="38">
         <f>BALANCE_SHEET!G57/BALANCE_SHEET!G59</f>
         <v>0.22541043273767788</v>
       </c>
-      <c r="P8" s="42">
+      <c r="S8" s="38">
         <f>BALANCE_SHEET!H57/BALANCE_SHEET!H59</f>
         <v>0.27093242082273578</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="T8" s="38">
         <f>BALANCE_SHEET!I57/BALANCE_SHEET!I59</f>
         <v>0.23963963181471634</v>
       </c>
-      <c r="R8" s="40"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="47" t="s">
+      <c r="U8" s="36"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="42">
-        <f>SUM(C5:C8)/COUNT(C5:C8)</f>
+      <c r="C9" s="80"/>
+      <c r="D9" s="61">
+        <f>SUM(D5:D8)/COUNT(D5:D8)</f>
         <v>0.13064498669872576</v>
       </c>
-      <c r="D9" s="42">
-        <f t="shared" ref="D9:G9" si="0">SUM(D5:D8)/COUNT(D5:D8)</f>
+      <c r="E9" s="62">
+        <f t="shared" ref="E9:H9" si="0">SUM(E5:E8)/COUNT(E5:E8)</f>
         <v>0.15930897679107819</v>
       </c>
-      <c r="E9" s="42">
+      <c r="F9" s="62">
         <f t="shared" si="0"/>
         <v>0.10912279312162022</v>
       </c>
-      <c r="F9" s="42">
+      <c r="G9" s="62">
         <f t="shared" si="0"/>
         <v>0.12247726042747398</v>
       </c>
-      <c r="G9" s="42">
+      <c r="H9" s="63">
         <f t="shared" si="0"/>
         <v>0.13617504288217447</v>
       </c>
-      <c r="H9" s="42">
-        <f>SUM(H5:H8)/COUNT(H5:H8)</f>
+      <c r="I9" s="73"/>
+      <c r="J9" s="62">
+        <f>SUM(J5:J8)/COUNT(J5:J8)</f>
         <v>6.8927941550198893E-2</v>
       </c>
-      <c r="I9" s="42">
-        <f t="shared" ref="I9:L9" si="1">SUM(I5:I8)/COUNT(I5:I8)</f>
+      <c r="K9" s="62">
+        <f t="shared" ref="K9:M9" si="1">SUM(K5:K8)/COUNT(K5:K8)</f>
         <v>0.1001214030549811</v>
       </c>
-      <c r="J9" s="42">
+      <c r="L9" s="62">
         <f t="shared" si="1"/>
         <v>4.7864723971697623E-2</v>
       </c>
-      <c r="K9" s="42">
+      <c r="M9" s="62">
         <f t="shared" si="1"/>
         <v>5.7183708639334585E-2</v>
       </c>
-      <c r="L9" s="42">
-        <f>SUM(L5:L8)/COUNT(L5:L8)</f>
+      <c r="N9" s="63">
+        <f>SUM(N5:N8)/COUNT(N5:N8)</f>
         <v>6.7059093534441727E-2</v>
       </c>
-      <c r="M9" s="42">
-        <f>SUM(M5:M8)/COUNT(M5:M8)</f>
+      <c r="O9" s="85"/>
+      <c r="P9" s="62">
+        <f>SUM(P5:P8)/COUNT(P5:P8)</f>
         <v>0.80333680679523478</v>
       </c>
-      <c r="N9" s="42">
-        <f t="shared" ref="N9:Q9" si="2">SUM(N5:N8)/COUNT(N5:N8)</f>
+      <c r="Q9" s="62">
+        <f t="shared" ref="Q9:T9" si="2">SUM(Q5:Q8)/COUNT(Q5:Q8)</f>
         <v>0.82137866127104742</v>
       </c>
-      <c r="O9" s="42">
+      <c r="R9" s="62">
         <f t="shared" si="2"/>
         <v>0.92599461112106418</v>
       </c>
-      <c r="P9" s="42">
+      <c r="S9" s="62">
         <f t="shared" si="2"/>
         <v>1.0195558138765979</v>
       </c>
-      <c r="Q9" s="42">
+      <c r="T9" s="62">
         <f t="shared" si="2"/>
         <v>1.1104381934247394</v>
       </c>
-      <c r="R9" s="40"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="47"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="40"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="54" t="s">
+      <c r="U9" s="36"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="43"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="36"/>
+    </row>
+    <row r="11" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="93"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="101"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+    </row>
+    <row r="12" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="93"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="94"/>
+      <c r="J12" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="86"/>
+      <c r="B13" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C13" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="88">
+        <f>INCOME_STATEMENT!C16</f>
+        <v>5738523</v>
+      </c>
+      <c r="E13" s="88">
         <f>INCOME_STATEMENT!D16</f>
-        <v>5738523000000</v>
-      </c>
-      <c r="D11" s="50">
+        <v>5851805</v>
+      </c>
+      <c r="F13" s="88">
         <f>INCOME_STATEMENT!E16</f>
-        <v>5851805000000</v>
-      </c>
-      <c r="E11" s="50">
+        <v>6390672</v>
+      </c>
+      <c r="G13" s="88">
         <f>INCOME_STATEMENT!F16</f>
-        <v>6390672000000</v>
-      </c>
-      <c r="F11" s="50">
+        <v>7004562</v>
+      </c>
+      <c r="H13" s="88">
         <f>INCOME_STATEMENT!G16</f>
-        <v>7004562000000</v>
-      </c>
-      <c r="G11" s="50">
-        <f>INCOME_STATEMENT!H16</f>
-        <v>9109445000000</v>
-      </c>
-      <c r="H11" s="50">
+        <v>9109445</v>
+      </c>
+      <c r="I13" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="88">
+        <f>INCOME_STATEMENT!C16</f>
+        <v>5738523</v>
+      </c>
+      <c r="K13" s="88">
         <f>INCOME_STATEMENT!D16</f>
-        <v>5738523000000</v>
-      </c>
-      <c r="I11" s="50">
+        <v>5851805</v>
+      </c>
+      <c r="L13" s="88">
         <f>INCOME_STATEMENT!E16</f>
-        <v>5851805000000</v>
-      </c>
-      <c r="J11" s="50">
+        <v>6390672</v>
+      </c>
+      <c r="M13" s="88">
         <f>INCOME_STATEMENT!F16</f>
-        <v>6390672000000</v>
-      </c>
-      <c r="K11" s="50">
+        <v>7004562</v>
+      </c>
+      <c r="N13" s="88">
         <f>INCOME_STATEMENT!G16</f>
-        <v>7004562000000</v>
-      </c>
-      <c r="L11" s="50">
-        <f>INCOME_STATEMENT!H16</f>
-        <v>9109445000000</v>
-      </c>
-      <c r="M11" s="50">
+        <v>9109445</v>
+      </c>
+      <c r="O13" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="88">
         <f>BALANCE_SHEET!E12</f>
-        <v>9681888000000</v>
-      </c>
-      <c r="N11" s="50">
+        <v>9681888</v>
+      </c>
+      <c r="Q13" s="88">
         <f>BALANCE_SHEET!F12</f>
-        <v>10902585000000</v>
-      </c>
-      <c r="O11" s="50">
+        <v>10902585</v>
+      </c>
+      <c r="R13" s="88">
         <f>BALANCE_SHEET!G12</f>
-        <v>12041437000000</v>
-      </c>
-      <c r="P11" s="50">
+        <v>12041437</v>
+      </c>
+      <c r="S13" s="88">
         <f>BALANCE_SHEET!H12</f>
-        <v>12041437000000</v>
-      </c>
-      <c r="Q11" s="50">
+        <v>12041437</v>
+      </c>
+      <c r="T13" s="88">
         <f>BALANCE_SHEET!I12</f>
-        <v>13733025000000</v>
-      </c>
-      <c r="R11" s="40"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="54"/>
-      <c r="C12" s="50">
+        <v>13733025</v>
+      </c>
+      <c r="U13" s="90"/>
+    </row>
+    <row r="14" spans="1:21" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="86"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="88">
         <f>BALANCE_SHEET!E8</f>
-        <v>14280670000000</v>
-      </c>
-      <c r="D12" s="50">
+        <v>14280670</v>
+      </c>
+      <c r="E14" s="88">
         <f>BALANCE_SHEET!F8</f>
-        <v>15729945000000</v>
-      </c>
-      <c r="E12" s="50">
+        <v>15729945</v>
+      </c>
+      <c r="F14" s="88">
         <f>BALANCE_SHEET!G8</f>
-        <v>16745695000000</v>
-      </c>
-      <c r="F12" s="50">
+        <v>16745695</v>
+      </c>
+      <c r="G14" s="88">
         <f>BALANCE_SHEET!H8</f>
-        <v>16745695000000</v>
-      </c>
-      <c r="G12" s="50">
+        <v>16745695</v>
+      </c>
+      <c r="H14" s="88">
         <f>BALANCE_SHEET!I8</f>
-        <v>18906413000000</v>
-      </c>
-      <c r="H12" s="50">
+        <v>18906413</v>
+      </c>
+      <c r="I14" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="88">
+        <f>INCOME_STATEMENT!C5</f>
+        <v>34511534</v>
+      </c>
+      <c r="K14" s="88">
         <f>INCOME_STATEMENT!D5</f>
-        <v>34511534000000</v>
-      </c>
-      <c r="I12" s="50">
+        <v>36484030</v>
+      </c>
+      <c r="L14" s="88">
         <f>INCOME_STATEMENT!E5</f>
-        <v>36484030000000</v>
-      </c>
-      <c r="J12" s="50">
+        <v>40053732</v>
+      </c>
+      <c r="M14" s="88">
         <f>INCOME_STATEMENT!F5</f>
-        <v>40053732000000</v>
-      </c>
-      <c r="K12" s="50">
+        <v>41204510</v>
+      </c>
+      <c r="N14" s="88">
         <f>INCOME_STATEMENT!G5</f>
-        <v>41204510000000</v>
-      </c>
-      <c r="L12" s="50">
-        <f>INCOME_STATEMENT!H5</f>
-        <v>41802073000000</v>
-      </c>
-      <c r="M12" s="50">
+        <v>41802073</v>
+      </c>
+      <c r="O14" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="88">
         <f>BALANCE_SHEET!E14</f>
-        <v>4598782000000</v>
-      </c>
-      <c r="N12" s="50">
+        <v>4598782</v>
+      </c>
+      <c r="Q14" s="88">
         <f>BALANCE_SHEET!F14</f>
-        <v>4827360000000</v>
-      </c>
-      <c r="O12" s="50">
+        <v>4827360</v>
+      </c>
+      <c r="R14" s="88">
         <f>BALANCE_SHEET!G14</f>
-        <v>4704258000000</v>
-      </c>
-      <c r="P12" s="50">
+        <v>4704258</v>
+      </c>
+      <c r="S14" s="88">
         <f>BALANCE_SHEET!H14</f>
-        <v>4704258000000</v>
-      </c>
-      <c r="Q12" s="50">
+        <v>4704258</v>
+      </c>
+      <c r="T14" s="88">
         <f>BALANCE_SHEET!I14</f>
-        <v>5173388000000</v>
-      </c>
-      <c r="R12" s="40"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="54"/>
-      <c r="C13" s="41">
-        <f>C11/C12</f>
+        <v>5173388</v>
+      </c>
+      <c r="U14" s="90"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="99"/>
+      <c r="C15" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="37">
+        <f>D13/D14</f>
         <v>0.40183849917405834</v>
       </c>
-      <c r="D13" s="41">
-        <f t="shared" ref="D13:G13" si="3">D11/D12</f>
+      <c r="E15" s="37">
+        <f t="shared" ref="E15:H15" si="3">E13/E14</f>
         <v>0.37201687609206519</v>
       </c>
-      <c r="E13" s="41">
+      <c r="F15" s="37">
         <f t="shared" si="3"/>
         <v>0.38163074151296794</v>
       </c>
-      <c r="F13" s="41">
+      <c r="G15" s="37">
         <f t="shared" si="3"/>
         <v>0.41829031282368395</v>
       </c>
-      <c r="G13" s="41">
+      <c r="H15" s="37">
         <f t="shared" si="3"/>
         <v>0.4818177303119317</v>
       </c>
-      <c r="H13" s="41">
-        <f t="shared" ref="H13" si="4">H11/H12</f>
+      <c r="I15" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="37">
+        <f t="shared" ref="J15" si="4">J13/J14</f>
         <v>0.16627840999475713</v>
       </c>
-      <c r="I13" s="41">
-        <f t="shared" ref="I13" si="5">I11/I12</f>
+      <c r="K15" s="37">
+        <f t="shared" ref="K15" si="5">K13/K14</f>
         <v>0.16039360235149461</v>
       </c>
-      <c r="J13" s="41">
-        <f t="shared" ref="J13" si="6">J11/J12</f>
+      <c r="L15" s="37">
+        <f t="shared" ref="L15" si="6">L13/L14</f>
         <v>0.15955247316280041</v>
       </c>
-      <c r="K13" s="41">
-        <f t="shared" ref="K13" si="7">K11/K12</f>
+      <c r="M15" s="37">
+        <f t="shared" ref="M15" si="7">M13/M14</f>
         <v>0.16999503209721459</v>
       </c>
-      <c r="L13" s="41">
-        <f t="shared" ref="L13:Q13" si="8">L11/L12</f>
+      <c r="N15" s="37">
+        <f t="shared" ref="N15:T15" si="8">N13/N14</f>
         <v>0.21791849892229029</v>
       </c>
-      <c r="M13" s="41">
+      <c r="O15" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="P15" s="37">
         <f t="shared" si="8"/>
         <v>2.1053157118558783</v>
       </c>
-      <c r="N13" s="41">
-        <f>N11/N12</f>
+      <c r="Q15" s="37">
+        <f>Q13/Q14</f>
         <v>2.2584984339266181</v>
       </c>
-      <c r="O13" s="41">
+      <c r="R15" s="37">
         <f t="shared" si="8"/>
         <v>2.5596889031171335</v>
       </c>
-      <c r="P13" s="41">
+      <c r="S15" s="37">
         <f t="shared" si="8"/>
         <v>2.5596889031171335</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="T15" s="37">
         <f t="shared" si="8"/>
         <v>2.6545515240689466</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="54"/>
-      <c r="C14" s="41" t="str">
-        <f>IF(C13=C$28,"S",IF(C13&lt;C$28,"B",IF(C13&gt;C$28,"A")))</f>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="99"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="37" t="str">
+        <f>IF(D15=D$30,"S",IF(D15&lt;D$30,"B",IF(D15&gt;D$30,"A")))</f>
         <v>A</v>
       </c>
-      <c r="D14" s="41" t="str">
-        <f t="shared" ref="D14:Q14" si="9">IF(D13=D$28,"S",IF(D13&lt;D$28,"B",IF(D13&gt;D$28,"A")))</f>
+      <c r="E16" s="37" t="str">
+        <f t="shared" ref="E16:T16" si="9">IF(E15=E$30,"S",IF(E15&lt;E$30,"B",IF(E15&gt;E$30,"A")))</f>
         <v>A</v>
       </c>
-      <c r="E14" s="41" t="str">
+      <c r="F16" s="37" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="F14" s="41" t="str">
+      <c r="G16" s="37" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="G14" s="41" t="str">
+      <c r="H16" s="37" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="H14" s="41" t="str">
+      <c r="I16" s="74"/>
+      <c r="J16" s="37" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="I14" s="41" t="str">
+      <c r="K16" s="37" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="J14" s="41" t="str">
+      <c r="L16" s="37" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="K14" s="41" t="str">
+      <c r="M16" s="37" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="L14" s="41" t="str">
+      <c r="N16" s="37" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="M14" s="41" t="str">
+      <c r="O16" s="65"/>
+      <c r="P16" s="37" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="N14" s="41" t="str">
+      <c r="Q16" s="37" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="O14" s="41" t="str">
+      <c r="R16" s="37" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="P14" s="41" t="str">
+      <c r="S16" s="37" t="str">
+        <f>IF(S15=S$30,"S",IF(S15&lt;S$30,"B",IF(S15&gt;S$30,"A")))</f>
+        <v>A</v>
+      </c>
+      <c r="T16" s="37" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="Q14" s="41" t="str">
-        <f t="shared" si="9"/>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="s">
+    </row>
+    <row r="17" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="86"/>
+      <c r="B17" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C17" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="88">
+        <f>INCOME_STATEMENT!C43</f>
+        <v>7371973842</v>
+      </c>
+      <c r="E17" s="88">
         <f>INCOME_STATEMENT!D43</f>
+        <v>1045990311</v>
+      </c>
+      <c r="F17" s="88">
+        <f>INCOME_STATEMENT!E43</f>
+        <v>-5549465678</v>
+      </c>
+      <c r="G17" s="88">
+        <f>INCOME_STATEMENT!F43</f>
+        <v>-1283332109</v>
+      </c>
+      <c r="H17" s="88">
+        <f>INCOME_STATEMENT!G43</f>
+        <v>-2256476497</v>
+      </c>
+      <c r="I17" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="86">
+        <f>INCOME_STATEMENT!C43</f>
         <v>7371973842</v>
       </c>
-      <c r="D15" s="50">
+      <c r="K17" s="86">
+        <f>INCOME_STATEMENT!D43</f>
+        <v>1045990311</v>
+      </c>
+      <c r="L17" s="86">
         <f>INCOME_STATEMENT!E43</f>
-        <v>1045990311</v>
-      </c>
-      <c r="E15" s="50">
+        <v>-5549465678</v>
+      </c>
+      <c r="M17" s="86">
         <f>INCOME_STATEMENT!F43</f>
-        <v>-5549465678</v>
-      </c>
-      <c r="F15" s="50">
+        <v>-1283332109</v>
+      </c>
+      <c r="N17" s="86">
         <f>INCOME_STATEMENT!G43</f>
-        <v>-1283332109</v>
-      </c>
-      <c r="G15" s="50">
-        <f>INCOME_STATEMENT!H43</f>
         <v>-2256476497</v>
       </c>
-      <c r="H15" s="41">
-        <f>INCOME_STATEMENT!D43</f>
-        <v>7371973842</v>
-      </c>
-      <c r="I15" s="41">
-        <f>INCOME_STATEMENT!E43</f>
-        <v>1045990311</v>
-      </c>
-      <c r="J15" s="41">
-        <f>INCOME_STATEMENT!F43</f>
-        <v>-5549465678</v>
-      </c>
-      <c r="K15" s="41">
-        <f>INCOME_STATEMENT!G43</f>
-        <v>-1283332109</v>
-      </c>
-      <c r="L15" s="41">
-        <f>INCOME_STATEMENT!H43</f>
-        <v>-2256476497</v>
-      </c>
-      <c r="M15" s="41">
+      <c r="O17" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="86">
         <f>BALANCE_SHEET!E27</f>
         <v>114841797856</v>
       </c>
-      <c r="N15" s="41">
+      <c r="Q17" s="86">
         <f>BALANCE_SHEET!F27</f>
         <v>120064018299</v>
       </c>
-      <c r="O15" s="41">
+      <c r="R17" s="86">
         <f>BALANCE_SHEET!G27</f>
         <v>113947973889</v>
       </c>
-      <c r="P15" s="41">
+      <c r="S17" s="86">
         <f>BALANCE_SHEET!H27</f>
         <v>130623005085</v>
       </c>
-      <c r="Q15" s="41">
+      <c r="T17" s="86">
         <f>BALANCE_SHEET!I27</f>
         <v>143913787087</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="54"/>
-      <c r="C16" s="50">
+    <row r="18" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="86"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="88">
         <f>BALANCE_SHEET!E23</f>
         <v>498786376745</v>
       </c>
-      <c r="D16" s="50">
+      <c r="E18" s="88">
         <f>BALANCE_SHEET!F23</f>
         <v>497090038108</v>
       </c>
-      <c r="E16" s="50">
+      <c r="F18" s="88">
         <f>BALANCE_SHEET!G23</f>
         <v>483037173864</v>
       </c>
-      <c r="F16" s="50">
+      <c r="G18" s="88">
         <f>BALANCE_SHEET!H23</f>
         <v>497354419089</v>
       </c>
-      <c r="G16" s="50">
+      <c r="H18" s="88">
         <f>BALANCE_SHEET!I23</f>
         <v>511887783867</v>
       </c>
-      <c r="H16" s="41">
+      <c r="I18" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="86">
+        <f>INCOME_STATEMENT!C32</f>
+        <v>434747101600</v>
+      </c>
+      <c r="K18" s="86">
         <f>INCOME_STATEMENT!D32</f>
-        <v>434747101600</v>
-      </c>
-      <c r="I16" s="41">
+        <v>428092732505</v>
+      </c>
+      <c r="L18" s="86">
         <f>INCOME_STATEMENT!E32</f>
-        <v>428092732505</v>
-      </c>
-      <c r="J16" s="41">
+        <v>344361345265</v>
+      </c>
+      <c r="M18" s="86">
         <f>INCOME_STATEMENT!F32</f>
-        <v>344361345265</v>
-      </c>
-      <c r="K16" s="41">
+        <v>344678666245</v>
+      </c>
+      <c r="N18" s="86">
         <f>INCOME_STATEMENT!G32</f>
-        <v>344678666245</v>
-      </c>
-      <c r="L16" s="41">
-        <f>INCOME_STATEMENT!H32</f>
         <v>300572751733</v>
       </c>
-      <c r="M16" s="41">
+      <c r="O18" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="86">
         <f>BALANCE_SHEET!E29</f>
         <v>383944578889</v>
       </c>
-      <c r="N16" s="41">
+      <c r="Q18" s="86">
         <f>BALANCE_SHEET!F29</f>
         <v>377026019809</v>
       </c>
-      <c r="O16" s="41">
+      <c r="R18" s="86">
         <f>BALANCE_SHEET!G29</f>
         <v>369089199975</v>
       </c>
-      <c r="P16" s="41">
+      <c r="S18" s="86">
         <f>BALANCE_SHEET!H29</f>
         <v>366731414004</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="T18" s="86">
         <f>BALANCE_SHEET!I29</f>
         <v>367973996780</v>
       </c>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="54"/>
-      <c r="C17" s="41">
-        <f>C15/C16</f>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="99"/>
+      <c r="C19" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="37">
+        <f>D17/D18</f>
         <v>1.4779821955259325E-2</v>
       </c>
-      <c r="D17" s="41">
-        <f>D15/D16</f>
+      <c r="E19" s="37">
+        <f>E17/E18</f>
         <v>2.1042270631316563E-3</v>
       </c>
-      <c r="E17" s="41">
-        <f>E15/E16</f>
+      <c r="F19" s="37">
+        <f>F17/F18</f>
         <v>-1.1488692751341871E-2</v>
       </c>
-      <c r="F17" s="41">
-        <f>F15/F16</f>
+      <c r="G19" s="37">
+        <f>G17/G18</f>
         <v>-2.5803170932926843E-3</v>
       </c>
-      <c r="G17" s="41">
-        <f>G15/G16</f>
+      <c r="H19" s="37">
+        <f>H17/H18</f>
         <v>-4.4081468011478928E-3</v>
       </c>
-      <c r="H17" s="41">
-        <f t="shared" ref="H17:L17" si="10">H15/H16</f>
+      <c r="I19" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="37">
+        <f t="shared" ref="J19:N19" si="10">J17/J18</f>
         <v>1.6956924646234377E-2</v>
       </c>
-      <c r="I17" s="41">
+      <c r="K19" s="37">
         <f t="shared" si="10"/>
         <v>2.4433732029958792E-3</v>
       </c>
-      <c r="J17" s="41">
+      <c r="L19" s="37">
         <f t="shared" si="10"/>
         <v>-1.6115239861574652E-2</v>
       </c>
-      <c r="K17" s="41">
+      <c r="M19" s="37">
         <f t="shared" si="10"/>
         <v>-3.7232710773221996E-3</v>
       </c>
-      <c r="L17" s="41">
+      <c r="N19" s="37">
         <f t="shared" si="10"/>
         <v>-7.5072556776684708E-3</v>
       </c>
-      <c r="M17" s="41">
-        <f t="shared" ref="M17" si="11">M15/M16</f>
+      <c r="O19" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" s="37">
+        <f t="shared" ref="P19" si="11">P17/P18</f>
         <v>0.29911035126036056</v>
       </c>
-      <c r="N17" s="41">
-        <f t="shared" ref="N17" si="12">N15/N16</f>
+      <c r="Q19" s="37">
+        <f t="shared" ref="Q19" si="12">Q17/Q18</f>
         <v>0.31845021826298353</v>
       </c>
-      <c r="O17" s="41">
-        <f t="shared" ref="O17" si="13">O15/O16</f>
+      <c r="R19" s="37">
+        <f t="shared" ref="R19" si="13">R17/R18</f>
         <v>0.30872746722667094</v>
       </c>
-      <c r="P17" s="41">
-        <f t="shared" ref="P17" si="14">P15/P16</f>
+      <c r="S19" s="37">
+        <f t="shared" ref="S19" si="14">S17/S18</f>
         <v>0.35618166346550084</v>
       </c>
-      <c r="Q17" s="41">
-        <f t="shared" ref="Q17" si="15">Q15/Q16</f>
+      <c r="T19" s="37">
+        <f t="shared" ref="T19" si="15">T17/T18</f>
         <v>0.39109770893143164</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="54"/>
-      <c r="C18" s="41" t="str">
-        <f>IF(C17=C$28,"S",IF(C17&lt;C$28,"B",IF(C17&gt;C$28,"A")))</f>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="99"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="37" t="str">
+        <f>IF(D19=D$30,"S",IF(D19&lt;D$30,"B",IF(D19&gt;D$30,"A")))</f>
         <v>B</v>
       </c>
-      <c r="D18" s="41" t="str">
-        <f t="shared" ref="D18:Q18" si="16">IF(D17=D$28,"S",IF(D17&lt;D$28,"B",IF(D17&gt;D$28,"A")))</f>
+      <c r="E20" s="37" t="str">
+        <f t="shared" ref="E20:T20" si="16">IF(E19=E$30,"S",IF(E19&lt;E$30,"B",IF(E19&gt;E$30,"A")))</f>
         <v>B</v>
       </c>
-      <c r="E18" s="41" t="str">
+      <c r="F20" s="37" t="str">
         <f t="shared" si="16"/>
         <v>B</v>
       </c>
-      <c r="F18" s="41" t="str">
+      <c r="G20" s="37" t="str">
         <f t="shared" si="16"/>
         <v>B</v>
       </c>
-      <c r="G18" s="41" t="str">
+      <c r="H20" s="37" t="str">
         <f t="shared" si="16"/>
         <v>B</v>
       </c>
-      <c r="H18" s="41" t="str">
+      <c r="I20" s="74"/>
+      <c r="J20" s="37" t="str">
         <f t="shared" si="16"/>
         <v>B</v>
       </c>
-      <c r="I18" s="41" t="str">
+      <c r="K20" s="37" t="str">
         <f t="shared" si="16"/>
         <v>B</v>
       </c>
-      <c r="J18" s="41" t="str">
+      <c r="L20" s="37" t="str">
         <f t="shared" si="16"/>
         <v>B</v>
       </c>
-      <c r="K18" s="41" t="str">
+      <c r="M20" s="37" t="str">
         <f t="shared" si="16"/>
         <v>B</v>
       </c>
-      <c r="L18" s="41" t="str">
+      <c r="N20" s="37" t="str">
         <f t="shared" si="16"/>
         <v>B</v>
       </c>
-      <c r="M18" s="41" t="str">
-        <f>IF(M17=M$28,"S",IF(M17&lt;M$28,"B",IF(M17&gt;M$28,"A")))</f>
+      <c r="O20" s="65"/>
+      <c r="P20" s="37" t="str">
+        <f>IF(P19=P$30,"S",IF(P19&lt;P$30,"B",IF(P19&gt;P$30,"A")))</f>
         <v>B</v>
       </c>
-      <c r="N18" s="41" t="str">
+      <c r="Q20" s="37" t="str">
         <f t="shared" si="16"/>
         <v>B</v>
       </c>
-      <c r="O18" s="41" t="str">
+      <c r="R20" s="37" t="str">
         <f t="shared" si="16"/>
         <v>B</v>
       </c>
-      <c r="P18" s="41" t="str">
+      <c r="S20" s="37" t="str">
         <f t="shared" si="16"/>
         <v>B</v>
       </c>
-      <c r="Q18" s="41" t="str">
+      <c r="T20" s="37" t="str">
         <f t="shared" si="16"/>
         <v>B</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="54" t="s">
+    <row r="21" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="86"/>
+      <c r="B21" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C21" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="88">
+        <f>INCOME_STATEMENT!C69</f>
+        <v>7371973842</v>
+      </c>
+      <c r="E21" s="88">
         <f>INCOME_STATEMENT!D69</f>
+        <v>1045990311</v>
+      </c>
+      <c r="F21" s="88">
+        <f>INCOME_STATEMENT!E69</f>
+        <v>-5549465678</v>
+      </c>
+      <c r="G21" s="88">
+        <f>INCOME_STATEMENT!F69</f>
+        <v>-1283332109</v>
+      </c>
+      <c r="H21" s="88">
+        <f>INCOME_STATEMENT!G69</f>
+        <v>-2256476497</v>
+      </c>
+      <c r="I21" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="86">
+        <f>INCOME_STATEMENT!C69</f>
         <v>7371973842</v>
       </c>
-      <c r="D19" s="50">
+      <c r="K21" s="86">
+        <f>INCOME_STATEMENT!D69</f>
+        <v>1045990311</v>
+      </c>
+      <c r="L21" s="86">
         <f>INCOME_STATEMENT!E69</f>
-        <v>1045990311</v>
-      </c>
-      <c r="E19" s="50">
+        <v>-5549465678</v>
+      </c>
+      <c r="M21" s="86">
         <f>INCOME_STATEMENT!F69</f>
-        <v>-5549465678</v>
-      </c>
-      <c r="F19" s="50">
+        <v>-1283332109</v>
+      </c>
+      <c r="N21" s="86">
         <f>INCOME_STATEMENT!G69</f>
-        <v>-1283332109</v>
-      </c>
-      <c r="G19" s="50">
-        <f>INCOME_STATEMENT!H69</f>
         <v>-2256476497</v>
       </c>
-      <c r="H19" s="53">
-        <f>INCOME_STATEMENT!D69</f>
-        <v>7371973842</v>
-      </c>
-      <c r="I19" s="53">
-        <f>INCOME_STATEMENT!E69</f>
-        <v>1045990311</v>
-      </c>
-      <c r="J19" s="53">
-        <f>INCOME_STATEMENT!F69</f>
-        <v>-5549465678</v>
-      </c>
-      <c r="K19" s="53">
-        <f>INCOME_STATEMENT!G69</f>
-        <v>-1283332109</v>
-      </c>
-      <c r="L19" s="53">
-        <f>INCOME_STATEMENT!H69</f>
-        <v>-2256476497</v>
-      </c>
-      <c r="M19" s="53">
+      <c r="O21" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" s="86">
         <f>BALANCE_SHEET!E42</f>
         <v>165633948162</v>
       </c>
-      <c r="N19" s="53">
+      <c r="Q21" s="86">
         <f>BALANCE_SHEET!F42</f>
         <v>214685781274</v>
       </c>
-      <c r="O19" s="53">
+      <c r="R21" s="86">
         <f>BALANCE_SHEET!G42</f>
         <v>269032270377</v>
       </c>
-      <c r="P19" s="53">
+      <c r="S21" s="86">
         <f>BALANCE_SHEET!H42</f>
         <v>367927139244</v>
       </c>
-      <c r="Q19" s="53">
+      <c r="T21" s="86">
         <f>BALANCE_SHEET!I42</f>
         <v>347517123452</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="54"/>
-      <c r="C20" s="50">
+    <row r="22" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="86"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="88">
         <f>BALANCE_SHEET!E38</f>
         <v>619383082066</v>
       </c>
-      <c r="D20" s="50">
+      <c r="E22" s="88">
         <f>BALANCE_SHEET!F38</f>
         <v>648899377240</v>
       </c>
-      <c r="E20" s="50">
+      <c r="F22" s="88">
         <f>BALANCE_SHEET!G38</f>
         <v>709959168088</v>
       </c>
-      <c r="F20" s="50">
+      <c r="G22" s="88">
         <f>BALANCE_SHEET!H38</f>
         <v>780669761787</v>
       </c>
-      <c r="G20" s="50">
+      <c r="H22" s="88">
         <f>BALANCE_SHEET!I38</f>
         <v>648016880325</v>
       </c>
-      <c r="H20" s="53">
+      <c r="I22" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="86">
+        <f>INCOME_STATEMENT!C58</f>
+        <v>434747101600</v>
+      </c>
+      <c r="K22" s="86">
         <f>INCOME_STATEMENT!D58</f>
-        <v>434747101600</v>
-      </c>
-      <c r="I20" s="53">
+        <v>428092732505</v>
+      </c>
+      <c r="L22" s="86">
         <f>INCOME_STATEMENT!E58</f>
-        <v>428092732505</v>
-      </c>
-      <c r="J20" s="53">
+        <v>344361345265</v>
+      </c>
+      <c r="M22" s="86">
         <f>INCOME_STATEMENT!F58</f>
-        <v>344361345265</v>
-      </c>
-      <c r="K20" s="53">
+        <v>344678666245</v>
+      </c>
+      <c r="N22" s="86">
         <f>INCOME_STATEMENT!G58</f>
-        <v>344678666245</v>
-      </c>
-      <c r="L20" s="53">
-        <f>INCOME_STATEMENT!H58</f>
         <v>300572751733</v>
       </c>
-      <c r="M20" s="53">
+      <c r="O22" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" s="86">
         <f>BALANCE_SHEET!E44</f>
         <v>453749133904</v>
       </c>
-      <c r="N20" s="53">
+      <c r="Q22" s="86">
         <f>BALANCE_SHEET!F44</f>
         <v>434213595966</v>
       </c>
-      <c r="O20" s="53">
+      <c r="R22" s="86">
         <f>BALANCE_SHEET!G44</f>
         <v>440926897711</v>
       </c>
-      <c r="P20" s="53">
+      <c r="S22" s="86">
         <f>BALANCE_SHEET!H44</f>
         <v>412742622543</v>
       </c>
-      <c r="Q20" s="53">
+      <c r="T22" s="86">
         <f>BALANCE_SHEET!I44</f>
         <v>300499756873</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="54"/>
-      <c r="C21" s="41">
-        <f>C19/C20</f>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="99"/>
+      <c r="C23" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="37">
+        <f>D21/D22</f>
         <v>1.1902123347331692E-2</v>
       </c>
-      <c r="D21" s="41">
-        <f>D19/D20</f>
+      <c r="E23" s="37">
+        <f>E21/E22</f>
         <v>1.6119453149253573E-3</v>
       </c>
-      <c r="E21" s="41">
-        <f>E19/E20</f>
+      <c r="F23" s="37">
+        <f>F21/F22</f>
         <v>-7.8165983727561915E-3</v>
       </c>
-      <c r="F21" s="41">
-        <f>F19/F20</f>
+      <c r="G23" s="37">
+        <f>G21/G22</f>
         <v>-1.6438860217441696E-3</v>
       </c>
-      <c r="G21" s="41">
-        <f>G19/G20</f>
+      <c r="H23" s="37">
+        <f>H21/H22</f>
         <v>-3.4821261073759513E-3</v>
       </c>
-      <c r="H21" s="41">
-        <f t="shared" ref="H21:L21" si="17">H19/H20</f>
+      <c r="I23" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="J23" s="37">
+        <f t="shared" ref="J23:N23" si="17">J21/J22</f>
         <v>1.6956924646234377E-2</v>
       </c>
-      <c r="I21" s="41">
+      <c r="K23" s="37">
         <f t="shared" si="17"/>
         <v>2.4433732029958792E-3</v>
       </c>
-      <c r="J21" s="41">
+      <c r="L23" s="37">
         <f t="shared" si="17"/>
         <v>-1.6115239861574652E-2</v>
       </c>
-      <c r="K21" s="41">
+      <c r="M23" s="37">
         <f t="shared" si="17"/>
         <v>-3.7232710773221996E-3</v>
       </c>
-      <c r="L21" s="41">
+      <c r="N23" s="37">
         <f t="shared" si="17"/>
         <v>-7.5072556776684708E-3</v>
       </c>
-      <c r="M21" s="41">
-        <f t="shared" ref="M21" si="18">M19/M20</f>
+      <c r="O23" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="37">
+        <f t="shared" ref="P23" si="18">P21/P22</f>
         <v>0.36503419133146664</v>
       </c>
-      <c r="N21" s="41">
-        <f t="shared" ref="N21" si="19">N19/N20</f>
+      <c r="Q23" s="37">
+        <f t="shared" ref="Q23" si="19">Q21/Q22</f>
         <v>0.49442436457197075</v>
       </c>
-      <c r="O21" s="41">
-        <f t="shared" ref="O21" si="20">O19/O20</f>
+      <c r="R23" s="37">
+        <f t="shared" ref="R23" si="20">R21/R22</f>
         <v>0.61015164140277467</v>
       </c>
-      <c r="P21" s="41">
-        <f t="shared" ref="P21" si="21">P19/P20</f>
+      <c r="S23" s="37">
+        <f t="shared" ref="S23" si="21">S21/S22</f>
         <v>0.89142026810102204</v>
       </c>
-      <c r="Q21" s="41">
-        <f t="shared" ref="Q21" si="22">Q19/Q20</f>
+      <c r="T23" s="37">
+        <f t="shared" ref="T23" si="22">T21/T22</f>
         <v>1.1564639088838629</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="54"/>
-      <c r="C22" s="41" t="str">
-        <f>IF(C21=C$28,"S",IF(C21&lt;C$28,"B",IF(C21&gt;C$28,"A")))</f>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="99"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="37" t="str">
+        <f>IF(D23=D$30,"S",IF(D23&lt;D$30,"B",IF(D23&gt;D$30,"A")))</f>
         <v>B</v>
       </c>
-      <c r="D22" s="41" t="str">
-        <f t="shared" ref="D22:Q22" si="23">IF(D21=D$28,"S",IF(D21&lt;D$28,"B",IF(D21&gt;D$28,"A")))</f>
+      <c r="E24" s="37" t="str">
+        <f t="shared" ref="E24:T24" si="23">IF(E23=E$30,"S",IF(E23&lt;E$30,"B",IF(E23&gt;E$30,"A")))</f>
         <v>B</v>
       </c>
-      <c r="E22" s="41" t="str">
+      <c r="F24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>B</v>
       </c>
-      <c r="F22" s="41" t="str">
+      <c r="G24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>B</v>
       </c>
-      <c r="G22" s="41" t="str">
+      <c r="H24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>B</v>
       </c>
-      <c r="H22" s="41" t="str">
+      <c r="I24" s="74"/>
+      <c r="J24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>B</v>
       </c>
-      <c r="I22" s="41" t="str">
+      <c r="K24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>B</v>
       </c>
-      <c r="J22" s="41" t="str">
+      <c r="L24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>B</v>
       </c>
-      <c r="K22" s="41" t="str">
+      <c r="M24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>B</v>
       </c>
-      <c r="L22" s="41" t="str">
+      <c r="N24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>B</v>
       </c>
-      <c r="M22" s="41" t="str">
+      <c r="O24" s="65"/>
+      <c r="P24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>B</v>
       </c>
-      <c r="N22" s="41" t="str">
+      <c r="Q24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>B</v>
       </c>
-      <c r="O22" s="41" t="str">
+      <c r="R24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>B</v>
       </c>
-      <c r="P22" s="41" t="str">
+      <c r="S24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>B</v>
       </c>
-      <c r="Q22" s="41" t="str">
+      <c r="T24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>A</v>
       </c>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="54" t="s">
+    <row r="25" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="86"/>
+      <c r="B25" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C25" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="88">
+        <f>INCOME_STATEMENT!C95</f>
+        <v>174314394101</v>
+      </c>
+      <c r="E25" s="88">
         <f>INCOME_STATEMENT!D95</f>
+        <v>544474278014</v>
+      </c>
+      <c r="F25" s="88">
+        <f>INCOME_STATEMENT!E95</f>
+        <v>162059596347</v>
+      </c>
+      <c r="G25" s="88">
+        <f>INCOME_STATEMENT!F95</f>
+        <v>179126382068</v>
+      </c>
+      <c r="H25" s="88">
+        <f>INCOME_STATEMENT!G95</f>
+        <v>173049442756</v>
+      </c>
+      <c r="I25" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="86">
+        <f>INCOME_STATEMENT!C95</f>
         <v>174314394101</v>
       </c>
-      <c r="D23" s="50">
+      <c r="K25" s="86">
+        <f>INCOME_STATEMENT!D95</f>
+        <v>544474278014</v>
+      </c>
+      <c r="L25" s="86">
         <f>INCOME_STATEMENT!E95</f>
-        <v>544474278014</v>
-      </c>
-      <c r="E23" s="50">
+        <v>162059596347</v>
+      </c>
+      <c r="M25" s="86">
         <f>INCOME_STATEMENT!F95</f>
-        <v>162059596347</v>
-      </c>
-      <c r="F23" s="50">
+        <v>179126382068</v>
+      </c>
+      <c r="N25" s="86">
         <f>INCOME_STATEMENT!G95</f>
-        <v>179126382068</v>
-      </c>
-      <c r="G23" s="50">
-        <f>INCOME_STATEMENT!H95</f>
         <v>173049442756</v>
       </c>
-      <c r="H23" s="53">
-        <f>INCOME_STATEMENT!D95</f>
-        <v>174314394101</v>
-      </c>
-      <c r="I23" s="53">
-        <f>INCOME_STATEMENT!E95</f>
-        <v>544474278014</v>
-      </c>
-      <c r="J23" s="53">
-        <f>INCOME_STATEMENT!F95</f>
-        <v>162059596347</v>
-      </c>
-      <c r="K23" s="53">
-        <f>INCOME_STATEMENT!G95</f>
-        <v>179126382068</v>
-      </c>
-      <c r="L23" s="53">
-        <f>INCOME_STATEMENT!H95</f>
-        <v>173049442756</v>
-      </c>
-      <c r="M23" s="53">
+      <c r="O25" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" s="86">
         <f>BALANCE_SHEET!E57</f>
         <v>569730901368</v>
       </c>
-      <c r="N23" s="53">
+      <c r="Q25" s="86">
         <f>BALANCE_SHEET!F57</f>
         <v>367225370670</v>
       </c>
-      <c r="O23" s="53">
+      <c r="R25" s="86">
         <f>BALANCE_SHEET!G57</f>
         <v>401942530776</v>
       </c>
-      <c r="P23" s="53">
+      <c r="S25" s="86">
         <f>BALANCE_SHEET!H57</f>
         <v>503480853006</v>
       </c>
-      <c r="Q23" s="53">
+      <c r="T25" s="86">
         <f>BALANCE_SHEET!I57</f>
         <v>472680346662</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="54"/>
-      <c r="C24" s="50">
+    <row r="26" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="86"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="88">
         <f>BALANCE_SHEET!E53</f>
         <v>1853235343636</v>
       </c>
-      <c r="D24" s="50">
+      <c r="E26" s="88">
         <f>BALANCE_SHEET!F53</f>
         <v>2082096848703</v>
       </c>
-      <c r="E24" s="50">
+      <c r="F26" s="88">
         <f>BALANCE_SHEET!G53</f>
         <v>2185101038101</v>
       </c>
-      <c r="F24" s="50">
+      <c r="G26" s="88">
         <f>BALANCE_SHEET!H53</f>
         <v>2361807189430</v>
       </c>
-      <c r="G24" s="50">
+      <c r="H26" s="88">
         <f>BALANCE_SHEET!I53</f>
         <v>2445143511801</v>
       </c>
-      <c r="H24" s="53">
+      <c r="I26" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="86">
+        <f>INCOME_STATEMENT!C84</f>
+        <v>2308203551971</v>
+      </c>
+      <c r="K26" s="86">
         <f>INCOME_STATEMENT!D84</f>
-        <v>2308203551971</v>
-      </c>
-      <c r="I24" s="53">
+        <v>2314889854074</v>
+      </c>
+      <c r="L26" s="86">
         <f>INCOME_STATEMENT!E84</f>
-        <v>2314889854074</v>
-      </c>
-      <c r="J24" s="53">
+        <v>2526776164168</v>
+      </c>
+      <c r="M26" s="86">
         <f>INCOME_STATEMENT!F84</f>
-        <v>2526776164168</v>
-      </c>
-      <c r="K24" s="53">
+        <v>2706394847919</v>
+      </c>
+      <c r="N26" s="86">
         <f>INCOME_STATEMENT!G84</f>
-        <v>2706394847919</v>
-      </c>
-      <c r="L24" s="53">
-        <f>INCOME_STATEMENT!H84</f>
         <v>2648754344347</v>
       </c>
-      <c r="M24" s="53">
+      <c r="O26" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" s="86">
         <f>BALANCE_SHEET!E59</f>
         <v>1283504442268</v>
       </c>
-      <c r="N24" s="53">
+      <c r="Q26" s="86">
         <f>BALANCE_SHEET!F59</f>
         <v>1714871478033</v>
       </c>
-      <c r="O24" s="53">
+      <c r="R26" s="86">
         <f>BALANCE_SHEET!G59</f>
         <v>1783158507325</v>
       </c>
-      <c r="P24" s="53">
+      <c r="S26" s="86">
         <f>BALANCE_SHEET!H59</f>
         <v>1858326336424</v>
       </c>
-      <c r="Q24" s="53">
+      <c r="T26" s="86">
         <f>BALANCE_SHEET!I59</f>
         <v>1972463165139</v>
       </c>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="54"/>
-      <c r="C25" s="41">
-        <f>C23/C24</f>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="99"/>
+      <c r="C27" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="37">
+        <f>D25/D26</f>
         <v>9.4059502318253677E-2</v>
       </c>
-      <c r="D25" s="41">
-        <f>D23/D24</f>
+      <c r="E27" s="37">
+        <f>E25/E26</f>
         <v>0.26150285869419054</v>
       </c>
-      <c r="E25" s="41">
-        <f>E23/E24</f>
+      <c r="F27" s="37">
+        <f>F25/F26</f>
         <v>7.4165722097610964E-2</v>
       </c>
-      <c r="F25" s="41">
-        <f>F23/F24</f>
+      <c r="G27" s="37">
+        <f>G25/G26</f>
         <v>7.5842932001248781E-2</v>
       </c>
-      <c r="G25" s="41">
-        <f>G23/G24</f>
+      <c r="H27" s="37">
+        <f>H25/H26</f>
         <v>7.077271412529007E-2</v>
       </c>
-      <c r="H25" s="41">
-        <f t="shared" ref="H25:L25" si="24">H23/H24</f>
+      <c r="I27" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="37">
+        <f t="shared" ref="J27:N27" si="24">J25/J26</f>
         <v>7.5519506913569664E-2</v>
       </c>
-      <c r="I25" s="41">
+      <c r="K27" s="37">
         <f t="shared" si="24"/>
         <v>0.23520526346243809</v>
       </c>
-      <c r="J25" s="41">
+      <c r="L27" s="37">
         <f t="shared" si="24"/>
         <v>6.4136902447139363E-2</v>
       </c>
-      <c r="K25" s="41">
+      <c r="M27" s="37">
         <f t="shared" si="24"/>
         <v>6.6186344614768161E-2</v>
       </c>
-      <c r="L25" s="41">
+      <c r="N27" s="37">
         <f t="shared" si="24"/>
         <v>6.5332386570813555E-2</v>
       </c>
-      <c r="M25" s="41">
-        <f t="shared" ref="M25" si="25">M23/M24</f>
+      <c r="O27" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="37">
+        <f t="shared" ref="P27" si="25">P25/P26</f>
         <v>0.44388697273323369</v>
       </c>
-      <c r="N25" s="41">
-        <f t="shared" ref="N25" si="26">N23/N24</f>
+      <c r="Q27" s="37">
+        <f t="shared" ref="Q27" si="26">Q25/Q26</f>
         <v>0.21414162832261727</v>
       </c>
-      <c r="O25" s="41">
-        <f t="shared" ref="O25" si="27">O23/O24</f>
+      <c r="R27" s="37">
+        <f t="shared" ref="R27" si="27">R25/R26</f>
         <v>0.22541043273767788</v>
       </c>
-      <c r="P25" s="41">
-        <f t="shared" ref="P25" si="28">P23/P24</f>
+      <c r="S27" s="37">
+        <f t="shared" ref="S27" si="28">S25/S26</f>
         <v>0.27093242082273578</v>
       </c>
-      <c r="Q25" s="41">
-        <f t="shared" ref="Q25" si="29">Q23/Q24</f>
+      <c r="T27" s="37">
+        <f t="shared" ref="T27" si="29">T25/T26</f>
         <v>0.23963963181471634</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="54"/>
-      <c r="C26" s="41" t="str">
-        <f>IF(C25=C$28,"S",IF(C25&lt;C$28,"B",IF(C25&gt;C$28,"A")))</f>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="99"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="37" t="str">
+        <f>IF(D27=D$30,"S",IF(D27&lt;D$30,"B",IF(D27&gt;D$30,"A")))</f>
         <v>B</v>
       </c>
-      <c r="D26" s="41" t="str">
-        <f t="shared" ref="D26:Q26" si="30">IF(D25=D$28,"S",IF(D25&lt;D$28,"B",IF(D25&gt;D$28,"A")))</f>
+      <c r="E28" s="37" t="str">
+        <f t="shared" ref="E28:T28" si="30">IF(E27=E$30,"S",IF(E27&lt;E$30,"B",IF(E27&gt;E$30,"A")))</f>
         <v>A</v>
       </c>
-      <c r="E26" s="41" t="str">
+      <c r="F28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>B</v>
       </c>
-      <c r="F26" s="41" t="str">
+      <c r="G28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>B</v>
       </c>
-      <c r="G26" s="41" t="str">
+      <c r="H28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>B</v>
       </c>
-      <c r="H26" s="41" t="str">
+      <c r="I28" s="74"/>
+      <c r="J28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>A</v>
       </c>
-      <c r="I26" s="41" t="str">
+      <c r="K28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>A</v>
       </c>
-      <c r="J26" s="41" t="str">
+      <c r="L28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>A</v>
       </c>
-      <c r="K26" s="41" t="str">
+      <c r="M28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>A</v>
       </c>
-      <c r="L26" s="41" t="str">
+      <c r="N28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>B</v>
       </c>
-      <c r="M26" s="41" t="str">
+      <c r="O28" s="65"/>
+      <c r="P28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>B</v>
       </c>
-      <c r="N26" s="41" t="str">
+      <c r="Q28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>B</v>
       </c>
-      <c r="O26" s="41" t="str">
+      <c r="R28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>B</v>
       </c>
-      <c r="P26" s="41" t="str">
+      <c r="S28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>B</v>
       </c>
-      <c r="Q26" s="41" t="str">
+      <c r="T28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>B</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="55" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B29" s="41"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="65"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="56">
-        <f>(C13+C17+C21+C25)/4</f>
+      <c r="C30" s="81"/>
+      <c r="D30" s="51">
+        <f>(D15+D19+D23+D27)/4</f>
         <v>0.13064498669872576</v>
       </c>
-      <c r="D28" s="56">
-        <f>(D13+D17+D21+D25)/4</f>
+      <c r="E30" s="51">
+        <f>(E15+E19+E23+E27)/4</f>
         <v>0.15930897679107819</v>
       </c>
-      <c r="E28" s="56">
-        <f>(E13+E17+E21+E25)/4</f>
+      <c r="F30" s="51">
+        <f>(F15+F19+F23+F27)/4</f>
         <v>0.10912279312162022</v>
       </c>
-      <c r="F28" s="56">
-        <f>(F13+F17+F21+F25)/4</f>
+      <c r="G30" s="51">
+        <f>(G15+G19+G23+G27)/4</f>
         <v>0.12247726042747398</v>
       </c>
-      <c r="G28" s="56">
-        <f>(G13+G17+G21+G25)/4</f>
+      <c r="H30" s="51">
+        <f>(H15+H19+H23+H27)/4</f>
         <v>0.13617504288217447</v>
       </c>
-      <c r="H28" s="56">
-        <f t="shared" ref="H28:Q28" si="31">(H13+H17+H21+H25)/4</f>
+      <c r="I30" s="75"/>
+      <c r="J30" s="51">
+        <f t="shared" ref="J30:T30" si="31">(J15+J19+J23+J27)/4</f>
         <v>6.8927941550198893E-2</v>
       </c>
-      <c r="I28" s="56">
+      <c r="K30" s="51">
         <f t="shared" si="31"/>
         <v>0.1001214030549811</v>
       </c>
-      <c r="J28" s="56">
+      <c r="L30" s="51">
         <f t="shared" si="31"/>
         <v>4.7864723971697623E-2</v>
       </c>
-      <c r="K28" s="56">
+      <c r="M30" s="51">
         <f t="shared" si="31"/>
         <v>5.7183708639334585E-2</v>
       </c>
-      <c r="L28" s="56">
+      <c r="N30" s="51">
         <f t="shared" si="31"/>
         <v>6.7059093534441727E-2</v>
       </c>
-      <c r="M28" s="56">
-        <f>(M13+M17+M21+M25)/4</f>
+      <c r="O30" s="66"/>
+      <c r="P30" s="51">
+        <f>(P15+P19+P23+P27)/4</f>
         <v>0.80333680679523478</v>
       </c>
-      <c r="N28" s="56">
+      <c r="Q30" s="51">
         <f t="shared" si="31"/>
         <v>0.82137866127104742</v>
       </c>
-      <c r="O28" s="56">
+      <c r="R30" s="51">
         <f t="shared" si="31"/>
         <v>0.92599461112106418</v>
       </c>
-      <c r="P28" s="56">
+      <c r="S30" s="51">
         <f t="shared" si="31"/>
         <v>1.0195558138765979</v>
       </c>
-      <c r="Q28" s="56">
+      <c r="T30" s="51">
         <f t="shared" si="31"/>
         <v>1.1104381934247394</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="57"/>
-      <c r="C30" s="58" t="str">
-        <f>IF(C5-C13=0,"","X")</f>
-        <v/>
-      </c>
-      <c r="D30" s="58" t="str">
-        <f>IF(D5-D13=0,"","X")</f>
-        <v/>
-      </c>
-      <c r="E30" s="58" t="str">
-        <f>IF(E5-E13=0,"","X")</f>
-        <v/>
-      </c>
-      <c r="F30" s="58" t="str">
-        <f>IF(F5-F13=0,"","X")</f>
-        <v/>
-      </c>
-      <c r="G30" s="58" t="str">
-        <f>IF(G5-G13=0,"","X")</f>
-        <v/>
-      </c>
-      <c r="H30" s="58" t="str">
-        <f>IF(H5-H13=0,"","X")</f>
-        <v/>
-      </c>
-      <c r="I30" s="58" t="str">
-        <f>IF(I5-I13=0,"","X")</f>
-        <v/>
-      </c>
-      <c r="J30" s="58" t="str">
-        <f>IF(J5-J13=0,"","X")</f>
-        <v/>
-      </c>
-      <c r="K30" s="58" t="str">
-        <f>IF(K5-K13=0,"","X")</f>
-        <v/>
-      </c>
-      <c r="L30" s="58" t="str">
-        <f>IF(L5-L13=0,"","X")</f>
-        <v/>
-      </c>
-      <c r="M30" s="58" t="str">
-        <f t="shared" ref="M30:Q30" si="32">IF(M5-M13=0,"","X")</f>
-        <v/>
-      </c>
-      <c r="N30" s="58" t="str">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="52"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="53" t="str">
+        <f t="shared" ref="D32:N32" si="32">IF(D5-D15=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="E32" s="53" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="O30" s="58" t="str">
+      <c r="F32" s="53" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="P30" s="58" t="str">
+      <c r="G32" s="53" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="Q30" s="58" t="str">
+      <c r="H32" s="53" t="str">
         <f t="shared" si="32"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B31" s="57"/>
-      <c r="C31" s="58" t="str">
-        <f>IF(C6=C17,"","X")</f>
-        <v/>
-      </c>
-      <c r="D31" s="58" t="str">
-        <f t="shared" ref="D31:L31" si="33">IF(D6=D17,"","X")</f>
-        <v/>
-      </c>
-      <c r="E31" s="58" t="str">
+      <c r="I32" s="76"/>
+      <c r="J32" s="53" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K32" s="53" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L32" s="53" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M32" s="53" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="N32" s="53" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="O32" s="67"/>
+      <c r="P32" s="53" t="str">
+        <f t="shared" ref="P32:T32" si="33">IF(P5-P15=0,"","X")</f>
+        <v/>
+      </c>
+      <c r="Q32" s="53" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="F31" s="58" t="str">
+      <c r="R32" s="53" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="G31" s="58" t="str">
+      <c r="S32" s="53" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H31" s="58" t="str">
+      <c r="T32" s="53" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I31" s="58" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J31" s="58" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K31" s="58" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L31" s="58" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M31" s="58" t="str">
-        <f t="shared" ref="M31:Q31" si="34">IF(M6=M17,"","X")</f>
-        <v/>
-      </c>
-      <c r="N31" s="58" t="str">
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="52"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="53" t="str">
+        <f>IF(D6=D19,"","X")</f>
+        <v/>
+      </c>
+      <c r="E33" s="53" t="str">
+        <f t="shared" ref="E33:N33" si="34">IF(E6=E19,"","X")</f>
+        <v/>
+      </c>
+      <c r="F33" s="53" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="O31" s="58" t="str">
+      <c r="G33" s="53" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="P31" s="58" t="str">
+      <c r="H33" s="53" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="Q31" s="58" t="str">
+      <c r="I33" s="76"/>
+      <c r="J33" s="53" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B32" s="57"/>
-      <c r="C32" s="58" t="str">
-        <f>IF(C7=C21,"","X")</f>
-        <v/>
-      </c>
-      <c r="D32" s="58" t="str">
-        <f t="shared" ref="D32:L32" si="35">IF(D7=D21,"","X")</f>
-        <v/>
-      </c>
-      <c r="E32" s="58" t="str">
+      <c r="K33" s="53" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L33" s="53" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M33" s="53" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="N33" s="53" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="O33" s="67"/>
+      <c r="P33" s="53" t="str">
+        <f t="shared" ref="P33:T33" si="35">IF(P6=P19,"","X")</f>
+        <v/>
+      </c>
+      <c r="Q33" s="53" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F32" s="58" t="str">
+      <c r="R33" s="53" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G32" s="58" t="str">
+      <c r="S33" s="53" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H32" s="58" t="str">
+      <c r="T33" s="53" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I32" s="58" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="J32" s="58" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="K32" s="58" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="L32" s="58" t="str">
-        <f t="shared" si="35"/>
-        <v/>
-      </c>
-      <c r="M32" s="58" t="str">
-        <f t="shared" ref="M32:Q32" si="36">IF(M7=M21,"","X")</f>
-        <v/>
-      </c>
-      <c r="N32" s="58" t="str">
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="52"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="53" t="str">
+        <f>IF(D7=D23,"","X")</f>
+        <v/>
+      </c>
+      <c r="E34" s="53" t="str">
+        <f t="shared" ref="E34:N34" si="36">IF(E7=E23,"","X")</f>
+        <v/>
+      </c>
+      <c r="F34" s="53" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="O32" s="58" t="str">
+      <c r="G34" s="53" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="P32" s="58" t="str">
+      <c r="H34" s="53" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="Q32" s="58" t="str">
+      <c r="I34" s="76"/>
+      <c r="J34" s="53" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="57"/>
-      <c r="C33" s="58" t="str">
-        <f>IF(C8=C25,"","X")</f>
-        <v/>
-      </c>
-      <c r="D33" s="58" t="str">
-        <f t="shared" ref="D33:L33" si="37">IF(D8=D25,"","X")</f>
-        <v/>
-      </c>
-      <c r="E33" s="58" t="str">
+      <c r="K34" s="53" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L34" s="53" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M34" s="53" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="N34" s="53" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="O34" s="67"/>
+      <c r="P34" s="53" t="str">
+        <f t="shared" ref="P34:T34" si="37">IF(P7=P23,"","X")</f>
+        <v/>
+      </c>
+      <c r="Q34" s="53" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F33" s="58" t="str">
+      <c r="R34" s="53" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G33" s="58" t="str">
+      <c r="S34" s="53" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H33" s="58" t="str">
+      <c r="T34" s="53" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I33" s="58" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="J33" s="58" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="K33" s="58" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="L33" s="58" t="str">
-        <f t="shared" si="37"/>
-        <v/>
-      </c>
-      <c r="M33" s="58" t="str">
-        <f t="shared" ref="M33:Q33" si="38">IF(M8=M25,"","X")</f>
-        <v/>
-      </c>
-      <c r="N33" s="58" t="str">
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="52"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="53" t="str">
+        <f>IF(D8=D27,"","X")</f>
+        <v/>
+      </c>
+      <c r="E35" s="53" t="str">
+        <f t="shared" ref="E35:N35" si="38">IF(E8=E27,"","X")</f>
+        <v/>
+      </c>
+      <c r="F35" s="53" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="O33" s="58" t="str">
+      <c r="G35" s="53" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="P33" s="58" t="str">
+      <c r="H35" s="53" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="Q33" s="58" t="str">
+      <c r="I35" s="76"/>
+      <c r="J35" s="53" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
+      <c r="K35" s="53" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="L35" s="53" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="M35" s="53" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="N35" s="53" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="O35" s="67"/>
+      <c r="P35" s="53" t="str">
+        <f t="shared" ref="P35:T35" si="39">IF(P8=P27,"","X")</f>
+        <v/>
+      </c>
+      <c r="Q35" s="53" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="R35" s="53" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="S35" s="53" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="T35" s="53" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:Q3"/>
+  <mergeCells count="10">
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PROSKRIP/Analisa_LK_UNVR_2014_2018.xlsx
+++ b/PROSKRIP/Analisa_LK_UNVR_2014_2018.xlsx
@@ -666,24 +666,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -702,6 +702,2920 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ROA - PT Unilever</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Indonesia Tbk</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Periode 20142018</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ANALISA_RASIO!$D$5:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.000_);_(* \(#,##0.000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.40183849917405834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37201687609206519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38163074151296794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41829031282368395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4818177303119317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="515457296"/>
+        <c:axId val="515460016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="515457296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515460016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="515460016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Persen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515457296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>NPM - PT Unilever Indonesia Tbk</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>periode 2014 s.d. 2018</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ANALISA_RASIO!$J$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.000_);_(* \(#,##0.000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.16627840999475713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16039360235149461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15955247316280041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16999503209721459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.21791849892229029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="515461648"/>
+        <c:axId val="515452944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="515461648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515452944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="515452944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Persen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515461648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>DER - PT Unilever Indonesia Tbk</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Periode 2014 s.d. 2018</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ANALISA_RASIO!$P$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.000_);_(* \(#,##0.000\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.1053157118558783</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2584984339266181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5596889031171335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5596889031171335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6545515240689466</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="638889376"/>
+        <c:axId val="638888832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="638889376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638888832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="638888832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Persen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638889376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2073,10 +4987,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="96"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="23">
         <v>34511534</v>
       </c>
@@ -2094,10 +5008,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="23">
         <v>-17412413</v>
       </c>
@@ -2141,10 +5055,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="96"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="23">
         <v>-6613992</v>
       </c>
@@ -2162,10 +5076,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="96" t="s">
+      <c r="A9" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="96"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="23">
         <v>-2705822</v>
       </c>
@@ -2183,10 +5097,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="96"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="23">
         <v>-16979</v>
       </c>
@@ -2230,10 +5144,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="96"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="23">
         <v>10458</v>
       </c>
@@ -2251,10 +5165,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="96"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="23">
         <v>-96064</v>
       </c>
@@ -2298,10 +5212,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="96"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="23">
         <v>-1938199</v>
       </c>
@@ -2351,10 +5265,10 @@
       <c r="B17" s="97"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="96"/>
+      <c r="B18" s="98"/>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
@@ -2449,10 +5363,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="98"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="23">
         <v>0</v>
       </c>
@@ -2548,10 +5462,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="96"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="23">
         <v>434747101600</v>
       </c>
@@ -2569,10 +5483,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="96" t="s">
+      <c r="A33" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="96"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="23">
         <v>-187750245429</v>
       </c>
@@ -2616,10 +5530,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="96"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="23">
         <v>-187666642049</v>
       </c>
@@ -2637,10 +5551,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="96" t="s">
+      <c r="A36" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="96"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="23">
         <v>-41469242951</v>
       </c>
@@ -2658,10 +5572,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="96" t="s">
+      <c r="A37" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="96"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="23">
         <f>-648323373-5475379430</f>
         <v>-6123702803</v>
@@ -2710,10 +5624,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="96" t="s">
+      <c r="A39" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="96"/>
+      <c r="B39" s="98"/>
       <c r="C39" s="23">
         <v>991753907</v>
       </c>
@@ -2731,10 +5645,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="96" t="s">
+      <c r="A40" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="96"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="23">
         <v>-2688038171</v>
       </c>
@@ -2778,10 +5692,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="96"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="23">
         <v>-2669010262</v>
       </c>
@@ -2836,10 +5750,10 @@
       <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="96" t="s">
+      <c r="A45" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="96"/>
+      <c r="B45" s="98"/>
     </row>
     <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B46" s="33" t="s">
@@ -2934,10 +5848,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="98" t="s">
+      <c r="A50" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="98"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="23">
         <v>0</v>
       </c>
@@ -3028,10 +5942,10 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="96" t="s">
+      <c r="A58" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="96"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="23">
         <v>434747101600</v>
       </c>
@@ -3049,10 +5963,10 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="96" t="s">
+      <c r="A59" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="96"/>
+      <c r="B59" s="98"/>
       <c r="C59" s="23">
         <v>-187750245429</v>
       </c>
@@ -3096,10 +6010,10 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="96" t="s">
+      <c r="A61" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="96"/>
+      <c r="B61" s="98"/>
       <c r="C61" s="23">
         <v>-187666642049</v>
       </c>
@@ -3117,10 +6031,10 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="96" t="s">
+      <c r="A62" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="96"/>
+      <c r="B62" s="98"/>
       <c r="C62" s="23">
         <v>-41469242951</v>
       </c>
@@ -3138,10 +6052,10 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="96" t="s">
+      <c r="A63" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="96"/>
+      <c r="B63" s="98"/>
       <c r="C63" s="23">
         <f>-648323373-5475379430</f>
         <v>-6123702803</v>
@@ -3190,10 +6104,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="96" t="s">
+      <c r="A65" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="96"/>
+      <c r="B65" s="98"/>
       <c r="C65" s="23">
         <v>991753907</v>
       </c>
@@ -3211,10 +6125,10 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="96" t="s">
+      <c r="A66" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="96"/>
+      <c r="B66" s="98"/>
       <c r="C66" s="23">
         <v>-2688038171</v>
       </c>
@@ -3258,10 +6172,10 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="96" t="s">
+      <c r="A68" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="96"/>
+      <c r="B68" s="98"/>
       <c r="C68" s="23">
         <v>-2669010262</v>
       </c>
@@ -3316,10 +6230,10 @@
       <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="96" t="s">
+      <c r="A71" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="96"/>
+      <c r="B71" s="98"/>
     </row>
     <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B72" s="33" t="s">
@@ -3414,10 +6328,10 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="98" t="s">
+      <c r="A76" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="98"/>
+      <c r="B76" s="96"/>
       <c r="C76" s="23">
         <v>0</v>
       </c>
@@ -3508,10 +6422,10 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="96" t="s">
+      <c r="A84" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="96"/>
+      <c r="B84" s="98"/>
       <c r="C84" s="23">
         <v>2308203551971</v>
       </c>
@@ -3529,10 +6443,10 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="96" t="s">
+      <c r="A85" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="96"/>
+      <c r="B85" s="98"/>
       <c r="C85" s="23">
         <v>-1411934917918</v>
       </c>
@@ -3576,10 +6490,10 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="96" t="s">
+      <c r="A87" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="96"/>
+      <c r="B87" s="98"/>
       <c r="C87" s="23">
         <v>-488014707377</v>
       </c>
@@ -3597,10 +6511,10 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="96" t="s">
+      <c r="A88" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="96"/>
+      <c r="B88" s="98"/>
       <c r="C88" s="23">
         <v>-153757471107</v>
       </c>
@@ -3618,10 +6532,10 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="96" t="s">
+      <c r="A89" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B89" s="96"/>
+      <c r="B89" s="98"/>
       <c r="C89" s="23">
         <v>0</v>
       </c>
@@ -3665,10 +6579,10 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="96" t="s">
+      <c r="A91" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="96"/>
+      <c r="B91" s="98"/>
       <c r="C91" s="23">
         <v>0</v>
       </c>
@@ -3686,10 +6600,10 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="96" t="s">
+      <c r="A92" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="96"/>
+      <c r="B92" s="98"/>
       <c r="C92" s="23">
         <v>-15067625957</v>
       </c>
@@ -3733,10 +6647,10 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="96" t="s">
+      <c r="A94" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B94" s="96"/>
+      <c r="B94" s="98"/>
       <c r="C94" s="23">
         <v>-65114435511</v>
       </c>
@@ -3791,10 +6705,10 @@
       <c r="G96" s="22"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="96" t="s">
+      <c r="A97" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B97" s="96"/>
+      <c r="B97" s="98"/>
     </row>
     <row r="98" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B98" s="33" t="s">
@@ -3889,10 +6803,10 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="98" t="s">
+      <c r="A102" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B102" s="98"/>
+      <c r="B102" s="96"/>
       <c r="C102" s="23">
         <v>0</v>
       </c>
@@ -3932,54 +6846,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
@@ -3988,6 +6854,54 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3998,8 +6912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4040,29 +6954,29 @@
       <c r="A3" s="40"/>
       <c r="B3" s="44"/>
       <c r="C3" s="78"/>
-      <c r="D3" s="100" t="s">
+      <c r="D3" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="70"/>
-      <c r="J3" s="101" t="s">
+      <c r="J3" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="102"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="100"/>
       <c r="O3" s="47"/>
-      <c r="P3" s="101" t="s">
+      <c r="P3" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
       <c r="U3" s="42"/>
     </row>
     <row r="4" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.25">
@@ -4489,29 +7403,29 @@
       <c r="A11" s="93"/>
       <c r="B11" s="43"/>
       <c r="C11" s="78"/>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
       <c r="I11" s="69"/>
-      <c r="J11" s="101" t="s">
+      <c r="J11" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="101"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
       <c r="O11" s="47"/>
-      <c r="P11" s="101" t="s">
+      <c r="P11" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="99"/>
     </row>
     <row r="12" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="93"/>
@@ -4567,7 +7481,7 @@
     </row>
     <row r="13" spans="1:21" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="101" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="87" t="s">
@@ -4643,7 +7557,7 @@
     </row>
     <row r="14" spans="1:21" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
-      <c r="B14" s="99"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="87" t="s">
         <v>55</v>
       </c>
@@ -4716,7 +7630,7 @@
       <c r="U14" s="90"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="99"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="78" t="s">
         <v>56</v>
       </c>
@@ -4788,7 +7702,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="99"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="78"/>
       <c r="D16" s="37" t="str">
         <f>IF(D15=D$30,"S",IF(D15&lt;D$30,"B",IF(D15&gt;D$30,"A")))</f>
@@ -4855,7 +7769,7 @@
     </row>
     <row r="17" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="101" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="87" t="s">
@@ -4930,7 +7844,7 @@
     </row>
     <row r="18" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
-      <c r="B18" s="99"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="87" t="s">
         <v>55</v>
       </c>
@@ -5002,7 +7916,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="99"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="78" t="s">
         <v>56</v>
       </c>
@@ -5074,7 +7988,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="99"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="78"/>
       <c r="D20" s="37" t="str">
         <f>IF(D19=D$30,"S",IF(D19&lt;D$30,"B",IF(D19&gt;D$30,"A")))</f>
@@ -5141,7 +8055,7 @@
     </row>
     <row r="21" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="101" t="s">
         <v>48</v>
       </c>
       <c r="C21" s="87" t="s">
@@ -5216,7 +8130,7 @@
     </row>
     <row r="22" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="86"/>
-      <c r="B22" s="99"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="87" t="s">
         <v>55</v>
       </c>
@@ -5288,7 +8202,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="99"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="78" t="s">
         <v>56</v>
       </c>
@@ -5360,7 +8274,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="99"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="78"/>
       <c r="D24" s="37" t="str">
         <f>IF(D23=D$30,"S",IF(D23&lt;D$30,"B",IF(D23&gt;D$30,"A")))</f>
@@ -5427,7 +8341,7 @@
     </row>
     <row r="25" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="86"/>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="101" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="87" t="s">
@@ -5502,7 +8416,7 @@
     </row>
     <row r="26" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="86"/>
-      <c r="B26" s="99"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="87" t="s">
         <v>55</v>
       </c>
@@ -5574,7 +8488,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="99"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="78" t="s">
         <v>56</v>
       </c>
@@ -5646,7 +8560,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="99"/>
+      <c r="B28" s="101"/>
       <c r="C28" s="78"/>
       <c r="D28" s="37" t="str">
         <f>IF(D27=D$30,"S",IF(D27&lt;D$30,"B",IF(D27&gt;D$30,"A")))</f>
@@ -6061,18 +8975,19 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D3:H3"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="P3:T3"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="J11:N11"/>
     <mergeCell ref="P11:T11"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PROSKRIP/Analisa_LK_UNVR_2014_2018.xlsx
+++ b/PROSKRIP/Analisa_LK_UNVR_2014_2018.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="61">
   <si>
     <t>Aset Lancar</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Total Utang</t>
+  </si>
+  <si>
+    <t>RATA-RATA</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -577,9 +580,6 @@
     <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -588,9 +588,6 @@
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -607,12 +604,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -646,7 +637,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -666,24 +656,24 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -738,21 +728,40 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ROA - PT Unilever</a:t>
+              <a:rPr lang="en-US" sz="1200" i="1"/>
+              <a:t>Return On Asset</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Indonesia Tbk</a:t>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t> (ROA)</a:t>
             </a:r>
             <a:br>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="1200"/>
             </a:br>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Periode 20142018</a:t>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>PT</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Unilever Indonesia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> Tbk</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t>Tahun 2014 - 2018</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -790,11 +799,22 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ANALISA_RASIO!$B$5:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>UNVR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -819,6 +839,29 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ANALISA_RASIO!$D$4:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>ANALISA_RASIO!$D$5:$H$5</c:f>
@@ -855,16 +898,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515457296"/>
-        <c:axId val="515460016"/>
+        <c:axId val="-1115756992"/>
+        <c:axId val="-1115766240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="515457296"/>
+        <c:axId val="-1115756992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -901,7 +945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515460016"/>
+        <c:crossAx val="-1115766240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -909,7 +953,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515460016"/>
+        <c:axId val="-1115766240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,62 +973,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Persen</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1016,49 +1004,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515457296"/>
+        <c:crossAx val="-1115756992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1068,7 +1017,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1138,16 +1087,32 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>NPM - PT Unilever Indonesia Tbk</a:t>
+              <a:rPr lang="en-US" sz="1200" i="1"/>
+              <a:t>Net</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" i="1" baseline="0"/>
+              <a:t> Profit Margin</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> (NPM)</a:t>
             </a:r>
             <a:br>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
             </a:br>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>periode 2014 s.d. 2018</a:t>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t>PT Unilever Indonesia Tbk</a:t>
             </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t>Tahun 2014 - 2018</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1185,11 +1150,22 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ANALISA_RASIO!$I$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UNVR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1214,6 +1190,29 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ANALISA_RASIO!$J$4:$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>ANALISA_RASIO!$J$5:$N$5</c:f>
@@ -1250,16 +1249,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="515461648"/>
-        <c:axId val="515452944"/>
+        <c:axId val="-1131821840"/>
+        <c:axId val="-1131831632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="515461648"/>
+        <c:axId val="-1131821840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1296,7 +1296,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515452944"/>
+        <c:crossAx val="-1131831632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1304,7 +1304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515452944"/>
+        <c:axId val="-1131831632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,62 +1324,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Persen</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1411,49 +1355,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515461648"/>
+        <c:crossAx val="-1131821840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1463,7 +1368,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1533,16 +1438,32 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>DER - PT Unilever Indonesia Tbk</a:t>
+              <a:rPr lang="en-US" sz="1200" i="1"/>
+              <a:t>Debt to Equity Ratio</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t> (DER)</a:t>
             </a:r>
             <a:br>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1200"/>
             </a:br>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Periode 2014 s.d. 2018</a:t>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>PT</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> Unilever Indonesia</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t>Tahun 2014 - 2018</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1580,11 +1501,22 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ANALISA_RASIO!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UNVR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1609,6 +1541,29 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>ANALISA_RASIO!$P$4:$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2018</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>ANALISA_RASIO!$P$5:$T$5</c:f>
@@ -1645,16 +1600,17 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="638889376"/>
-        <c:axId val="638888832"/>
+        <c:axId val="-1115763520"/>
+        <c:axId val="-1115761888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="638889376"/>
+        <c:axId val="-1115763520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1691,7 +1647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638888832"/>
+        <c:crossAx val="-1115761888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1699,7 +1655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="638888832"/>
+        <c:axId val="-1115761888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1719,62 +1675,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Persen</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1806,49 +1706,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="638889376"/>
+        <c:crossAx val="-1115763520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1858,7 +1719,7 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3527,20 +3388,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>1170309</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>53068</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3558,19 +3419,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>21090</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>25171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>1183822</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3588,19 +3449,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>22972</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>17088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>1090454</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>46345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="8" name="Chart 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3883,8 +3744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3977,10 +3838,10 @@
     </row>
     <row r="6" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="95"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="3">
         <v>6337170</v>
       </c>
@@ -3999,10 +3860,10 @@
     </row>
     <row r="7" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="95"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="3">
         <v>7943500</v>
       </c>
@@ -4058,10 +3919,10 @@
     </row>
     <row r="10" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="95"/>
+      <c r="D10" s="90"/>
       <c r="E10" s="3">
         <v>8864832</v>
       </c>
@@ -4080,10 +3941,10 @@
     </row>
     <row r="11" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="95"/>
+      <c r="D11" s="90"/>
       <c r="E11" s="3">
         <v>817056</v>
       </c>
@@ -4253,10 +4114,10 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="95"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="3">
         <v>376694285634</v>
       </c>
@@ -4274,10 +4135,10 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="95" t="s">
+      <c r="C22" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="95"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="3">
         <v>122092091111</v>
       </c>
@@ -4322,10 +4183,10 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="95" t="s">
+      <c r="C25" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="95"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="3">
         <v>104267201912</v>
       </c>
@@ -4343,10 +4204,10 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="95"/>
+      <c r="D26" s="90"/>
       <c r="E26" s="3">
         <v>10574595944</v>
       </c>
@@ -4487,10 +4348,10 @@
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="95" t="s">
+      <c r="C36" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D36" s="95"/>
+      <c r="D36" s="90"/>
       <c r="E36" s="3">
         <v>441621631299</v>
       </c>
@@ -4508,10 +4369,10 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="95" t="s">
+      <c r="C37" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="95"/>
+      <c r="D37" s="90"/>
       <c r="E37" s="3">
         <v>177761450767</v>
       </c>
@@ -4556,10 +4417,10 @@
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="95" t="s">
+      <c r="C40" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="95"/>
+      <c r="D40" s="90"/>
       <c r="E40" s="3">
         <v>111683722179</v>
       </c>
@@ -4577,10 +4438,10 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="95" t="s">
+      <c r="C41" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="95"/>
+      <c r="D41" s="90"/>
       <c r="E41" s="3">
         <v>53950225983</v>
       </c>
@@ -4722,10 +4583,10 @@
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="95" t="s">
+      <c r="C51" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="D51" s="95"/>
+      <c r="D51" s="90"/>
       <c r="E51" s="3">
         <v>874017297803</v>
       </c>
@@ -4743,10 +4604,10 @@
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="95" t="s">
+      <c r="C52" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="95"/>
+      <c r="D52" s="90"/>
       <c r="E52" s="3">
         <v>979218045833</v>
       </c>
@@ -4791,10 +4652,10 @@
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="95" t="s">
+      <c r="C55" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="95"/>
+      <c r="D55" s="90"/>
       <c r="E55" s="3">
         <v>486053837459</v>
       </c>
@@ -4812,10 +4673,10 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="95" t="s">
+      <c r="C56" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="95"/>
+      <c r="D56" s="90"/>
       <c r="E56" s="3">
         <v>83677063909</v>
       </c>
@@ -4987,10 +4848,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="98"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="23">
         <v>34511534</v>
       </c>
@@ -5008,10 +4869,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="98"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="23">
         <v>-17412413</v>
       </c>
@@ -5055,10 +4916,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="98"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="23">
         <v>-6613992</v>
       </c>
@@ -5076,10 +4937,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="98"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="23">
         <v>-2705822</v>
       </c>
@@ -5097,10 +4958,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="98"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="23">
         <v>-16979</v>
       </c>
@@ -5144,10 +5005,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="98"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="23">
         <v>10458</v>
       </c>
@@ -5165,10 +5026,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="98" t="s">
+      <c r="A13" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="98"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="23">
         <v>-96064</v>
       </c>
@@ -5212,10 +5073,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="98" t="s">
+      <c r="A15" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="98"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="23">
         <v>-1938199</v>
       </c>
@@ -5259,16 +5120,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="97"/>
+      <c r="B17" s="92"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="98"/>
+      <c r="B18" s="91"/>
     </row>
     <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="33" t="s">
@@ -5311,10 +5172,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="97"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="22">
         <f>C19+C20</f>
         <v>0</v>
@@ -5337,10 +5198,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="97"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="22">
         <f>C16+C21</f>
         <v>5738523</v>
@@ -5363,10 +5224,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="96"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="23">
         <v>0</v>
       </c>
@@ -5384,10 +5245,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="97"/>
+      <c r="B24" s="92"/>
     </row>
     <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B25" s="33" t="s">
@@ -5462,10 +5323,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="98" t="s">
+      <c r="A32" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="98"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="23">
         <v>434747101600</v>
       </c>
@@ -5483,10 +5344,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="98" t="s">
+      <c r="A33" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="98"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="23">
         <v>-187750245429</v>
       </c>
@@ -5530,10 +5391,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="98"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="23">
         <v>-187666642049</v>
       </c>
@@ -5551,10 +5412,10 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="98" t="s">
+      <c r="A36" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="98"/>
+      <c r="B36" s="91"/>
       <c r="C36" s="23">
         <v>-41469242951</v>
       </c>
@@ -5572,10 +5433,10 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="98" t="s">
+      <c r="A37" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="98"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="23">
         <f>-648323373-5475379430</f>
         <v>-6123702803</v>
@@ -5624,10 +5485,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="98" t="s">
+      <c r="A39" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="98"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="23">
         <v>991753907</v>
       </c>
@@ -5645,10 +5506,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="98" t="s">
+      <c r="A40" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="98"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="23">
         <v>-2688038171</v>
       </c>
@@ -5692,10 +5553,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="98" t="s">
+      <c r="A42" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="98"/>
+      <c r="B42" s="91"/>
       <c r="C42" s="23">
         <v>-2669010262</v>
       </c>
@@ -5739,10 +5600,10 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="97" t="s">
+      <c r="A44" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="97"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -5750,10 +5611,10 @@
       <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="98" t="s">
+      <c r="A45" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="98"/>
+      <c r="B45" s="91"/>
     </row>
     <row r="46" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B46" s="33" t="s">
@@ -5796,10 +5657,10 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="97"/>
+      <c r="B48" s="92"/>
       <c r="C48" s="22">
         <f>C46+C47</f>
         <v>0</v>
@@ -5822,10 +5683,10 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="97" t="s">
+      <c r="A49" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="97"/>
+      <c r="B49" s="92"/>
       <c r="C49" s="22">
         <f>C43+C48</f>
         <v>7371973842</v>
@@ -5848,10 +5709,10 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="96" t="s">
+      <c r="A50" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="96"/>
+      <c r="B50" s="93"/>
       <c r="C50" s="23">
         <v>0</v>
       </c>
@@ -5869,10 +5730,10 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="97" t="s">
+      <c r="A51" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="97"/>
+      <c r="B51" s="92"/>
       <c r="C51" s="22">
         <v>17</v>
       </c>
@@ -5942,10 +5803,10 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="98" t="s">
+      <c r="A58" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="98"/>
+      <c r="B58" s="91"/>
       <c r="C58" s="23">
         <v>434747101600</v>
       </c>
@@ -5963,10 +5824,10 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="98" t="s">
+      <c r="A59" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="98"/>
+      <c r="B59" s="91"/>
       <c r="C59" s="23">
         <v>-187750245429</v>
       </c>
@@ -6010,10 +5871,10 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="98" t="s">
+      <c r="A61" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="98"/>
+      <c r="B61" s="91"/>
       <c r="C61" s="23">
         <v>-187666642049</v>
       </c>
@@ -6031,10 +5892,10 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="98"/>
+      <c r="B62" s="91"/>
       <c r="C62" s="23">
         <v>-41469242951</v>
       </c>
@@ -6052,10 +5913,10 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="98" t="s">
+      <c r="A63" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="B63" s="98"/>
+      <c r="B63" s="91"/>
       <c r="C63" s="23">
         <f>-648323373-5475379430</f>
         <v>-6123702803</v>
@@ -6104,10 +5965,10 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="98" t="s">
+      <c r="A65" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B65" s="98"/>
+      <c r="B65" s="91"/>
       <c r="C65" s="23">
         <v>991753907</v>
       </c>
@@ -6125,10 +5986,10 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="98" t="s">
+      <c r="A66" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B66" s="98"/>
+      <c r="B66" s="91"/>
       <c r="C66" s="23">
         <v>-2688038171</v>
       </c>
@@ -6172,10 +6033,10 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="98" t="s">
+      <c r="A68" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="98"/>
+      <c r="B68" s="91"/>
       <c r="C68" s="23">
         <v>-2669010262</v>
       </c>
@@ -6219,10 +6080,10 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="97" t="s">
+      <c r="A70" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="97"/>
+      <c r="B70" s="92"/>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
@@ -6230,10 +6091,10 @@
       <c r="G70" s="22"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="98" t="s">
+      <c r="A71" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B71" s="98"/>
+      <c r="B71" s="91"/>
     </row>
     <row r="72" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B72" s="33" t="s">
@@ -6276,10 +6137,10 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="97" t="s">
+      <c r="A74" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B74" s="97"/>
+      <c r="B74" s="92"/>
       <c r="C74" s="22">
         <f>C72+C73</f>
         <v>0</v>
@@ -6302,10 +6163,10 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="97" t="s">
+      <c r="A75" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B75" s="97"/>
+      <c r="B75" s="92"/>
       <c r="C75" s="22">
         <f>C69+C74</f>
         <v>7371973842</v>
@@ -6328,10 +6189,10 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="96" t="s">
+      <c r="A76" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B76" s="96"/>
+      <c r="B76" s="93"/>
       <c r="C76" s="23">
         <v>0</v>
       </c>
@@ -6349,10 +6210,10 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="97" t="s">
+      <c r="A77" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="97"/>
+      <c r="B77" s="92"/>
       <c r="C77" s="22">
         <v>17</v>
       </c>
@@ -6422,10 +6283,10 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="98" t="s">
+      <c r="A84" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="98"/>
+      <c r="B84" s="91"/>
       <c r="C84" s="23">
         <v>2308203551971</v>
       </c>
@@ -6443,10 +6304,10 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="98" t="s">
+      <c r="A85" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="98"/>
+      <c r="B85" s="91"/>
       <c r="C85" s="23">
         <v>-1411934917918</v>
       </c>
@@ -6490,10 +6351,10 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="98" t="s">
+      <c r="A87" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="98"/>
+      <c r="B87" s="91"/>
       <c r="C87" s="23">
         <v>-488014707377</v>
       </c>
@@ -6511,10 +6372,10 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="98" t="s">
+      <c r="A88" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="98"/>
+      <c r="B88" s="91"/>
       <c r="C88" s="23">
         <v>-153757471107</v>
       </c>
@@ -6532,10 +6393,10 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="98" t="s">
+      <c r="A89" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="B89" s="98"/>
+      <c r="B89" s="91"/>
       <c r="C89" s="23">
         <v>0</v>
       </c>
@@ -6579,10 +6440,10 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="98" t="s">
+      <c r="A91" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="98"/>
+      <c r="B91" s="91"/>
       <c r="C91" s="23">
         <v>0</v>
       </c>
@@ -6600,10 +6461,10 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="98" t="s">
+      <c r="A92" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B92" s="98"/>
+      <c r="B92" s="91"/>
       <c r="C92" s="23">
         <v>-15067625957</v>
       </c>
@@ -6647,10 +6508,10 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="98" t="s">
+      <c r="A94" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B94" s="98"/>
+      <c r="B94" s="91"/>
       <c r="C94" s="23">
         <v>-65114435511</v>
       </c>
@@ -6694,10 +6555,10 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="97" t="s">
+      <c r="A96" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B96" s="97"/>
+      <c r="B96" s="92"/>
       <c r="C96" s="22"/>
       <c r="D96" s="22"/>
       <c r="E96" s="22"/>
@@ -6705,10 +6566,10 @@
       <c r="G96" s="22"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="98" t="s">
+      <c r="A97" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B97" s="98"/>
+      <c r="B97" s="91"/>
     </row>
     <row r="98" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B98" s="33" t="s">
@@ -6751,10 +6612,10 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="97" t="s">
+      <c r="A100" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B100" s="97"/>
+      <c r="B100" s="92"/>
       <c r="C100" s="22">
         <f>C98+C99</f>
         <v>0</v>
@@ -6777,10 +6638,10 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="97" t="s">
+      <c r="A101" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="97"/>
+      <c r="B101" s="92"/>
       <c r="C101" s="22">
         <f>C95+C100</f>
         <v>174314394101</v>
@@ -6803,10 +6664,10 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="96" t="s">
+      <c r="A102" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B102" s="96"/>
+      <c r="B102" s="93"/>
       <c r="C102" s="23">
         <v>0</v>
       </c>
@@ -6824,10 +6685,10 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="97" t="s">
+      <c r="A103" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B103" s="97"/>
+      <c r="B103" s="92"/>
       <c r="C103" s="22">
         <v>17</v>
       </c>
@@ -6846,6 +6707,54 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
@@ -6854,54 +6763,6 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A101:B101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6912,37 +6773,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="8.140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="83" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="79" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="18" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="77" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="73" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="18" style="49" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="66" bestFit="1" customWidth="1"/>
     <col min="16" max="20" width="18" style="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="43"/>
-      <c r="C2" s="78"/>
+      <c r="C2" s="74"/>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
       <c r="F2" s="46"/>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
-      <c r="I2" s="69"/>
+      <c r="I2" s="67"/>
       <c r="J2" s="46"/>
       <c r="K2" s="46"/>
       <c r="L2" s="46"/>
       <c r="M2" s="46"/>
       <c r="N2" s="46"/>
-      <c r="O2" s="64"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="46"/>
       <c r="Q2" s="46"/>
       <c r="R2" s="46"/>
@@ -6953,90 +6814,90 @@
     <row r="3" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="44"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="102" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="99" t="s">
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="100"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="47"/>
-      <c r="P3" s="99" t="s">
+      <c r="P3" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
       <c r="U3" s="42"/>
     </row>
     <row r="4" spans="1:21" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="57" t="s">
+      <c r="B4" s="44"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="58" t="s">
+      <c r="G4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="59" t="s">
+      <c r="H4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="58" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="58" t="s">
+      <c r="L4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="58" t="s">
+      <c r="M4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="59" t="s">
+      <c r="N4" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58" t="s">
+      <c r="O4" s="57"/>
+      <c r="P4" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="58" t="s">
+      <c r="Q4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="58" t="s">
+      <c r="R4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="58" t="s">
+      <c r="S4" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="58" t="s">
+      <c r="T4" s="57" t="s">
         <v>6</v>
       </c>
       <c r="U4" s="42"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="78"/>
       <c r="D5" s="54">
         <f>INCOME_STATEMENT!C16/BALANCE_SHEET!E8</f>
         <v>0.40183849917405834</v>
@@ -7057,7 +6918,9 @@
         <f>INCOME_STATEMENT!G16/BALANCE_SHEET!I8</f>
         <v>0.4818177303119317</v>
       </c>
-      <c r="I5" s="72"/>
+      <c r="I5" s="74" t="s">
+        <v>46</v>
+      </c>
       <c r="J5" s="38">
         <f>INCOME_STATEMENT!C16/INCOME_STATEMENT!C5</f>
         <v>0.16627840999475713</v>
@@ -7078,7 +6941,9 @@
         <f>INCOME_STATEMENT!G16/INCOME_STATEMENT!G5</f>
         <v>0.21791849892229029</v>
       </c>
-      <c r="O5" s="84"/>
+      <c r="O5" s="74" t="s">
+        <v>46</v>
+      </c>
       <c r="P5" s="38">
         <f>BALANCE_SHEET!E12/BALANCE_SHEET!E14</f>
         <v>2.1053157118558783</v>
@@ -7102,10 +6967,10 @@
       <c r="U5" s="36"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="78"/>
       <c r="D6" s="54">
         <f>INCOME_STATEMENT!C43/BALANCE_SHEET!E23</f>
         <v>1.4779821955259325E-2</v>
@@ -7126,7 +6991,9 @@
         <f>INCOME_STATEMENT!G43/BALANCE_SHEET!I23</f>
         <v>-4.4081468011478928E-3</v>
       </c>
-      <c r="I6" s="72"/>
+      <c r="I6" s="74" t="s">
+        <v>47</v>
+      </c>
       <c r="J6" s="38">
         <f>INCOME_STATEMENT!C43/INCOME_STATEMENT!C32</f>
         <v>1.6956924646234377E-2</v>
@@ -7147,7 +7014,9 @@
         <f>INCOME_STATEMENT!G43/INCOME_STATEMENT!G32</f>
         <v>-7.5072556776684708E-3</v>
       </c>
-      <c r="O6" s="84"/>
+      <c r="O6" s="74" t="s">
+        <v>47</v>
+      </c>
       <c r="P6" s="38">
         <f>BALANCE_SHEET!E27/BALANCE_SHEET!E29</f>
         <v>0.29911035126036056</v>
@@ -7171,10 +7040,10 @@
       <c r="U6" s="36"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="78"/>
       <c r="D7" s="54">
         <f>INCOME_STATEMENT!C69/BALANCE_SHEET!E38</f>
         <v>1.1902123347331692E-2</v>
@@ -7195,7 +7064,9 @@
         <f>INCOME_STATEMENT!G69/BALANCE_SHEET!I38</f>
         <v>-3.4821261073759513E-3</v>
       </c>
-      <c r="I7" s="72"/>
+      <c r="I7" s="74" t="s">
+        <v>48</v>
+      </c>
       <c r="J7" s="38">
         <f>INCOME_STATEMENT!C69/INCOME_STATEMENT!C58</f>
         <v>1.6956924646234377E-2</v>
@@ -7216,7 +7087,9 @@
         <f>INCOME_STATEMENT!G69/INCOME_STATEMENT!G58</f>
         <v>-7.5072556776684708E-3</v>
       </c>
-      <c r="O7" s="84"/>
+      <c r="O7" s="74" t="s">
+        <v>48</v>
+      </c>
       <c r="P7" s="38">
         <f>BALANCE_SHEET!E42/BALANCE_SHEET!E44</f>
         <v>0.36503419133146664</v>
@@ -7240,10 +7113,10 @@
       <c r="U7" s="36"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="78"/>
       <c r="D8" s="54">
         <f>INCOME_STATEMENT!C95/BALANCE_SHEET!E53</f>
         <v>9.4059502318253677E-2</v>
@@ -7264,7 +7137,9 @@
         <f>INCOME_STATEMENT!G95/BALANCE_SHEET!I53</f>
         <v>7.077271412529007E-2</v>
       </c>
-      <c r="I8" s="72"/>
+      <c r="I8" s="74" t="s">
+        <v>52</v>
+      </c>
       <c r="J8" s="38">
         <f>INCOME_STATEMENT!C95/INCOME_STATEMENT!C84</f>
         <v>7.5519506913569664E-2</v>
@@ -7285,7 +7160,9 @@
         <f>INCOME_STATEMENT!G95/INCOME_STATEMENT!G84</f>
         <v>6.5332386570813555E-2</v>
       </c>
-      <c r="O8" s="84"/>
+      <c r="O8" s="74" t="s">
+        <v>52</v>
+      </c>
       <c r="P8" s="38">
         <f>BALANCE_SHEET!E57/BALANCE_SHEET!E59</f>
         <v>0.44388697273323369</v>
@@ -7309,69 +7186,73 @@
       <c r="U8" s="36"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="61">
+      <c r="B9" s="43"/>
+      <c r="C9" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="59">
         <f>SUM(D5:D8)/COUNT(D5:D8)</f>
         <v>0.13064498669872576</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="60">
         <f t="shared" ref="E9:H9" si="0">SUM(E5:E8)/COUNT(E5:E8)</f>
         <v>0.15930897679107819</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="60">
         <f t="shared" si="0"/>
         <v>0.10912279312162022</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="60">
         <f t="shared" si="0"/>
         <v>0.12247726042747398</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="61">
         <f t="shared" si="0"/>
         <v>0.13617504288217447</v>
       </c>
-      <c r="I9" s="73"/>
-      <c r="J9" s="62">
+      <c r="I9" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="60">
         <f>SUM(J5:J8)/COUNT(J5:J8)</f>
         <v>6.8927941550198893E-2</v>
       </c>
-      <c r="K9" s="62">
+      <c r="K9" s="60">
         <f t="shared" ref="K9:M9" si="1">SUM(K5:K8)/COUNT(K5:K8)</f>
         <v>0.1001214030549811</v>
       </c>
-      <c r="L9" s="62">
+      <c r="L9" s="60">
         <f t="shared" si="1"/>
         <v>4.7864723971697623E-2</v>
       </c>
-      <c r="M9" s="62">
+      <c r="M9" s="60">
         <f t="shared" si="1"/>
         <v>5.7183708639334585E-2</v>
       </c>
-      <c r="N9" s="63">
+      <c r="N9" s="61">
         <f>SUM(N5:N8)/COUNT(N5:N8)</f>
         <v>6.7059093534441727E-2</v>
       </c>
-      <c r="O9" s="85"/>
-      <c r="P9" s="62">
+      <c r="O9" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="60">
         <f>SUM(P5:P8)/COUNT(P5:P8)</f>
         <v>0.80333680679523478</v>
       </c>
-      <c r="Q9" s="62">
+      <c r="Q9" s="60">
         <f t="shared" ref="Q9:T9" si="2">SUM(Q5:Q8)/COUNT(Q5:Q8)</f>
         <v>0.82137866127104742</v>
       </c>
-      <c r="R9" s="62">
+      <c r="R9" s="60">
         <f t="shared" si="2"/>
         <v>0.92599461112106418</v>
       </c>
-      <c r="S9" s="62">
+      <c r="S9" s="60">
         <f t="shared" si="2"/>
         <v>1.0195558138765979</v>
       </c>
-      <c r="T9" s="62">
+      <c r="T9" s="60">
         <f t="shared" si="2"/>
         <v>1.1104381934247394</v>
       </c>
@@ -7379,19 +7260,19 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="43"/>
-      <c r="C10" s="78"/>
+      <c r="C10" s="74"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
-      <c r="I10" s="92"/>
+      <c r="I10" s="87"/>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="84"/>
+      <c r="O10" s="80"/>
       <c r="P10" s="38"/>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
@@ -7400,37 +7281,37 @@
       <c r="U10" s="36"/>
     </row>
     <row r="11" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
+      <c r="A11" s="88"/>
       <c r="B11" s="43"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="99" t="s">
+      <c r="C11" s="74"/>
+      <c r="D11" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="99" t="s">
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
       <c r="O11" s="47"/>
-      <c r="P11" s="99" t="s">
+      <c r="P11" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
-      <c r="S11" s="99"/>
-      <c r="T11" s="99"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
     </row>
     <row r="12" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="43"/>
-      <c r="C12" s="78"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="48" t="s">
         <v>2</v>
       </c>
@@ -7446,7 +7327,7 @@
       <c r="H12" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="94"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="48" t="s">
         <v>2</v>
       </c>
@@ -7479,159 +7360,159 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="101" t="s">
+    <row r="13" spans="1:21" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="81"/>
+      <c r="B13" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="83">
         <f>INCOME_STATEMENT!C16</f>
         <v>5738523</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="83">
         <f>INCOME_STATEMENT!D16</f>
         <v>5851805</v>
       </c>
-      <c r="F13" s="88">
+      <c r="F13" s="83">
         <f>INCOME_STATEMENT!E16</f>
         <v>6390672</v>
       </c>
-      <c r="G13" s="88">
+      <c r="G13" s="83">
         <f>INCOME_STATEMENT!F16</f>
         <v>7004562</v>
       </c>
-      <c r="H13" s="88">
+      <c r="H13" s="83">
         <f>INCOME_STATEMENT!G16</f>
         <v>9109445</v>
       </c>
-      <c r="I13" s="87" t="s">
+      <c r="I13" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="88">
+      <c r="J13" s="83">
         <f>INCOME_STATEMENT!C16</f>
         <v>5738523</v>
       </c>
-      <c r="K13" s="88">
+      <c r="K13" s="83">
         <f>INCOME_STATEMENT!D16</f>
         <v>5851805</v>
       </c>
-      <c r="L13" s="88">
+      <c r="L13" s="83">
         <f>INCOME_STATEMENT!E16</f>
         <v>6390672</v>
       </c>
-      <c r="M13" s="88">
+      <c r="M13" s="83">
         <f>INCOME_STATEMENT!F16</f>
         <v>7004562</v>
       </c>
-      <c r="N13" s="88">
+      <c r="N13" s="83">
         <f>INCOME_STATEMENT!G16</f>
         <v>9109445</v>
       </c>
-      <c r="O13" s="89" t="s">
+      <c r="O13" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="P13" s="88">
+      <c r="P13" s="83">
         <f>BALANCE_SHEET!E12</f>
         <v>9681888</v>
       </c>
-      <c r="Q13" s="88">
+      <c r="Q13" s="83">
         <f>BALANCE_SHEET!F12</f>
         <v>10902585</v>
       </c>
-      <c r="R13" s="88">
+      <c r="R13" s="83">
         <f>BALANCE_SHEET!G12</f>
         <v>12041437</v>
       </c>
-      <c r="S13" s="88">
+      <c r="S13" s="83">
         <f>BALANCE_SHEET!H12</f>
         <v>12041437</v>
       </c>
-      <c r="T13" s="88">
+      <c r="T13" s="83">
         <f>BALANCE_SHEET!I12</f>
         <v>13733025</v>
       </c>
-      <c r="U13" s="90"/>
-    </row>
-    <row r="14" spans="1:21" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="87" t="s">
+      <c r="U13" s="85"/>
+    </row>
+    <row r="14" spans="1:21" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="83">
         <f>BALANCE_SHEET!E8</f>
         <v>14280670</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="83">
         <f>BALANCE_SHEET!F8</f>
         <v>15729945</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="83">
         <f>BALANCE_SHEET!G8</f>
         <v>16745695</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G14" s="83">
         <f>BALANCE_SHEET!H8</f>
         <v>16745695</v>
       </c>
-      <c r="H14" s="88">
+      <c r="H14" s="83">
         <f>BALANCE_SHEET!I8</f>
         <v>18906413</v>
       </c>
-      <c r="I14" s="87" t="s">
+      <c r="I14" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="J14" s="88">
+      <c r="J14" s="83">
         <f>INCOME_STATEMENT!C5</f>
         <v>34511534</v>
       </c>
-      <c r="K14" s="88">
+      <c r="K14" s="83">
         <f>INCOME_STATEMENT!D5</f>
         <v>36484030</v>
       </c>
-      <c r="L14" s="88">
+      <c r="L14" s="83">
         <f>INCOME_STATEMENT!E5</f>
         <v>40053732</v>
       </c>
-      <c r="M14" s="88">
+      <c r="M14" s="83">
         <f>INCOME_STATEMENT!F5</f>
         <v>41204510</v>
       </c>
-      <c r="N14" s="88">
+      <c r="N14" s="83">
         <f>INCOME_STATEMENT!G5</f>
         <v>41802073</v>
       </c>
-      <c r="O14" s="89" t="s">
+      <c r="O14" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="P14" s="88">
+      <c r="P14" s="83">
         <f>BALANCE_SHEET!E14</f>
         <v>4598782</v>
       </c>
-      <c r="Q14" s="88">
+      <c r="Q14" s="83">
         <f>BALANCE_SHEET!F14</f>
         <v>4827360</v>
       </c>
-      <c r="R14" s="88">
+      <c r="R14" s="83">
         <f>BALANCE_SHEET!G14</f>
         <v>4704258</v>
       </c>
-      <c r="S14" s="88">
+      <c r="S14" s="83">
         <f>BALANCE_SHEET!H14</f>
         <v>4704258</v>
       </c>
-      <c r="T14" s="88">
+      <c r="T14" s="83">
         <f>BALANCE_SHEET!I14</f>
         <v>5173388</v>
       </c>
-      <c r="U14" s="90"/>
+      <c r="U14" s="85"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
-      <c r="C15" s="78" t="s">
+      <c r="B15" s="94"/>
+      <c r="C15" s="74" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="37">
@@ -7654,7 +7535,7 @@
         <f t="shared" si="3"/>
         <v>0.4818177303119317</v>
       </c>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="70" t="s">
         <v>56</v>
       </c>
       <c r="J15" s="37">
@@ -7677,7 +7558,7 @@
         <f t="shared" ref="N15:T15" si="8">N13/N14</f>
         <v>0.21791849892229029</v>
       </c>
-      <c r="O15" s="65" t="s">
+      <c r="O15" s="63" t="s">
         <v>56</v>
       </c>
       <c r="P15" s="37">
@@ -7702,8 +7583,8 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="101"/>
-      <c r="C16" s="78"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="37" t="str">
         <f>IF(D15=D$30,"S",IF(D15&lt;D$30,"B",IF(D15&gt;D$30,"A")))</f>
         <v>A</v>
@@ -7724,7 +7605,7 @@
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="70"/>
       <c r="J16" s="37" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
@@ -7745,7 +7626,7 @@
         <f t="shared" si="9"/>
         <v>A</v>
       </c>
-      <c r="O16" s="65"/>
+      <c r="O16" s="63"/>
       <c r="P16" s="37" t="str">
         <f t="shared" si="9"/>
         <v>A</v>
@@ -7767,157 +7648,157 @@
         <v>A</v>
       </c>
     </row>
-    <row r="17" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="101" t="s">
+    <row r="17" spans="1:20" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="88">
+      <c r="D17" s="83">
         <f>INCOME_STATEMENT!C43</f>
         <v>7371973842</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="83">
         <f>INCOME_STATEMENT!D43</f>
         <v>1045990311</v>
       </c>
-      <c r="F17" s="88">
+      <c r="F17" s="83">
         <f>INCOME_STATEMENT!E43</f>
         <v>-5549465678</v>
       </c>
-      <c r="G17" s="88">
+      <c r="G17" s="83">
         <f>INCOME_STATEMENT!F43</f>
         <v>-1283332109</v>
       </c>
-      <c r="H17" s="88">
+      <c r="H17" s="83">
         <f>INCOME_STATEMENT!G43</f>
         <v>-2256476497</v>
       </c>
-      <c r="I17" s="87" t="s">
+      <c r="I17" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="86">
+      <c r="J17" s="81">
         <f>INCOME_STATEMENT!C43</f>
         <v>7371973842</v>
       </c>
-      <c r="K17" s="86">
+      <c r="K17" s="81">
         <f>INCOME_STATEMENT!D43</f>
         <v>1045990311</v>
       </c>
-      <c r="L17" s="86">
+      <c r="L17" s="81">
         <f>INCOME_STATEMENT!E43</f>
         <v>-5549465678</v>
       </c>
-      <c r="M17" s="86">
+      <c r="M17" s="81">
         <f>INCOME_STATEMENT!F43</f>
         <v>-1283332109</v>
       </c>
-      <c r="N17" s="86">
+      <c r="N17" s="81">
         <f>INCOME_STATEMENT!G43</f>
         <v>-2256476497</v>
       </c>
-      <c r="O17" s="89" t="s">
+      <c r="O17" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="P17" s="86">
+      <c r="P17" s="81">
         <f>BALANCE_SHEET!E27</f>
         <v>114841797856</v>
       </c>
-      <c r="Q17" s="86">
+      <c r="Q17" s="81">
         <f>BALANCE_SHEET!F27</f>
         <v>120064018299</v>
       </c>
-      <c r="R17" s="86">
+      <c r="R17" s="81">
         <f>BALANCE_SHEET!G27</f>
         <v>113947973889</v>
       </c>
-      <c r="S17" s="86">
+      <c r="S17" s="81">
         <f>BALANCE_SHEET!H27</f>
         <v>130623005085</v>
       </c>
-      <c r="T17" s="86">
+      <c r="T17" s="81">
         <f>BALANCE_SHEET!I27</f>
         <v>143913787087</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="87" t="s">
+    <row r="18" spans="1:20" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="81"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="88">
+      <c r="D18" s="83">
         <f>BALANCE_SHEET!E23</f>
         <v>498786376745</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="83">
         <f>BALANCE_SHEET!F23</f>
         <v>497090038108</v>
       </c>
-      <c r="F18" s="88">
+      <c r="F18" s="83">
         <f>BALANCE_SHEET!G23</f>
         <v>483037173864</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G18" s="83">
         <f>BALANCE_SHEET!H23</f>
         <v>497354419089</v>
       </c>
-      <c r="H18" s="88">
+      <c r="H18" s="83">
         <f>BALANCE_SHEET!I23</f>
         <v>511887783867</v>
       </c>
-      <c r="I18" s="87" t="s">
+      <c r="I18" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="J18" s="86">
+      <c r="J18" s="81">
         <f>INCOME_STATEMENT!C32</f>
         <v>434747101600</v>
       </c>
-      <c r="K18" s="86">
+      <c r="K18" s="81">
         <f>INCOME_STATEMENT!D32</f>
         <v>428092732505</v>
       </c>
-      <c r="L18" s="86">
+      <c r="L18" s="81">
         <f>INCOME_STATEMENT!E32</f>
         <v>344361345265</v>
       </c>
-      <c r="M18" s="86">
+      <c r="M18" s="81">
         <f>INCOME_STATEMENT!F32</f>
         <v>344678666245</v>
       </c>
-      <c r="N18" s="86">
+      <c r="N18" s="81">
         <f>INCOME_STATEMENT!G32</f>
         <v>300572751733</v>
       </c>
-      <c r="O18" s="89" t="s">
+      <c r="O18" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="P18" s="86">
+      <c r="P18" s="81">
         <f>BALANCE_SHEET!E29</f>
         <v>383944578889</v>
       </c>
-      <c r="Q18" s="86">
+      <c r="Q18" s="81">
         <f>BALANCE_SHEET!F29</f>
         <v>377026019809</v>
       </c>
-      <c r="R18" s="86">
+      <c r="R18" s="81">
         <f>BALANCE_SHEET!G29</f>
         <v>369089199975</v>
       </c>
-      <c r="S18" s="86">
+      <c r="S18" s="81">
         <f>BALANCE_SHEET!H29</f>
         <v>366731414004</v>
       </c>
-      <c r="T18" s="86">
+      <c r="T18" s="81">
         <f>BALANCE_SHEET!I29</f>
         <v>367973996780</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="101"/>
-      <c r="C19" s="78" t="s">
+      <c r="B19" s="94"/>
+      <c r="C19" s="74" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="37">
@@ -7940,7 +7821,7 @@
         <f>H17/H18</f>
         <v>-4.4081468011478928E-3</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="70" t="s">
         <v>56</v>
       </c>
       <c r="J19" s="37">
@@ -7963,7 +7844,7 @@
         <f t="shared" si="10"/>
         <v>-7.5072556776684708E-3</v>
       </c>
-      <c r="O19" s="65" t="s">
+      <c r="O19" s="63" t="s">
         <v>56</v>
       </c>
       <c r="P19" s="37">
@@ -7988,8 +7869,8 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="101"/>
-      <c r="C20" s="78"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="37" t="str">
         <f>IF(D19=D$30,"S",IF(D19&lt;D$30,"B",IF(D19&gt;D$30,"A")))</f>
         <v>B</v>
@@ -8010,7 +7891,7 @@
         <f t="shared" si="16"/>
         <v>B</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="70"/>
       <c r="J20" s="37" t="str">
         <f t="shared" si="16"/>
         <v>B</v>
@@ -8031,7 +7912,7 @@
         <f t="shared" si="16"/>
         <v>B</v>
       </c>
-      <c r="O20" s="65"/>
+      <c r="O20" s="63"/>
       <c r="P20" s="37" t="str">
         <f>IF(P19=P$30,"S",IF(P19&lt;P$30,"B",IF(P19&gt;P$30,"A")))</f>
         <v>B</v>
@@ -8053,157 +7934,157 @@
         <v>B</v>
       </c>
     </row>
-    <row r="21" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="101" t="s">
+    <row r="21" spans="1:20" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="81"/>
+      <c r="B21" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="88">
+      <c r="D21" s="83">
         <f>INCOME_STATEMENT!C69</f>
         <v>7371973842</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="83">
         <f>INCOME_STATEMENT!D69</f>
         <v>1045990311</v>
       </c>
-      <c r="F21" s="88">
+      <c r="F21" s="83">
         <f>INCOME_STATEMENT!E69</f>
         <v>-5549465678</v>
       </c>
-      <c r="G21" s="88">
+      <c r="G21" s="83">
         <f>INCOME_STATEMENT!F69</f>
         <v>-1283332109</v>
       </c>
-      <c r="H21" s="88">
+      <c r="H21" s="83">
         <f>INCOME_STATEMENT!G69</f>
         <v>-2256476497</v>
       </c>
-      <c r="I21" s="87" t="s">
+      <c r="I21" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="86">
+      <c r="J21" s="81">
         <f>INCOME_STATEMENT!C69</f>
         <v>7371973842</v>
       </c>
-      <c r="K21" s="86">
+      <c r="K21" s="81">
         <f>INCOME_STATEMENT!D69</f>
         <v>1045990311</v>
       </c>
-      <c r="L21" s="86">
+      <c r="L21" s="81">
         <f>INCOME_STATEMENT!E69</f>
         <v>-5549465678</v>
       </c>
-      <c r="M21" s="86">
+      <c r="M21" s="81">
         <f>INCOME_STATEMENT!F69</f>
         <v>-1283332109</v>
       </c>
-      <c r="N21" s="86">
+      <c r="N21" s="81">
         <f>INCOME_STATEMENT!G69</f>
         <v>-2256476497</v>
       </c>
-      <c r="O21" s="89" t="s">
+      <c r="O21" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="P21" s="86">
+      <c r="P21" s="81">
         <f>BALANCE_SHEET!E42</f>
         <v>165633948162</v>
       </c>
-      <c r="Q21" s="86">
+      <c r="Q21" s="81">
         <f>BALANCE_SHEET!F42</f>
         <v>214685781274</v>
       </c>
-      <c r="R21" s="86">
+      <c r="R21" s="81">
         <f>BALANCE_SHEET!G42</f>
         <v>269032270377</v>
       </c>
-      <c r="S21" s="86">
+      <c r="S21" s="81">
         <f>BALANCE_SHEET!H42</f>
         <v>367927139244</v>
       </c>
-      <c r="T21" s="86">
+      <c r="T21" s="81">
         <f>BALANCE_SHEET!I42</f>
         <v>347517123452</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="87" t="s">
+    <row r="22" spans="1:20" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="81"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="88">
+      <c r="D22" s="83">
         <f>BALANCE_SHEET!E38</f>
         <v>619383082066</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="83">
         <f>BALANCE_SHEET!F38</f>
         <v>648899377240</v>
       </c>
-      <c r="F22" s="88">
+      <c r="F22" s="83">
         <f>BALANCE_SHEET!G38</f>
         <v>709959168088</v>
       </c>
-      <c r="G22" s="88">
+      <c r="G22" s="83">
         <f>BALANCE_SHEET!H38</f>
         <v>780669761787</v>
       </c>
-      <c r="H22" s="88">
+      <c r="H22" s="83">
         <f>BALANCE_SHEET!I38</f>
         <v>648016880325</v>
       </c>
-      <c r="I22" s="87" t="s">
+      <c r="I22" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="86">
+      <c r="J22" s="81">
         <f>INCOME_STATEMENT!C58</f>
         <v>434747101600</v>
       </c>
-      <c r="K22" s="86">
+      <c r="K22" s="81">
         <f>INCOME_STATEMENT!D58</f>
         <v>428092732505</v>
       </c>
-      <c r="L22" s="86">
+      <c r="L22" s="81">
         <f>INCOME_STATEMENT!E58</f>
         <v>344361345265</v>
       </c>
-      <c r="M22" s="86">
+      <c r="M22" s="81">
         <f>INCOME_STATEMENT!F58</f>
         <v>344678666245</v>
       </c>
-      <c r="N22" s="86">
+      <c r="N22" s="81">
         <f>INCOME_STATEMENT!G58</f>
         <v>300572751733</v>
       </c>
-      <c r="O22" s="89" t="s">
+      <c r="O22" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="86">
+      <c r="P22" s="81">
         <f>BALANCE_SHEET!E44</f>
         <v>453749133904</v>
       </c>
-      <c r="Q22" s="86">
+      <c r="Q22" s="81">
         <f>BALANCE_SHEET!F44</f>
         <v>434213595966</v>
       </c>
-      <c r="R22" s="86">
+      <c r="R22" s="81">
         <f>BALANCE_SHEET!G44</f>
         <v>440926897711</v>
       </c>
-      <c r="S22" s="86">
+      <c r="S22" s="81">
         <f>BALANCE_SHEET!H44</f>
         <v>412742622543</v>
       </c>
-      <c r="T22" s="86">
+      <c r="T22" s="81">
         <f>BALANCE_SHEET!I44</f>
         <v>300499756873</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B23" s="101"/>
-      <c r="C23" s="78" t="s">
+      <c r="B23" s="94"/>
+      <c r="C23" s="74" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="37">
@@ -8226,7 +8107,7 @@
         <f>H21/H22</f>
         <v>-3.4821261073759513E-3</v>
       </c>
-      <c r="I23" s="74" t="s">
+      <c r="I23" s="70" t="s">
         <v>56</v>
       </c>
       <c r="J23" s="37">
@@ -8249,7 +8130,7 @@
         <f t="shared" si="17"/>
         <v>-7.5072556776684708E-3</v>
       </c>
-      <c r="O23" s="65" t="s">
+      <c r="O23" s="63" t="s">
         <v>56</v>
       </c>
       <c r="P23" s="37">
@@ -8274,8 +8155,8 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B24" s="101"/>
-      <c r="C24" s="78"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="74"/>
       <c r="D24" s="37" t="str">
         <f>IF(D23=D$30,"S",IF(D23&lt;D$30,"B",IF(D23&gt;D$30,"A")))</f>
         <v>B</v>
@@ -8296,7 +8177,7 @@
         <f t="shared" si="23"/>
         <v>B</v>
       </c>
-      <c r="I24" s="74"/>
+      <c r="I24" s="70"/>
       <c r="J24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>B</v>
@@ -8317,7 +8198,7 @@
         <f t="shared" si="23"/>
         <v>B</v>
       </c>
-      <c r="O24" s="65"/>
+      <c r="O24" s="63"/>
       <c r="P24" s="37" t="str">
         <f t="shared" si="23"/>
         <v>B</v>
@@ -8339,157 +8220,157 @@
         <v>A</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="101" t="s">
+    <row r="25" spans="1:20" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="81"/>
+      <c r="B25" s="94" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="88">
+      <c r="D25" s="83">
         <f>INCOME_STATEMENT!C95</f>
         <v>174314394101</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="83">
         <f>INCOME_STATEMENT!D95</f>
         <v>544474278014</v>
       </c>
-      <c r="F25" s="88">
+      <c r="F25" s="83">
         <f>INCOME_STATEMENT!E95</f>
         <v>162059596347</v>
       </c>
-      <c r="G25" s="88">
+      <c r="G25" s="83">
         <f>INCOME_STATEMENT!F95</f>
         <v>179126382068</v>
       </c>
-      <c r="H25" s="88">
+      <c r="H25" s="83">
         <f>INCOME_STATEMENT!G95</f>
         <v>173049442756</v>
       </c>
-      <c r="I25" s="87" t="s">
+      <c r="I25" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="J25" s="86">
+      <c r="J25" s="81">
         <f>INCOME_STATEMENT!C95</f>
         <v>174314394101</v>
       </c>
-      <c r="K25" s="86">
+      <c r="K25" s="81">
         <f>INCOME_STATEMENT!D95</f>
         <v>544474278014</v>
       </c>
-      <c r="L25" s="86">
+      <c r="L25" s="81">
         <f>INCOME_STATEMENT!E95</f>
         <v>162059596347</v>
       </c>
-      <c r="M25" s="86">
+      <c r="M25" s="81">
         <f>INCOME_STATEMENT!F95</f>
         <v>179126382068</v>
       </c>
-      <c r="N25" s="86">
+      <c r="N25" s="81">
         <f>INCOME_STATEMENT!G95</f>
         <v>173049442756</v>
       </c>
-      <c r="O25" s="89" t="s">
+      <c r="O25" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="P25" s="86">
+      <c r="P25" s="81">
         <f>BALANCE_SHEET!E57</f>
         <v>569730901368</v>
       </c>
-      <c r="Q25" s="86">
+      <c r="Q25" s="81">
         <f>BALANCE_SHEET!F57</f>
         <v>367225370670</v>
       </c>
-      <c r="R25" s="86">
+      <c r="R25" s="81">
         <f>BALANCE_SHEET!G57</f>
         <v>401942530776</v>
       </c>
-      <c r="S25" s="86">
+      <c r="S25" s="81">
         <f>BALANCE_SHEET!H57</f>
         <v>503480853006</v>
       </c>
-      <c r="T25" s="86">
+      <c r="T25" s="81">
         <f>BALANCE_SHEET!I57</f>
         <v>472680346662</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="91" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="87" t="s">
+    <row r="26" spans="1:20" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="81"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="88">
+      <c r="D26" s="83">
         <f>BALANCE_SHEET!E53</f>
         <v>1853235343636</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="83">
         <f>BALANCE_SHEET!F53</f>
         <v>2082096848703</v>
       </c>
-      <c r="F26" s="88">
+      <c r="F26" s="83">
         <f>BALANCE_SHEET!G53</f>
         <v>2185101038101</v>
       </c>
-      <c r="G26" s="88">
+      <c r="G26" s="83">
         <f>BALANCE_SHEET!H53</f>
         <v>2361807189430</v>
       </c>
-      <c r="H26" s="88">
+      <c r="H26" s="83">
         <f>BALANCE_SHEET!I53</f>
         <v>2445143511801</v>
       </c>
-      <c r="I26" s="87" t="s">
+      <c r="I26" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="86">
+      <c r="J26" s="81">
         <f>INCOME_STATEMENT!C84</f>
         <v>2308203551971</v>
       </c>
-      <c r="K26" s="86">
+      <c r="K26" s="81">
         <f>INCOME_STATEMENT!D84</f>
         <v>2314889854074</v>
       </c>
-      <c r="L26" s="86">
+      <c r="L26" s="81">
         <f>INCOME_STATEMENT!E84</f>
         <v>2526776164168</v>
       </c>
-      <c r="M26" s="86">
+      <c r="M26" s="81">
         <f>INCOME_STATEMENT!F84</f>
         <v>2706394847919</v>
       </c>
-      <c r="N26" s="86">
+      <c r="N26" s="81">
         <f>INCOME_STATEMENT!G84</f>
         <v>2648754344347</v>
       </c>
-      <c r="O26" s="89" t="s">
+      <c r="O26" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="P26" s="86">
+      <c r="P26" s="81">
         <f>BALANCE_SHEET!E59</f>
         <v>1283504442268</v>
       </c>
-      <c r="Q26" s="86">
+      <c r="Q26" s="81">
         <f>BALANCE_SHEET!F59</f>
         <v>1714871478033</v>
       </c>
-      <c r="R26" s="86">
+      <c r="R26" s="81">
         <f>BALANCE_SHEET!G59</f>
         <v>1783158507325</v>
       </c>
-      <c r="S26" s="86">
+      <c r="S26" s="81">
         <f>BALANCE_SHEET!H59</f>
         <v>1858326336424</v>
       </c>
-      <c r="T26" s="86">
+      <c r="T26" s="81">
         <f>BALANCE_SHEET!I59</f>
         <v>1972463165139</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B27" s="101"/>
-      <c r="C27" s="78" t="s">
+      <c r="B27" s="94"/>
+      <c r="C27" s="74" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="37">
@@ -8512,7 +8393,7 @@
         <f>H25/H26</f>
         <v>7.077271412529007E-2</v>
       </c>
-      <c r="I27" s="74" t="s">
+      <c r="I27" s="70" t="s">
         <v>56</v>
       </c>
       <c r="J27" s="37">
@@ -8535,7 +8416,7 @@
         <f t="shared" si="24"/>
         <v>6.5332386570813555E-2</v>
       </c>
-      <c r="O27" s="65" t="s">
+      <c r="O27" s="63" t="s">
         <v>56</v>
       </c>
       <c r="P27" s="37">
@@ -8560,8 +8441,8 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B28" s="101"/>
-      <c r="C28" s="78"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="74"/>
       <c r="D28" s="37" t="str">
         <f>IF(D27=D$30,"S",IF(D27&lt;D$30,"B",IF(D27&gt;D$30,"A")))</f>
         <v>B</v>
@@ -8582,7 +8463,7 @@
         <f t="shared" si="30"/>
         <v>B</v>
       </c>
-      <c r="I28" s="74"/>
+      <c r="I28" s="70"/>
       <c r="J28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>A</v>
@@ -8603,7 +8484,7 @@
         <f t="shared" si="30"/>
         <v>B</v>
       </c>
-      <c r="O28" s="65"/>
+      <c r="O28" s="63"/>
       <c r="P28" s="37" t="str">
         <f t="shared" si="30"/>
         <v>B</v>
@@ -8627,25 +8508,25 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B29" s="41"/>
-      <c r="C29" s="78"/>
+      <c r="C29" s="74"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
-      <c r="I29" s="74"/>
+      <c r="I29" s="70"/>
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
       <c r="M29" s="37"/>
       <c r="N29" s="37"/>
-      <c r="O29" s="65"/>
+      <c r="O29" s="63"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B30" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="81"/>
+      <c r="C30" s="77"/>
       <c r="D30" s="51">
         <f>(D15+D19+D23+D27)/4</f>
         <v>0.13064498669872576</v>
@@ -8666,7 +8547,7 @@
         <f>(H15+H19+H23+H27)/4</f>
         <v>0.13617504288217447</v>
       </c>
-      <c r="I30" s="75"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="51">
         <f t="shared" ref="J30:T30" si="31">(J15+J19+J23+J27)/4</f>
         <v>6.8927941550198893E-2</v>
@@ -8687,7 +8568,7 @@
         <f t="shared" si="31"/>
         <v>6.7059093534441727E-2</v>
       </c>
-      <c r="O30" s="66"/>
+      <c r="O30" s="64"/>
       <c r="P30" s="51">
         <f>(P15+P19+P23+P27)/4</f>
         <v>0.80333680679523478</v>
@@ -8711,7 +8592,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="52"/>
-      <c r="C32" s="82"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="53" t="str">
         <f t="shared" ref="D32:N32" si="32">IF(D5-D15=0,"","X")</f>
         <v/>
@@ -8732,7 +8613,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="I32" s="76"/>
+      <c r="I32" s="72"/>
       <c r="J32" s="53" t="str">
         <f t="shared" si="32"/>
         <v/>
@@ -8753,7 +8634,7 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="O32" s="67"/>
+      <c r="O32" s="65"/>
       <c r="P32" s="53" t="str">
         <f t="shared" ref="P32:T32" si="33">IF(P5-P15=0,"","X")</f>
         <v/>
@@ -8777,7 +8658,7 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="52"/>
-      <c r="C33" s="82"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="53" t="str">
         <f>IF(D6=D19,"","X")</f>
         <v/>
@@ -8798,7 +8679,7 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I33" s="76"/>
+      <c r="I33" s="72"/>
       <c r="J33" s="53" t="str">
         <f t="shared" si="34"/>
         <v/>
@@ -8819,7 +8700,7 @@
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="O33" s="67"/>
+      <c r="O33" s="65"/>
       <c r="P33" s="53" t="str">
         <f t="shared" ref="P33:T33" si="35">IF(P6=P19,"","X")</f>
         <v/>
@@ -8843,7 +8724,7 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="52"/>
-      <c r="C34" s="82"/>
+      <c r="C34" s="78"/>
       <c r="D34" s="53" t="str">
         <f>IF(D7=D23,"","X")</f>
         <v/>
@@ -8864,7 +8745,7 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I34" s="76"/>
+      <c r="I34" s="72"/>
       <c r="J34" s="53" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -8885,7 +8766,7 @@
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="O34" s="67"/>
+      <c r="O34" s="65"/>
       <c r="P34" s="53" t="str">
         <f t="shared" ref="P34:T34" si="37">IF(P7=P23,"","X")</f>
         <v/>
@@ -8909,7 +8790,7 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="52"/>
-      <c r="C35" s="82"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="53" t="str">
         <f>IF(D8=D27,"","X")</f>
         <v/>
@@ -8930,7 +8811,7 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I35" s="76"/>
+      <c r="I35" s="72"/>
       <c r="J35" s="53" t="str">
         <f t="shared" si="38"/>
         <v/>
@@ -8951,7 +8832,7 @@
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="O35" s="67"/>
+      <c r="O35" s="65"/>
       <c r="P35" s="53" t="str">
         <f t="shared" ref="P35:T35" si="39">IF(P8=P27,"","X")</f>
         <v/>
@@ -8975,16 +8856,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="P11:T11"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="D3:H3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="P11:T11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
